--- a/BackTest/2020-01-24 BackTest ELF.xlsx
+++ b/BackTest/2020-01-24 BackTest ELF.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M251"/>
+  <dimension ref="A1:M252"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>71.01000000000001</v>
+        <v>71.31</v>
       </c>
       <c r="C2" t="n">
-        <v>71.65000000000001</v>
+        <v>71.95</v>
       </c>
       <c r="D2" t="n">
-        <v>71.65000000000001</v>
+        <v>72</v>
       </c>
       <c r="E2" t="n">
-        <v>71.01000000000001</v>
+        <v>71</v>
       </c>
       <c r="F2" t="n">
-        <v>1771.5399</v>
+        <v>6774.1682</v>
       </c>
       <c r="G2" t="n">
-        <v>72.56266666666673</v>
+        <v>72.5603333333334</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>71.53</v>
+        <v>71.01000000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>72.05</v>
+        <v>71.65000000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>72.05</v>
+        <v>71.65000000000001</v>
       </c>
       <c r="E3" t="n">
-        <v>71.53</v>
+        <v>71.01000000000001</v>
       </c>
       <c r="F3" t="n">
-        <v>53929.1685</v>
+        <v>1771.5399</v>
       </c>
       <c r="G3" t="n">
-        <v>72.56716666666674</v>
+        <v>72.56266666666673</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>71.41</v>
+        <v>71.53</v>
       </c>
       <c r="C4" t="n">
-        <v>71.41</v>
+        <v>72.05</v>
       </c>
       <c r="D4" t="n">
-        <v>71.41</v>
+        <v>72.05</v>
       </c>
       <c r="E4" t="n">
-        <v>71.41</v>
+        <v>71.53</v>
       </c>
       <c r="F4" t="n">
-        <v>2477.6668</v>
+        <v>53929.1685</v>
       </c>
       <c r="G4" t="n">
-        <v>72.55750000000008</v>
+        <v>72.56716666666674</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>71.98999999999999</v>
+        <v>71.41</v>
       </c>
       <c r="C5" t="n">
-        <v>72.03</v>
+        <v>71.41</v>
       </c>
       <c r="D5" t="n">
-        <v>72.03</v>
+        <v>71.41</v>
       </c>
       <c r="E5" t="n">
-        <v>71.98999999999999</v>
+        <v>71.41</v>
       </c>
       <c r="F5" t="n">
-        <v>625.9095</v>
+        <v>2477.6668</v>
       </c>
       <c r="G5" t="n">
-        <v>72.5663333333334</v>
+        <v>72.55750000000008</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>71.3</v>
+        <v>71.98999999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>71.19</v>
+        <v>72.03</v>
       </c>
       <c r="D6" t="n">
-        <v>71.3</v>
+        <v>72.03</v>
       </c>
       <c r="E6" t="n">
-        <v>71.19</v>
+        <v>71.98999999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>14688.202</v>
+        <v>625.9095</v>
       </c>
       <c r="G6" t="n">
-        <v>72.56116666666672</v>
+        <v>72.5663333333334</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>71.15000000000001</v>
+        <v>71.3</v>
       </c>
       <c r="C7" t="n">
-        <v>71.15000000000001</v>
+        <v>71.19</v>
       </c>
       <c r="D7" t="n">
-        <v>71.15000000000001</v>
+        <v>71.3</v>
       </c>
       <c r="E7" t="n">
-        <v>71.15000000000001</v>
+        <v>71.19</v>
       </c>
       <c r="F7" t="n">
-        <v>25049.3841</v>
+        <v>14688.202</v>
       </c>
       <c r="G7" t="n">
-        <v>72.55533333333339</v>
+        <v>72.56116666666672</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>71</v>
+        <v>71.15000000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>70.94</v>
+        <v>71.15000000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>71</v>
+        <v>71.15000000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>70.8</v>
+        <v>71.15000000000001</v>
       </c>
       <c r="F8" t="n">
-        <v>97500.3738</v>
+        <v>25049.3841</v>
       </c>
       <c r="G8" t="n">
-        <v>72.53983333333339</v>
+        <v>72.55533333333339</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>70.94</v>
+        <v>71</v>
       </c>
       <c r="C9" t="n">
         <v>70.94</v>
       </c>
       <c r="D9" t="n">
-        <v>70.94</v>
+        <v>71</v>
       </c>
       <c r="E9" t="n">
-        <v>70.94</v>
+        <v>70.8</v>
       </c>
       <c r="F9" t="n">
-        <v>1460.562</v>
+        <v>97500.3738</v>
       </c>
       <c r="G9" t="n">
-        <v>72.52450000000005</v>
+        <v>72.53983333333339</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -725,10 +725,10 @@
         <v>70.94</v>
       </c>
       <c r="F10" t="n">
-        <v>32.4362</v>
+        <v>1460.562</v>
       </c>
       <c r="G10" t="n">
-        <v>72.51683333333338</v>
+        <v>72.52450000000005</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -760,10 +760,10 @@
         <v>70.94</v>
       </c>
       <c r="F11" t="n">
-        <v>793.2379</v>
+        <v>32.4362</v>
       </c>
       <c r="G11" t="n">
-        <v>72.50200000000004</v>
+        <v>72.51683333333338</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>70.2</v>
+        <v>70.94</v>
       </c>
       <c r="C12" t="n">
-        <v>70.2</v>
+        <v>70.94</v>
       </c>
       <c r="D12" t="n">
-        <v>70.2</v>
+        <v>70.94</v>
       </c>
       <c r="E12" t="n">
-        <v>70.2</v>
+        <v>70.94</v>
       </c>
       <c r="F12" t="n">
-        <v>657.7137</v>
+        <v>793.2379</v>
       </c>
       <c r="G12" t="n">
-        <v>72.48850000000003</v>
+        <v>72.50200000000004</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>70.2</v>
       </c>
       <c r="C13" t="n">
-        <v>70.08</v>
+        <v>70.2</v>
       </c>
       <c r="D13" t="n">
         <v>70.2</v>
       </c>
       <c r="E13" t="n">
-        <v>69.45</v>
+        <v>70.2</v>
       </c>
       <c r="F13" t="n">
-        <v>44750.9927</v>
+        <v>657.7137</v>
       </c>
       <c r="G13" t="n">
-        <v>72.46033333333337</v>
+        <v>72.48850000000003</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
+        <v>70.2</v>
+      </c>
+      <c r="C14" t="n">
+        <v>70.08</v>
+      </c>
+      <c r="D14" t="n">
+        <v>70.2</v>
+      </c>
+      <c r="E14" t="n">
         <v>69.45</v>
       </c>
-      <c r="C14" t="n">
-        <v>70.33</v>
-      </c>
-      <c r="D14" t="n">
-        <v>70.33</v>
-      </c>
-      <c r="E14" t="n">
-        <v>69.40000000000001</v>
-      </c>
       <c r="F14" t="n">
-        <v>71148.7254</v>
+        <v>44750.9927</v>
       </c>
       <c r="G14" t="n">
-        <v>72.44750000000002</v>
+        <v>72.46033333333337</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>70.34</v>
+        <v>69.45</v>
       </c>
       <c r="C15" t="n">
-        <v>70.34</v>
+        <v>70.33</v>
       </c>
       <c r="D15" t="n">
-        <v>70.34</v>
+        <v>70.33</v>
       </c>
       <c r="E15" t="n">
-        <v>70.34</v>
+        <v>69.40000000000001</v>
       </c>
       <c r="F15" t="n">
-        <v>750</v>
+        <v>71148.7254</v>
       </c>
       <c r="G15" t="n">
-        <v>72.42366666666668</v>
+        <v>72.44750000000002</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>69.73</v>
+        <v>70.34</v>
       </c>
       <c r="C16" t="n">
-        <v>69.7</v>
+        <v>70.34</v>
       </c>
       <c r="D16" t="n">
-        <v>69.73</v>
+        <v>70.34</v>
       </c>
       <c r="E16" t="n">
-        <v>69.7</v>
+        <v>70.34</v>
       </c>
       <c r="F16" t="n">
-        <v>33173.996</v>
+        <v>750</v>
       </c>
       <c r="G16" t="n">
-        <v>72.39750000000001</v>
+        <v>72.42366666666668</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>69.8</v>
+        <v>69.73</v>
       </c>
       <c r="C17" t="n">
-        <v>69.8</v>
+        <v>69.7</v>
       </c>
       <c r="D17" t="n">
-        <v>69.8</v>
+        <v>69.73</v>
       </c>
       <c r="E17" t="n">
-        <v>69.8</v>
+        <v>69.7</v>
       </c>
       <c r="F17" t="n">
-        <v>11.8222</v>
+        <v>33173.996</v>
       </c>
       <c r="G17" t="n">
-        <v>72.36766666666668</v>
+        <v>72.39750000000001</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>69.79000000000001</v>
+        <v>69.8</v>
       </c>
       <c r="C18" t="n">
-        <v>69.70999999999999</v>
+        <v>69.8</v>
       </c>
       <c r="D18" t="n">
-        <v>70.48999999999999</v>
+        <v>69.8</v>
       </c>
       <c r="E18" t="n">
-        <v>69.7</v>
+        <v>69.8</v>
       </c>
       <c r="F18" t="n">
-        <v>61715.0085</v>
+        <v>11.8222</v>
       </c>
       <c r="G18" t="n">
-        <v>72.34283333333335</v>
+        <v>72.36766666666668</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>70.20999999999999</v>
+        <v>69.79000000000001</v>
       </c>
       <c r="C19" t="n">
-        <v>70.88</v>
+        <v>69.70999999999999</v>
       </c>
       <c r="D19" t="n">
-        <v>70.88</v>
+        <v>70.48999999999999</v>
       </c>
       <c r="E19" t="n">
-        <v>70.20999999999999</v>
+        <v>69.7</v>
       </c>
       <c r="F19" t="n">
-        <v>1494.7762</v>
+        <v>61715.0085</v>
       </c>
       <c r="G19" t="n">
-        <v>72.32433333333334</v>
+        <v>72.34283333333335</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>70.23</v>
+        <v>70.20999999999999</v>
       </c>
       <c r="C20" t="n">
-        <v>70.2</v>
+        <v>70.88</v>
       </c>
       <c r="D20" t="n">
-        <v>70.23</v>
+        <v>70.88</v>
       </c>
       <c r="E20" t="n">
-        <v>70.2</v>
+        <v>70.20999999999999</v>
       </c>
       <c r="F20" t="n">
-        <v>19151.7317</v>
+        <v>1494.7762</v>
       </c>
       <c r="G20" t="n">
-        <v>72.26200000000001</v>
+        <v>72.32433333333334</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>70.09999999999999</v>
+        <v>70.23</v>
       </c>
       <c r="C21" t="n">
-        <v>70.14</v>
+        <v>70.2</v>
       </c>
       <c r="D21" t="n">
-        <v>70.14</v>
+        <v>70.23</v>
       </c>
       <c r="E21" t="n">
-        <v>70.09999999999999</v>
+        <v>70.2</v>
       </c>
       <c r="F21" t="n">
-        <v>40562.2179</v>
+        <v>19151.7317</v>
       </c>
       <c r="G21" t="n">
-        <v>72.22900000000003</v>
+        <v>72.26200000000001</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
+        <v>70.09999999999999</v>
+      </c>
+      <c r="C22" t="n">
         <v>70.14</v>
-      </c>
-      <c r="C22" t="n">
-        <v>70.11</v>
       </c>
       <c r="D22" t="n">
         <v>70.14</v>
       </c>
       <c r="E22" t="n">
-        <v>69.97</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="F22" t="n">
-        <v>12551.8739</v>
+        <v>40562.2179</v>
       </c>
       <c r="G22" t="n">
-        <v>72.1776666666667</v>
+        <v>72.22900000000003</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
+        <v>70.14</v>
+      </c>
+      <c r="C23" t="n">
         <v>70.11</v>
       </c>
-      <c r="C23" t="n">
-        <v>69.98</v>
-      </c>
       <c r="D23" t="n">
-        <v>70.11</v>
+        <v>70.14</v>
       </c>
       <c r="E23" t="n">
-        <v>69.98</v>
+        <v>69.97</v>
       </c>
       <c r="F23" t="n">
-        <v>5300.259</v>
+        <v>12551.8739</v>
       </c>
       <c r="G23" t="n">
-        <v>72.13233333333336</v>
+        <v>72.1776666666667</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>69.97</v>
+        <v>70.11</v>
       </c>
       <c r="C24" t="n">
-        <v>69.97</v>
+        <v>69.98</v>
       </c>
       <c r="D24" t="n">
-        <v>69.97</v>
+        <v>70.11</v>
       </c>
       <c r="E24" t="n">
-        <v>69.97</v>
+        <v>69.98</v>
       </c>
       <c r="F24" t="n">
-        <v>17925.4184</v>
+        <v>5300.259</v>
       </c>
       <c r="G24" t="n">
-        <v>72.08716666666669</v>
+        <v>72.13233333333336</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>69.70999999999999</v>
+        <v>69.97</v>
       </c>
       <c r="C25" t="n">
-        <v>69.7</v>
+        <v>69.97</v>
       </c>
       <c r="D25" t="n">
-        <v>69.70999999999999</v>
+        <v>69.97</v>
       </c>
       <c r="E25" t="n">
-        <v>69.7</v>
+        <v>69.97</v>
       </c>
       <c r="F25" t="n">
-        <v>26786.8208</v>
+        <v>17925.4184</v>
       </c>
       <c r="G25" t="n">
-        <v>72.02716666666669</v>
+        <v>72.08716666666669</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
+        <v>69.70999999999999</v>
+      </c>
+      <c r="C26" t="n">
         <v>69.7</v>
       </c>
-      <c r="C26" t="n">
-        <v>69.68000000000001</v>
-      </c>
       <c r="D26" t="n">
+        <v>69.70999999999999</v>
+      </c>
+      <c r="E26" t="n">
         <v>69.7</v>
       </c>
-      <c r="E26" t="n">
-        <v>69.68000000000001</v>
-      </c>
       <c r="F26" t="n">
-        <v>20511.7392</v>
+        <v>26786.8208</v>
       </c>
       <c r="G26" t="n">
-        <v>71.96683333333335</v>
+        <v>72.02716666666669</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>69.90000000000001</v>
+        <v>69.7</v>
       </c>
       <c r="C27" t="n">
-        <v>69.90000000000001</v>
+        <v>69.68000000000001</v>
       </c>
       <c r="D27" t="n">
-        <v>69.90000000000001</v>
+        <v>69.7</v>
       </c>
       <c r="E27" t="n">
-        <v>69.90000000000001</v>
+        <v>69.68000000000001</v>
       </c>
       <c r="F27" t="n">
-        <v>634.9829999999999</v>
+        <v>20511.7392</v>
       </c>
       <c r="G27" t="n">
-        <v>71.91683333333336</v>
+        <v>71.96683333333335</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1346,19 +1346,19 @@
         <v>69.90000000000001</v>
       </c>
       <c r="C28" t="n">
-        <v>70</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="D28" t="n">
-        <v>70</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="E28" t="n">
         <v>69.90000000000001</v>
       </c>
       <c r="F28" t="n">
-        <v>7476</v>
+        <v>634.9829999999999</v>
       </c>
       <c r="G28" t="n">
-        <v>71.85566666666668</v>
+        <v>71.91683333333336</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,7 +1378,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>70</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="C29" t="n">
         <v>70</v>
@@ -1387,13 +1387,13 @@
         <v>70</v>
       </c>
       <c r="E29" t="n">
-        <v>70</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="F29" t="n">
-        <v>830.6011</v>
+        <v>7476</v>
       </c>
       <c r="G29" t="n">
-        <v>71.78066666666669</v>
+        <v>71.85566666666668</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1425,10 +1425,10 @@
         <v>70</v>
       </c>
       <c r="F30" t="n">
-        <v>7088.6275</v>
+        <v>830.6011</v>
       </c>
       <c r="G30" t="n">
-        <v>71.70066666666668</v>
+        <v>71.78066666666669</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1451,19 +1451,19 @@
         <v>70</v>
       </c>
       <c r="C31" t="n">
-        <v>69.94</v>
+        <v>70</v>
       </c>
       <c r="D31" t="n">
         <v>70</v>
       </c>
       <c r="E31" t="n">
-        <v>69.94</v>
+        <v>70</v>
       </c>
       <c r="F31" t="n">
-        <v>6080.7714</v>
+        <v>7088.6275</v>
       </c>
       <c r="G31" t="n">
-        <v>71.62166666666667</v>
+        <v>71.70066666666668</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>69.94</v>
+        <v>70</v>
       </c>
       <c r="C32" t="n">
         <v>69.94</v>
       </c>
       <c r="D32" t="n">
-        <v>69.94</v>
+        <v>70</v>
       </c>
       <c r="E32" t="n">
         <v>69.94</v>
       </c>
       <c r="F32" t="n">
-        <v>1168.3968</v>
+        <v>6080.7714</v>
       </c>
       <c r="G32" t="n">
-        <v>71.54949999999999</v>
+        <v>71.62166666666667</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1530,10 +1530,10 @@
         <v>69.94</v>
       </c>
       <c r="F33" t="n">
-        <v>778.9159</v>
+        <v>1168.3968</v>
       </c>
       <c r="G33" t="n">
-        <v>71.47683333333332</v>
+        <v>71.54949999999999</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>69.90000000000001</v>
+        <v>69.94</v>
       </c>
       <c r="C34" t="n">
-        <v>69.90000000000001</v>
+        <v>69.94</v>
       </c>
       <c r="D34" t="n">
-        <v>69.90000000000001</v>
+        <v>69.94</v>
       </c>
       <c r="E34" t="n">
-        <v>69.90000000000001</v>
+        <v>69.94</v>
       </c>
       <c r="F34" t="n">
-        <v>12449.9968</v>
+        <v>778.9159</v>
       </c>
       <c r="G34" t="n">
-        <v>71.40516666666664</v>
+        <v>71.47683333333332</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1600,10 +1600,10 @@
         <v>69.90000000000001</v>
       </c>
       <c r="F35" t="n">
-        <v>11058.2376</v>
+        <v>12449.9968</v>
       </c>
       <c r="G35" t="n">
-        <v>71.3368333333333</v>
+        <v>71.40516666666664</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>69.91</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="C36" t="n">
-        <v>70.29000000000001</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="D36" t="n">
-        <v>70.29000000000001</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="E36" t="n">
-        <v>69.91</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="F36" t="n">
-        <v>4930.7879</v>
+        <v>11058.2376</v>
       </c>
       <c r="G36" t="n">
-        <v>71.28733333333329</v>
+        <v>71.3368333333333</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1661,19 +1661,19 @@
         <v>69.91</v>
       </c>
       <c r="C37" t="n">
-        <v>69.91</v>
+        <v>70.29000000000001</v>
       </c>
       <c r="D37" t="n">
-        <v>69.91</v>
+        <v>70.29000000000001</v>
       </c>
       <c r="E37" t="n">
         <v>69.91</v>
       </c>
       <c r="F37" t="n">
-        <v>665.1337</v>
+        <v>4930.7879</v>
       </c>
       <c r="G37" t="n">
-        <v>71.22433333333331</v>
+        <v>71.28733333333329</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>70.28</v>
+        <v>69.91</v>
       </c>
       <c r="C38" t="n">
-        <v>69.92</v>
+        <v>69.91</v>
       </c>
       <c r="D38" t="n">
-        <v>70.28</v>
+        <v>69.91</v>
       </c>
       <c r="E38" t="n">
-        <v>69.92</v>
+        <v>69.91</v>
       </c>
       <c r="F38" t="n">
-        <v>1607.463</v>
+        <v>665.1337</v>
       </c>
       <c r="G38" t="n">
-        <v>71.17816666666664</v>
+        <v>71.22433333333331</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1731,19 +1731,19 @@
         <v>70.28</v>
       </c>
       <c r="C39" t="n">
-        <v>70.88</v>
+        <v>69.92</v>
       </c>
       <c r="D39" t="n">
-        <v>70.88</v>
+        <v>70.28</v>
       </c>
       <c r="E39" t="n">
         <v>69.92</v>
       </c>
       <c r="F39" t="n">
-        <v>43898.5924</v>
+        <v>1607.463</v>
       </c>
       <c r="G39" t="n">
-        <v>71.13633333333331</v>
+        <v>71.17816666666664</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>69.92</v>
+        <v>70.28</v>
       </c>
       <c r="C40" t="n">
-        <v>69.92</v>
+        <v>70.88</v>
       </c>
       <c r="D40" t="n">
-        <v>69.92</v>
+        <v>70.88</v>
       </c>
       <c r="E40" t="n">
         <v>69.92</v>
       </c>
       <c r="F40" t="n">
-        <v>5087.1782</v>
+        <v>43898.5924</v>
       </c>
       <c r="G40" t="n">
-        <v>71.08849999999998</v>
+        <v>71.13633333333331</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>69.92</v>
       </c>
       <c r="F41" t="n">
-        <v>19929.1138</v>
+        <v>5087.1782</v>
       </c>
       <c r="G41" t="n">
-        <v>71.05266666666665</v>
+        <v>71.08849999999998</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1836,19 +1836,19 @@
         <v>69.92</v>
       </c>
       <c r="C42" t="n">
-        <v>69.91</v>
+        <v>69.92</v>
       </c>
       <c r="D42" t="n">
         <v>69.92</v>
       </c>
       <c r="E42" t="n">
-        <v>69.91</v>
+        <v>69.92</v>
       </c>
       <c r="F42" t="n">
-        <v>84559.0686</v>
+        <v>19929.1138</v>
       </c>
       <c r="G42" t="n">
-        <v>70.99966666666664</v>
+        <v>71.05266666666665</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,22 +1868,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
+        <v>69.92</v>
+      </c>
+      <c r="C43" t="n">
         <v>69.91</v>
       </c>
-      <c r="C43" t="n">
-        <v>69.90000000000001</v>
-      </c>
       <c r="D43" t="n">
+        <v>69.92</v>
+      </c>
+      <c r="E43" t="n">
         <v>69.91</v>
       </c>
-      <c r="E43" t="n">
-        <v>69.90000000000001</v>
-      </c>
       <c r="F43" t="n">
-        <v>46077.5887</v>
+        <v>84559.0686</v>
       </c>
       <c r="G43" t="n">
-        <v>70.96716666666663</v>
+        <v>70.99966666666664</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,22 +1903,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>70.3</v>
+        <v>69.91</v>
       </c>
       <c r="C44" t="n">
-        <v>70.3</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="D44" t="n">
-        <v>70.3</v>
+        <v>69.91</v>
       </c>
       <c r="E44" t="n">
-        <v>70.3</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="F44" t="n">
-        <v>2171.295</v>
+        <v>46077.5887</v>
       </c>
       <c r="G44" t="n">
-        <v>70.93283333333331</v>
+        <v>70.96716666666663</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,22 +1938,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>70.44</v>
+        <v>70.3</v>
       </c>
       <c r="C45" t="n">
-        <v>70</v>
+        <v>70.3</v>
       </c>
       <c r="D45" t="n">
-        <v>70.44</v>
+        <v>70.3</v>
       </c>
       <c r="E45" t="n">
-        <v>70</v>
+        <v>70.3</v>
       </c>
       <c r="F45" t="n">
-        <v>1197.1003</v>
+        <v>2171.295</v>
       </c>
       <c r="G45" t="n">
-        <v>70.90749999999997</v>
+        <v>70.93283333333331</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,22 +1973,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>69.90000000000001</v>
+        <v>70.44</v>
       </c>
       <c r="C46" t="n">
-        <v>69.7</v>
+        <v>70</v>
       </c>
       <c r="D46" t="n">
-        <v>69.90000000000001</v>
+        <v>70.44</v>
       </c>
       <c r="E46" t="n">
-        <v>69.7</v>
+        <v>70</v>
       </c>
       <c r="F46" t="n">
-        <v>14454.5512</v>
+        <v>1197.1003</v>
       </c>
       <c r="G46" t="n">
-        <v>70.87083333333331</v>
+        <v>70.90749999999997</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,22 +2008,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>69.8</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="C47" t="n">
         <v>69.7</v>
       </c>
       <c r="D47" t="n">
-        <v>69.8</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="E47" t="n">
         <v>69.7</v>
       </c>
       <c r="F47" t="n">
-        <v>125125.7394</v>
+        <v>14454.5512</v>
       </c>
       <c r="G47" t="n">
-        <v>70.83066666666664</v>
+        <v>70.87083333333331</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,22 +2043,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>70.08</v>
+        <v>69.8</v>
       </c>
       <c r="C48" t="n">
-        <v>70.08</v>
+        <v>69.7</v>
       </c>
       <c r="D48" t="n">
-        <v>70.08</v>
+        <v>69.8</v>
       </c>
       <c r="E48" t="n">
-        <v>70.08</v>
+        <v>69.7</v>
       </c>
       <c r="F48" t="n">
-        <v>4805.491</v>
+        <v>125125.7394</v>
       </c>
       <c r="G48" t="n">
-        <v>70.7893333333333</v>
+        <v>70.83066666666664</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2081,19 +2081,19 @@
         <v>70.08</v>
       </c>
       <c r="C49" t="n">
-        <v>69.68000000000001</v>
+        <v>70.08</v>
       </c>
       <c r="D49" t="n">
         <v>70.08</v>
       </c>
       <c r="E49" t="n">
-        <v>69.68000000000001</v>
+        <v>70.08</v>
       </c>
       <c r="F49" t="n">
-        <v>11362.9467</v>
+        <v>4805.491</v>
       </c>
       <c r="G49" t="n">
-        <v>70.73399999999997</v>
+        <v>70.7893333333333</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,22 +2113,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>70.48999999999999</v>
+        <v>70.08</v>
       </c>
       <c r="C50" t="n">
-        <v>70.48999999999999</v>
+        <v>69.68000000000001</v>
       </c>
       <c r="D50" t="n">
-        <v>70.48999999999999</v>
+        <v>70.08</v>
       </c>
       <c r="E50" t="n">
-        <v>70.48999999999999</v>
+        <v>69.68000000000001</v>
       </c>
       <c r="F50" t="n">
-        <v>3000</v>
+        <v>11362.9467</v>
       </c>
       <c r="G50" t="n">
-        <v>70.69216666666664</v>
+        <v>70.73399999999997</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,22 +2148,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>70.90000000000001</v>
+        <v>70.48999999999999</v>
       </c>
       <c r="C51" t="n">
-        <v>69.84</v>
+        <v>70.48999999999999</v>
       </c>
       <c r="D51" t="n">
-        <v>70.98999999999999</v>
+        <v>70.48999999999999</v>
       </c>
       <c r="E51" t="n">
-        <v>69.84</v>
+        <v>70.48999999999999</v>
       </c>
       <c r="F51" t="n">
-        <v>78656.21890000001</v>
+        <v>3000</v>
       </c>
       <c r="G51" t="n">
-        <v>70.63949999999997</v>
+        <v>70.69216666666664</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,22 +2183,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>70.20999999999999</v>
+        <v>70.90000000000001</v>
       </c>
       <c r="C52" t="n">
-        <v>70.20999999999999</v>
+        <v>69.84</v>
       </c>
       <c r="D52" t="n">
-        <v>70.20999999999999</v>
+        <v>70.98999999999999</v>
       </c>
       <c r="E52" t="n">
-        <v>70.20999999999999</v>
+        <v>69.84</v>
       </c>
       <c r="F52" t="n">
-        <v>4784.961</v>
+        <v>78656.21890000001</v>
       </c>
       <c r="G52" t="n">
-        <v>70.5893333333333</v>
+        <v>70.63949999999997</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,22 +2218,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>70.75</v>
+        <v>70.20999999999999</v>
       </c>
       <c r="C53" t="n">
-        <v>69.93000000000001</v>
+        <v>70.20999999999999</v>
       </c>
       <c r="D53" t="n">
-        <v>70.75</v>
+        <v>70.20999999999999</v>
       </c>
       <c r="E53" t="n">
-        <v>69.93000000000001</v>
+        <v>70.20999999999999</v>
       </c>
       <c r="F53" t="n">
-        <v>4508.2752</v>
+        <v>4784.961</v>
       </c>
       <c r="G53" t="n">
-        <v>70.53683333333331</v>
+        <v>70.5893333333333</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2253,22 +2253,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>70.73999999999999</v>
+        <v>70.75</v>
       </c>
       <c r="C54" t="n">
-        <v>70.73999999999999</v>
+        <v>69.93000000000001</v>
       </c>
       <c r="D54" t="n">
-        <v>70.73999999999999</v>
+        <v>70.75</v>
       </c>
       <c r="E54" t="n">
-        <v>70.73999999999999</v>
+        <v>69.93000000000001</v>
       </c>
       <c r="F54" t="n">
-        <v>8</v>
+        <v>4508.2752</v>
       </c>
       <c r="G54" t="n">
-        <v>70.50916666666664</v>
+        <v>70.53683333333331</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2288,22 +2288,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>70.59999999999999</v>
+        <v>70.73999999999999</v>
       </c>
       <c r="C55" t="n">
-        <v>71.19</v>
+        <v>70.73999999999999</v>
       </c>
       <c r="D55" t="n">
-        <v>71.19</v>
+        <v>70.73999999999999</v>
       </c>
       <c r="E55" t="n">
-        <v>70.59999999999999</v>
+        <v>70.73999999999999</v>
       </c>
       <c r="F55" t="n">
-        <v>9324.2804</v>
+        <v>8</v>
       </c>
       <c r="G55" t="n">
-        <v>70.48699999999995</v>
+        <v>70.50916666666664</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2323,22 +2323,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>71.16</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="C56" t="n">
-        <v>70.2</v>
+        <v>71.19</v>
       </c>
       <c r="D56" t="n">
-        <v>71.16</v>
+        <v>71.19</v>
       </c>
       <c r="E56" t="n">
-        <v>70.2</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="F56" t="n">
-        <v>371.7368</v>
+        <v>9324.2804</v>
       </c>
       <c r="G56" t="n">
-        <v>70.43249999999995</v>
+        <v>70.48699999999995</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2358,22 +2358,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>71.19</v>
+        <v>71.16</v>
       </c>
       <c r="C57" t="n">
-        <v>71.19</v>
+        <v>70.2</v>
       </c>
       <c r="D57" t="n">
-        <v>71.19</v>
+        <v>71.16</v>
       </c>
       <c r="E57" t="n">
-        <v>71.19</v>
+        <v>70.2</v>
       </c>
       <c r="F57" t="n">
-        <v>8</v>
+        <v>371.7368</v>
       </c>
       <c r="G57" t="n">
-        <v>70.41066666666661</v>
+        <v>70.43249999999995</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2393,22 +2393,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>71.25</v>
+        <v>71.19</v>
       </c>
       <c r="C58" t="n">
-        <v>70.13</v>
+        <v>71.19</v>
       </c>
       <c r="D58" t="n">
-        <v>71.25</v>
+        <v>71.19</v>
       </c>
       <c r="E58" t="n">
-        <v>70.13</v>
+        <v>71.19</v>
       </c>
       <c r="F58" t="n">
-        <v>4452.176</v>
+        <v>8</v>
       </c>
       <c r="G58" t="n">
-        <v>70.37283333333329</v>
+        <v>70.41066666666661</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2428,22 +2428,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>70.8</v>
+        <v>71.25</v>
       </c>
       <c r="C59" t="n">
-        <v>70.8</v>
+        <v>70.13</v>
       </c>
       <c r="D59" t="n">
-        <v>70.8</v>
+        <v>71.25</v>
       </c>
       <c r="E59" t="n">
-        <v>70.8</v>
+        <v>70.13</v>
       </c>
       <c r="F59" t="n">
-        <v>4905.7826</v>
+        <v>4452.176</v>
       </c>
       <c r="G59" t="n">
-        <v>70.35883333333328</v>
+        <v>70.37283333333329</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2463,22 +2463,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>71.09999999999999</v>
+        <v>70.8</v>
       </c>
       <c r="C60" t="n">
-        <v>71.09999999999999</v>
+        <v>70.8</v>
       </c>
       <c r="D60" t="n">
-        <v>71.09999999999999</v>
+        <v>70.8</v>
       </c>
       <c r="E60" t="n">
-        <v>71.09999999999999</v>
+        <v>70.8</v>
       </c>
       <c r="F60" t="n">
-        <v>8</v>
+        <v>4905.7826</v>
       </c>
       <c r="G60" t="n">
-        <v>70.35766666666662</v>
+        <v>70.35883333333328</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2498,22 +2498,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>71.2</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="C61" t="n">
-        <v>71.2</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="D61" t="n">
-        <v>71.2</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="E61" t="n">
-        <v>71.2</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="F61" t="n">
         <v>8</v>
       </c>
       <c r="G61" t="n">
-        <v>70.34516666666663</v>
+        <v>70.35766666666662</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2533,22 +2533,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>70.8</v>
+        <v>71.2</v>
       </c>
       <c r="C62" t="n">
-        <v>71.25</v>
+        <v>71.2</v>
       </c>
       <c r="D62" t="n">
-        <v>71.25</v>
+        <v>71.2</v>
       </c>
       <c r="E62" t="n">
-        <v>70.8</v>
+        <v>71.2</v>
       </c>
       <c r="F62" t="n">
-        <v>252.307</v>
+        <v>8</v>
       </c>
       <c r="G62" t="n">
-        <v>70.33849999999997</v>
+        <v>70.34516666666663</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2568,22 +2568,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
+        <v>70.8</v>
+      </c>
+      <c r="C63" t="n">
         <v>71.25</v>
       </c>
-      <c r="C63" t="n">
-        <v>70.90000000000001</v>
-      </c>
       <c r="D63" t="n">
-        <v>71.56999999999999</v>
+        <v>71.25</v>
       </c>
       <c r="E63" t="n">
-        <v>70.90000000000001</v>
+        <v>70.8</v>
       </c>
       <c r="F63" t="n">
-        <v>784.4084</v>
+        <v>252.307</v>
       </c>
       <c r="G63" t="n">
-        <v>70.31933333333329</v>
+        <v>70.33849999999997</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
+        <v>71.25</v>
+      </c>
+      <c r="C64" t="n">
         <v>70.90000000000001</v>
       </c>
-      <c r="C64" t="n">
-        <v>71.29000000000001</v>
-      </c>
       <c r="D64" t="n">
-        <v>71.29000000000001</v>
+        <v>71.56999999999999</v>
       </c>
       <c r="E64" t="n">
         <v>70.90000000000001</v>
       </c>
       <c r="F64" t="n">
-        <v>522.0272</v>
+        <v>784.4084</v>
       </c>
       <c r="G64" t="n">
-        <v>70.31733333333328</v>
+        <v>70.31933333333329</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2638,22 +2638,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>70.8</v>
+        <v>70.90000000000001</v>
       </c>
       <c r="C65" t="n">
-        <v>70.8</v>
+        <v>71.29000000000001</v>
       </c>
       <c r="D65" t="n">
-        <v>70.8</v>
+        <v>71.29000000000001</v>
       </c>
       <c r="E65" t="n">
-        <v>70.8</v>
+        <v>70.90000000000001</v>
       </c>
       <c r="F65" t="n">
-        <v>4154.972</v>
+        <v>522.0272</v>
       </c>
       <c r="G65" t="n">
-        <v>70.2968333333333</v>
+        <v>70.31733333333328</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2676,19 +2676,19 @@
         <v>70.8</v>
       </c>
       <c r="C66" t="n">
-        <v>70.09999999999999</v>
+        <v>70.8</v>
       </c>
       <c r="D66" t="n">
         <v>70.8</v>
       </c>
       <c r="E66" t="n">
-        <v>70.09999999999999</v>
+        <v>70.8</v>
       </c>
       <c r="F66" t="n">
-        <v>2171.295</v>
+        <v>4154.972</v>
       </c>
       <c r="G66" t="n">
-        <v>70.27866666666664</v>
+        <v>70.2968333333333</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2708,22 +2708,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>70.98999999999999</v>
+        <v>70.8</v>
       </c>
       <c r="C67" t="n">
-        <v>70.98999999999999</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="D67" t="n">
-        <v>70.98999999999999</v>
+        <v>70.8</v>
       </c>
       <c r="E67" t="n">
-        <v>70.98999999999999</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="F67" t="n">
-        <v>8</v>
+        <v>2171.295</v>
       </c>
       <c r="G67" t="n">
-        <v>70.27599999999998</v>
+        <v>70.27866666666664</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2746,19 +2746,19 @@
         <v>70.98999999999999</v>
       </c>
       <c r="C68" t="n">
-        <v>71.09999999999999</v>
+        <v>70.98999999999999</v>
       </c>
       <c r="D68" t="n">
-        <v>71.09999999999999</v>
+        <v>70.98999999999999</v>
       </c>
       <c r="E68" t="n">
         <v>70.98999999999999</v>
       </c>
       <c r="F68" t="n">
-        <v>3636.0386</v>
+        <v>8</v>
       </c>
       <c r="G68" t="n">
-        <v>70.27866666666665</v>
+        <v>70.27599999999998</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2778,7 +2778,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>71.09999999999999</v>
+        <v>70.98999999999999</v>
       </c>
       <c r="C69" t="n">
         <v>71.09999999999999</v>
@@ -2787,13 +2787,13 @@
         <v>71.09999999999999</v>
       </c>
       <c r="E69" t="n">
-        <v>71.09999999999999</v>
+        <v>70.98999999999999</v>
       </c>
       <c r="F69" t="n">
-        <v>12</v>
+        <v>3636.0386</v>
       </c>
       <c r="G69" t="n">
-        <v>70.28133333333334</v>
+        <v>70.27866666666665</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2813,22 +2813,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>71.09</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="C70" t="n">
-        <v>71.09</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="D70" t="n">
-        <v>71.09</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="E70" t="n">
-        <v>71.09</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="F70" t="n">
-        <v>7718.0584</v>
+        <v>12</v>
       </c>
       <c r="G70" t="n">
-        <v>70.28383333333335</v>
+        <v>70.28133333333334</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2848,22 +2848,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>70.34999999999999</v>
+        <v>71.09</v>
       </c>
       <c r="C71" t="n">
-        <v>70.34999999999999</v>
+        <v>71.09</v>
       </c>
       <c r="D71" t="n">
-        <v>70.34999999999999</v>
+        <v>71.09</v>
       </c>
       <c r="E71" t="n">
-        <v>70.34999999999999</v>
+        <v>71.09</v>
       </c>
       <c r="F71" t="n">
-        <v>917.6963</v>
+        <v>7718.0584</v>
       </c>
       <c r="G71" t="n">
-        <v>70.27400000000003</v>
+        <v>70.28383333333335</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2883,22 +2883,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>71.08</v>
+        <v>70.34999999999999</v>
       </c>
       <c r="C72" t="n">
-        <v>71.08</v>
+        <v>70.34999999999999</v>
       </c>
       <c r="D72" t="n">
-        <v>71.08</v>
+        <v>70.34999999999999</v>
       </c>
       <c r="E72" t="n">
-        <v>71.08</v>
+        <v>70.34999999999999</v>
       </c>
       <c r="F72" t="n">
-        <v>8</v>
+        <v>917.6963</v>
       </c>
       <c r="G72" t="n">
-        <v>70.28866666666669</v>
+        <v>70.27400000000003</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2918,22 +2918,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>71.2</v>
+        <v>71.08</v>
       </c>
       <c r="C73" t="n">
-        <v>71.48999999999999</v>
+        <v>71.08</v>
       </c>
       <c r="D73" t="n">
-        <v>71.48999999999999</v>
+        <v>71.08</v>
       </c>
       <c r="E73" t="n">
-        <v>71.2</v>
+        <v>71.08</v>
       </c>
       <c r="F73" t="n">
-        <v>200</v>
+        <v>8</v>
       </c>
       <c r="G73" t="n">
-        <v>70.31216666666668</v>
+        <v>70.28866666666669</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2953,22 +2953,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>71</v>
+        <v>71.2</v>
       </c>
       <c r="C74" t="n">
-        <v>71.5</v>
+        <v>71.48999999999999</v>
       </c>
       <c r="D74" t="n">
-        <v>71.5</v>
+        <v>71.48999999999999</v>
       </c>
       <c r="E74" t="n">
-        <v>71</v>
+        <v>71.2</v>
       </c>
       <c r="F74" t="n">
-        <v>11729.3275</v>
+        <v>200</v>
       </c>
       <c r="G74" t="n">
-        <v>70.33166666666669</v>
+        <v>70.31216666666668</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2991,19 +2991,19 @@
         <v>71</v>
       </c>
       <c r="C75" t="n">
-        <v>71</v>
+        <v>71.5</v>
       </c>
       <c r="D75" t="n">
-        <v>71</v>
+        <v>71.5</v>
       </c>
       <c r="E75" t="n">
         <v>71</v>
       </c>
       <c r="F75" t="n">
-        <v>42450.8072</v>
+        <v>11729.3275</v>
       </c>
       <c r="G75" t="n">
-        <v>70.34266666666669</v>
+        <v>70.33166666666669</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3035,10 +3035,10 @@
         <v>71</v>
       </c>
       <c r="F76" t="n">
-        <v>621</v>
+        <v>42450.8072</v>
       </c>
       <c r="G76" t="n">
-        <v>70.36433333333336</v>
+        <v>70.34266666666669</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3058,22 +3058,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>71.27</v>
+        <v>71</v>
       </c>
       <c r="C77" t="n">
-        <v>71.11</v>
+        <v>71</v>
       </c>
       <c r="D77" t="n">
-        <v>71.40000000000001</v>
+        <v>71</v>
       </c>
       <c r="E77" t="n">
-        <v>71.09999999999999</v>
+        <v>71</v>
       </c>
       <c r="F77" t="n">
-        <v>11541.1648</v>
+        <v>621</v>
       </c>
       <c r="G77" t="n">
-        <v>70.38616666666668</v>
+        <v>70.36433333333336</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3093,22 +3093,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
+        <v>71.27</v>
+      </c>
+      <c r="C78" t="n">
+        <v>71.11</v>
+      </c>
+      <c r="D78" t="n">
+        <v>71.40000000000001</v>
+      </c>
+      <c r="E78" t="n">
         <v>71.09999999999999</v>
       </c>
-      <c r="C78" t="n">
-        <v>71</v>
-      </c>
-      <c r="D78" t="n">
-        <v>71.09999999999999</v>
-      </c>
-      <c r="E78" t="n">
-        <v>71</v>
-      </c>
       <c r="F78" t="n">
-        <v>15200</v>
+        <v>11541.1648</v>
       </c>
       <c r="G78" t="n">
-        <v>70.40766666666669</v>
+        <v>70.38616666666668</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3128,22 +3128,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>71</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="C79" t="n">
         <v>71</v>
       </c>
       <c r="D79" t="n">
-        <v>71</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="E79" t="n">
         <v>71</v>
       </c>
       <c r="F79" t="n">
-        <v>1235.1925</v>
+        <v>15200</v>
       </c>
       <c r="G79" t="n">
-        <v>70.40966666666668</v>
+        <v>70.40766666666669</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3163,22 +3163,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>71.19</v>
+        <v>71</v>
       </c>
       <c r="C80" t="n">
         <v>71</v>
       </c>
       <c r="D80" t="n">
-        <v>71.19</v>
+        <v>71</v>
       </c>
       <c r="E80" t="n">
         <v>71</v>
       </c>
       <c r="F80" t="n">
-        <v>12439.7858</v>
+        <v>1235.1925</v>
       </c>
       <c r="G80" t="n">
-        <v>70.42300000000002</v>
+        <v>70.40966666666668</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3198,22 +3198,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>70.48</v>
+        <v>71.19</v>
       </c>
       <c r="C81" t="n">
-        <v>70.45999999999999</v>
+        <v>71</v>
       </c>
       <c r="D81" t="n">
-        <v>70.48</v>
+        <v>71.19</v>
       </c>
       <c r="E81" t="n">
-        <v>70.45999999999999</v>
+        <v>71</v>
       </c>
       <c r="F81" t="n">
-        <v>18451.9492</v>
+        <v>12439.7858</v>
       </c>
       <c r="G81" t="n">
-        <v>70.42833333333334</v>
+        <v>70.42300000000002</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3233,22 +3233,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>71.45999999999999</v>
+        <v>70.48</v>
       </c>
       <c r="C82" t="n">
         <v>70.45999999999999</v>
       </c>
       <c r="D82" t="n">
-        <v>71.45999999999999</v>
+        <v>70.48</v>
       </c>
       <c r="E82" t="n">
         <v>70.45999999999999</v>
       </c>
       <c r="F82" t="n">
-        <v>31704.9034</v>
+        <v>18451.9492</v>
       </c>
       <c r="G82" t="n">
-        <v>70.43416666666668</v>
+        <v>70.42833333333334</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3268,22 +3268,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>71.39</v>
+        <v>71.45999999999999</v>
       </c>
       <c r="C83" t="n">
-        <v>71.39</v>
+        <v>70.45999999999999</v>
       </c>
       <c r="D83" t="n">
-        <v>71.39</v>
+        <v>71.45999999999999</v>
       </c>
       <c r="E83" t="n">
-        <v>71.39</v>
+        <v>70.45999999999999</v>
       </c>
       <c r="F83" t="n">
-        <v>29.0453</v>
+        <v>31704.9034</v>
       </c>
       <c r="G83" t="n">
-        <v>70.4576666666667</v>
+        <v>70.43416666666668</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3315,10 +3315,10 @@
         <v>71.39</v>
       </c>
       <c r="F84" t="n">
-        <v>6141.491</v>
+        <v>29.0453</v>
       </c>
       <c r="G84" t="n">
-        <v>70.48133333333337</v>
+        <v>70.4576666666667</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3338,22 +3338,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>71.36</v>
+        <v>71.39</v>
       </c>
       <c r="C85" t="n">
-        <v>71.36</v>
+        <v>71.39</v>
       </c>
       <c r="D85" t="n">
-        <v>71.36</v>
+        <v>71.39</v>
       </c>
       <c r="E85" t="n">
-        <v>71.36</v>
+        <v>71.39</v>
       </c>
       <c r="F85" t="n">
-        <v>119.8392</v>
+        <v>6141.491</v>
       </c>
       <c r="G85" t="n">
-        <v>70.50900000000003</v>
+        <v>70.48133333333337</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3373,22 +3373,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>70.51000000000001</v>
+        <v>71.36</v>
       </c>
       <c r="C86" t="n">
-        <v>70.45999999999999</v>
+        <v>71.36</v>
       </c>
       <c r="D86" t="n">
-        <v>70.51000000000001</v>
+        <v>71.36</v>
       </c>
       <c r="E86" t="n">
-        <v>70.45999999999999</v>
+        <v>71.36</v>
       </c>
       <c r="F86" t="n">
-        <v>15100</v>
+        <v>119.8392</v>
       </c>
       <c r="G86" t="n">
-        <v>70.52200000000002</v>
+        <v>70.50900000000003</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3408,22 +3408,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
+        <v>70.51000000000001</v>
+      </c>
+      <c r="C87" t="n">
         <v>70.45999999999999</v>
       </c>
-      <c r="C87" t="n">
-        <v>70.44</v>
-      </c>
       <c r="D87" t="n">
+        <v>70.51000000000001</v>
+      </c>
+      <c r="E87" t="n">
         <v>70.45999999999999</v>
       </c>
-      <c r="E87" t="n">
-        <v>70.44</v>
-      </c>
       <c r="F87" t="n">
-        <v>6141.491</v>
+        <v>15100</v>
       </c>
       <c r="G87" t="n">
-        <v>70.53100000000002</v>
+        <v>70.52200000000002</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3443,22 +3443,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>71.25</v>
+        <v>70.45999999999999</v>
       </c>
       <c r="C88" t="n">
-        <v>71.25</v>
+        <v>70.44</v>
       </c>
       <c r="D88" t="n">
-        <v>71.25</v>
+        <v>70.45999999999999</v>
       </c>
       <c r="E88" t="n">
-        <v>71.25</v>
+        <v>70.44</v>
       </c>
       <c r="F88" t="n">
-        <v>1226.2093</v>
+        <v>6141.491</v>
       </c>
       <c r="G88" t="n">
-        <v>70.55183333333336</v>
+        <v>70.53100000000002</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3490,10 +3490,10 @@
         <v>71.25</v>
       </c>
       <c r="F89" t="n">
-        <v>1196.9524</v>
+        <v>1226.2093</v>
       </c>
       <c r="G89" t="n">
-        <v>70.57266666666669</v>
+        <v>70.55183333333336</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3513,22 +3513,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>70.44</v>
+        <v>71.25</v>
       </c>
       <c r="C90" t="n">
-        <v>70.44</v>
+        <v>71.25</v>
       </c>
       <c r="D90" t="n">
-        <v>70.44</v>
+        <v>71.25</v>
       </c>
       <c r="E90" t="n">
-        <v>70.44</v>
+        <v>71.25</v>
       </c>
       <c r="F90" t="n">
-        <v>14115.9139</v>
+        <v>1196.9524</v>
       </c>
       <c r="G90" t="n">
-        <v>70.58000000000001</v>
+        <v>70.57266666666669</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3560,10 +3560,10 @@
         <v>70.44</v>
       </c>
       <c r="F91" t="n">
-        <v>6818.3046</v>
+        <v>14115.9139</v>
       </c>
       <c r="G91" t="n">
-        <v>70.58833333333335</v>
+        <v>70.58000000000001</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3583,22 +3583,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>70.3</v>
+        <v>70.44</v>
       </c>
       <c r="C92" t="n">
-        <v>70.3</v>
+        <v>70.44</v>
       </c>
       <c r="D92" t="n">
-        <v>70.3</v>
+        <v>70.44</v>
       </c>
       <c r="E92" t="n">
-        <v>70.14</v>
+        <v>70.44</v>
       </c>
       <c r="F92" t="n">
-        <v>28549.0621</v>
+        <v>6818.3046</v>
       </c>
       <c r="G92" t="n">
-        <v>70.59433333333337</v>
+        <v>70.58833333333335</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3618,22 +3618,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>70.14</v>
+        <v>70.3</v>
       </c>
       <c r="C93" t="n">
-        <v>70.14</v>
+        <v>70.3</v>
       </c>
       <c r="D93" t="n">
-        <v>70.14</v>
+        <v>70.3</v>
       </c>
       <c r="E93" t="n">
         <v>70.14</v>
       </c>
       <c r="F93" t="n">
-        <v>26129.9836</v>
+        <v>28549.0621</v>
       </c>
       <c r="G93" t="n">
-        <v>70.59766666666671</v>
+        <v>70.59433333333337</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3656,19 +3656,19 @@
         <v>70.14</v>
       </c>
       <c r="C94" t="n">
-        <v>70.2</v>
+        <v>70.14</v>
       </c>
       <c r="D94" t="n">
-        <v>70.2</v>
+        <v>70.14</v>
       </c>
       <c r="E94" t="n">
-        <v>70.12</v>
+        <v>70.14</v>
       </c>
       <c r="F94" t="n">
-        <v>3477.5218</v>
+        <v>26129.9836</v>
       </c>
       <c r="G94" t="n">
-        <v>70.60266666666671</v>
+        <v>70.59766666666671</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3688,7 +3688,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>70.2</v>
+        <v>70.14</v>
       </c>
       <c r="C95" t="n">
         <v>70.2</v>
@@ -3697,13 +3697,13 @@
         <v>70.2</v>
       </c>
       <c r="E95" t="n">
-        <v>70.2</v>
+        <v>70.12</v>
       </c>
       <c r="F95" t="n">
-        <v>401.2619</v>
+        <v>3477.5218</v>
       </c>
       <c r="G95" t="n">
-        <v>70.60766666666672</v>
+        <v>70.60266666666671</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3723,22 +3723,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>70.12</v>
+        <v>70.2</v>
       </c>
       <c r="C96" t="n">
-        <v>70.12</v>
+        <v>70.2</v>
       </c>
       <c r="D96" t="n">
-        <v>70.12</v>
+        <v>70.2</v>
       </c>
       <c r="E96" t="n">
-        <v>70.12</v>
+        <v>70.2</v>
       </c>
       <c r="F96" t="n">
-        <v>100</v>
+        <v>401.2619</v>
       </c>
       <c r="G96" t="n">
-        <v>70.60483333333337</v>
+        <v>70.60766666666672</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3761,19 +3761,19 @@
         <v>70.12</v>
       </c>
       <c r="C97" t="n">
-        <v>70.09999999999999</v>
+        <v>70.12</v>
       </c>
       <c r="D97" t="n">
         <v>70.12</v>
       </c>
       <c r="E97" t="n">
-        <v>70.09999999999999</v>
+        <v>70.12</v>
       </c>
       <c r="F97" t="n">
-        <v>3643.2113</v>
+        <v>100</v>
       </c>
       <c r="G97" t="n">
-        <v>70.60800000000005</v>
+        <v>70.60483333333337</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3793,22 +3793,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
+        <v>70.12</v>
+      </c>
+      <c r="C98" t="n">
         <v>70.09999999999999</v>
       </c>
-      <c r="C98" t="n">
-        <v>69.86</v>
-      </c>
       <c r="D98" t="n">
-        <v>70.84</v>
+        <v>70.12</v>
       </c>
       <c r="E98" t="n">
-        <v>69.86</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="F98" t="n">
-        <v>28912.2312</v>
+        <v>3643.2113</v>
       </c>
       <c r="G98" t="n">
-        <v>70.60700000000004</v>
+        <v>70.60800000000005</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3828,22 +3828,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>70.05</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="C99" t="n">
-        <v>70.05</v>
+        <v>69.86</v>
       </c>
       <c r="D99" t="n">
-        <v>70.05</v>
+        <v>70.84</v>
       </c>
       <c r="E99" t="n">
-        <v>70.05</v>
+        <v>69.86</v>
       </c>
       <c r="F99" t="n">
-        <v>4846.538</v>
+        <v>28912.2312</v>
       </c>
       <c r="G99" t="n">
-        <v>70.59316666666672</v>
+        <v>70.60700000000004</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3875,10 +3875,10 @@
         <v>70.05</v>
       </c>
       <c r="F100" t="n">
-        <v>5721.5262</v>
+        <v>4846.538</v>
       </c>
       <c r="G100" t="n">
-        <v>70.59533333333339</v>
+        <v>70.59316666666672</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3898,22 +3898,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>69.84999999999999</v>
+        <v>70.05</v>
       </c>
       <c r="C101" t="n">
-        <v>69.84999999999999</v>
+        <v>70.05</v>
       </c>
       <c r="D101" t="n">
-        <v>69.84999999999999</v>
+        <v>70.05</v>
       </c>
       <c r="E101" t="n">
-        <v>69.84999999999999</v>
+        <v>70.05</v>
       </c>
       <c r="F101" t="n">
-        <v>1572.8301</v>
+        <v>5721.5262</v>
       </c>
       <c r="G101" t="n">
-        <v>70.59416666666672</v>
+        <v>70.59533333333339</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>69.84999999999999</v>
       </c>
       <c r="F102" t="n">
-        <v>39.917</v>
+        <v>1572.8301</v>
       </c>
       <c r="G102" t="n">
-        <v>70.59316666666673</v>
+        <v>70.59416666666672</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3980,10 +3980,10 @@
         <v>69.84999999999999</v>
       </c>
       <c r="F103" t="n">
-        <v>1057</v>
+        <v>39.917</v>
       </c>
       <c r="G103" t="n">
-        <v>70.59233333333341</v>
+        <v>70.59316666666673</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4015,10 +4015,10 @@
         <v>69.84999999999999</v>
       </c>
       <c r="F104" t="n">
-        <v>4964.5615</v>
+        <v>1057</v>
       </c>
       <c r="G104" t="n">
-        <v>70.58483333333341</v>
+        <v>70.59233333333341</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4050,10 +4050,10 @@
         <v>69.84999999999999</v>
       </c>
       <c r="F105" t="n">
-        <v>5427.7518</v>
+        <v>4964.5615</v>
       </c>
       <c r="G105" t="n">
-        <v>70.58233333333342</v>
+        <v>70.58483333333341</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4073,22 +4073,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>70.02</v>
+        <v>69.84999999999999</v>
       </c>
       <c r="C106" t="n">
-        <v>70.02</v>
+        <v>69.84999999999999</v>
       </c>
       <c r="D106" t="n">
-        <v>70.02</v>
+        <v>69.84999999999999</v>
       </c>
       <c r="E106" t="n">
-        <v>70.02</v>
+        <v>69.84999999999999</v>
       </c>
       <c r="F106" t="n">
-        <v>136.1603</v>
+        <v>5427.7518</v>
       </c>
       <c r="G106" t="n">
-        <v>70.58766666666676</v>
+        <v>70.58233333333342</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4108,22 +4108,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>69.86</v>
+        <v>70.02</v>
       </c>
       <c r="C107" t="n">
-        <v>69.86</v>
+        <v>70.02</v>
       </c>
       <c r="D107" t="n">
-        <v>69.86</v>
+        <v>70.02</v>
       </c>
       <c r="E107" t="n">
-        <v>69.86</v>
+        <v>70.02</v>
       </c>
       <c r="F107" t="n">
-        <v>4544.1072</v>
+        <v>136.1603</v>
       </c>
       <c r="G107" t="n">
-        <v>70.59033333333342</v>
+        <v>70.58766666666676</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4155,10 +4155,10 @@
         <v>69.86</v>
       </c>
       <c r="F108" t="n">
-        <v>1784.8869</v>
+        <v>4544.1072</v>
       </c>
       <c r="G108" t="n">
-        <v>70.58666666666676</v>
+        <v>70.59033333333342</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4181,19 +4181,19 @@
         <v>69.86</v>
       </c>
       <c r="C109" t="n">
-        <v>69.84</v>
+        <v>69.86</v>
       </c>
       <c r="D109" t="n">
         <v>69.86</v>
       </c>
       <c r="E109" t="n">
-        <v>69.84</v>
+        <v>69.86</v>
       </c>
       <c r="F109" t="n">
-        <v>34325.174</v>
+        <v>1784.8869</v>
       </c>
       <c r="G109" t="n">
-        <v>70.58933333333341</v>
+        <v>70.58666666666676</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4213,22 +4213,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>69.84</v>
+        <v>69.86</v>
       </c>
       <c r="C110" t="n">
         <v>69.84</v>
       </c>
       <c r="D110" t="n">
-        <v>69.84</v>
+        <v>69.86</v>
       </c>
       <c r="E110" t="n">
         <v>69.84</v>
       </c>
       <c r="F110" t="n">
-        <v>2423.1617</v>
+        <v>34325.174</v>
       </c>
       <c r="G110" t="n">
-        <v>70.57850000000009</v>
+        <v>70.58933333333341</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4260,7 +4260,7 @@
         <v>69.84</v>
       </c>
       <c r="F111" t="n">
-        <v>1000</v>
+        <v>2423.1617</v>
       </c>
       <c r="G111" t="n">
         <v>70.57850000000009</v>
@@ -4295,10 +4295,10 @@
         <v>69.84</v>
       </c>
       <c r="F112" t="n">
-        <v>24819.409</v>
+        <v>1000</v>
       </c>
       <c r="G112" t="n">
-        <v>70.57233333333343</v>
+        <v>70.57850000000009</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4321,19 +4321,19 @@
         <v>69.84</v>
       </c>
       <c r="C113" t="n">
-        <v>70</v>
+        <v>69.84</v>
       </c>
       <c r="D113" t="n">
-        <v>70</v>
+        <v>69.84</v>
       </c>
       <c r="E113" t="n">
-        <v>69.41</v>
+        <v>69.84</v>
       </c>
       <c r="F113" t="n">
-        <v>41930.4802</v>
+        <v>24819.409</v>
       </c>
       <c r="G113" t="n">
-        <v>70.5735000000001</v>
+        <v>70.57233333333343</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4353,22 +4353,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>69.40000000000001</v>
+        <v>69.84</v>
       </c>
       <c r="C114" t="n">
-        <v>69.3</v>
+        <v>70</v>
       </c>
       <c r="D114" t="n">
-        <v>69.40000000000001</v>
+        <v>70</v>
       </c>
       <c r="E114" t="n">
-        <v>69.3</v>
+        <v>69.41</v>
       </c>
       <c r="F114" t="n">
-        <v>1223.7878</v>
+        <v>41930.4802</v>
       </c>
       <c r="G114" t="n">
-        <v>70.54950000000009</v>
+        <v>70.5735000000001</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4388,22 +4388,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>69.3</v>
+        <v>69.40000000000001</v>
       </c>
       <c r="C115" t="n">
         <v>69.3</v>
       </c>
       <c r="D115" t="n">
-        <v>69.3</v>
+        <v>69.40000000000001</v>
       </c>
       <c r="E115" t="n">
         <v>69.3</v>
       </c>
       <c r="F115" t="n">
-        <v>452.0196</v>
+        <v>1223.7878</v>
       </c>
       <c r="G115" t="n">
-        <v>70.5180000000001</v>
+        <v>70.54950000000009</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4435,10 +4435,10 @@
         <v>69.3</v>
       </c>
       <c r="F116" t="n">
-        <v>1161.3187</v>
+        <v>452.0196</v>
       </c>
       <c r="G116" t="n">
-        <v>70.50300000000011</v>
+        <v>70.5180000000001</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4458,22 +4458,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>69.23</v>
+        <v>69.3</v>
       </c>
       <c r="C117" t="n">
-        <v>69.23</v>
+        <v>69.3</v>
       </c>
       <c r="D117" t="n">
-        <v>69.23</v>
+        <v>69.3</v>
       </c>
       <c r="E117" t="n">
-        <v>69.23</v>
+        <v>69.3</v>
       </c>
       <c r="F117" t="n">
-        <v>470.22</v>
+        <v>1161.3187</v>
       </c>
       <c r="G117" t="n">
-        <v>70.47033333333344</v>
+        <v>70.50300000000011</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4493,22 +4493,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>69.20999999999999</v>
+        <v>69.23</v>
       </c>
       <c r="C118" t="n">
-        <v>69.14</v>
+        <v>69.23</v>
       </c>
       <c r="D118" t="n">
-        <v>69.20999999999999</v>
+        <v>69.23</v>
       </c>
       <c r="E118" t="n">
-        <v>69.14</v>
+        <v>69.23</v>
       </c>
       <c r="F118" t="n">
-        <v>5464.955</v>
+        <v>470.22</v>
       </c>
       <c r="G118" t="n">
-        <v>70.45383333333345</v>
+        <v>70.47033333333344</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4528,22 +4528,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>69.3</v>
+        <v>69.20999999999999</v>
       </c>
       <c r="C119" t="n">
-        <v>69.3</v>
+        <v>69.14</v>
       </c>
       <c r="D119" t="n">
-        <v>69.3</v>
+        <v>69.20999999999999</v>
       </c>
       <c r="E119" t="n">
-        <v>69.3</v>
+        <v>69.14</v>
       </c>
       <c r="F119" t="n">
-        <v>938.3631</v>
+        <v>5464.955</v>
       </c>
       <c r="G119" t="n">
-        <v>70.42883333333344</v>
+        <v>70.45383333333345</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4563,397 +4563,359 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
+        <v>69.3</v>
+      </c>
+      <c r="C120" t="n">
+        <v>69.3</v>
+      </c>
+      <c r="D120" t="n">
+        <v>69.3</v>
+      </c>
+      <c r="E120" t="n">
+        <v>69.3</v>
+      </c>
+      <c r="F120" t="n">
+        <v>938.3631</v>
+      </c>
+      <c r="G120" t="n">
+        <v>70.42883333333344</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
         <v>69.18000000000001</v>
       </c>
-      <c r="C120" t="n">
+      <c r="C121" t="n">
         <v>69.16</v>
       </c>
-      <c r="D120" t="n">
+      <c r="D121" t="n">
         <v>69.18000000000001</v>
       </c>
-      <c r="E120" t="n">
+      <c r="E121" t="n">
         <v>69.16</v>
       </c>
-      <c r="F120" t="n">
+      <c r="F121" t="n">
         <v>11441.1741</v>
       </c>
-      <c r="G120" t="n">
+      <c r="G121" t="n">
         <v>70.3965000000001</v>
       </c>
-      <c r="H120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="n">
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>69.29000000000001</v>
+      </c>
+      <c r="C122" t="n">
         <v>69.3</v>
       </c>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
+      <c r="D122" t="n">
+        <v>69.3</v>
+      </c>
+      <c r="E122" t="n">
+        <v>69.29000000000001</v>
+      </c>
+      <c r="F122" t="n">
+        <v>499.708</v>
+      </c>
+      <c r="G122" t="n">
+        <v>70.36483333333345</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>69.69</v>
+      </c>
+      <c r="C123" t="n">
+        <v>69.69</v>
+      </c>
+      <c r="D123" t="n">
+        <v>69.69</v>
+      </c>
+      <c r="E123" t="n">
+        <v>69.69</v>
+      </c>
+      <c r="F123" t="n">
+        <v>3477.5674</v>
+      </c>
+      <c r="G123" t="n">
+        <v>70.33883333333344</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>69.69</v>
+      </c>
+      <c r="C124" t="n">
+        <v>69.69</v>
+      </c>
+      <c r="D124" t="n">
+        <v>69.69</v>
+      </c>
+      <c r="E124" t="n">
+        <v>69.69</v>
+      </c>
+      <c r="F124" t="n">
+        <v>2197.7502</v>
+      </c>
+      <c r="G124" t="n">
+        <v>70.31866666666677</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>69.3</v>
+      </c>
+      <c r="C125" t="n">
+        <v>69.14</v>
+      </c>
+      <c r="D125" t="n">
+        <v>69.3</v>
+      </c>
+      <c r="E125" t="n">
+        <v>69.14</v>
+      </c>
+      <c r="F125" t="n">
+        <v>22864.3696</v>
+      </c>
+      <c r="G125" t="n">
+        <v>70.28283333333344</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>69.13</v>
+      </c>
+      <c r="C126" t="n">
+        <v>69.13</v>
+      </c>
+      <c r="D126" t="n">
+        <v>69.13</v>
+      </c>
+      <c r="E126" t="n">
+        <v>69.13</v>
+      </c>
+      <c r="F126" t="n">
+        <v>304.1946</v>
+      </c>
+      <c r="G126" t="n">
+        <v>70.25500000000011</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>69.09999999999999</v>
+      </c>
+      <c r="C127" t="n">
+        <v>69.09999999999999</v>
+      </c>
+      <c r="D127" t="n">
+        <v>69.09999999999999</v>
+      </c>
+      <c r="E127" t="n">
+        <v>69.09999999999999</v>
+      </c>
+      <c r="F127" t="n">
+        <v>6150.2815</v>
+      </c>
+      <c r="G127" t="n">
+        <v>70.23833333333344</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>69.16</v>
+      </c>
+      <c r="C128" t="n">
+        <v>69.16</v>
+      </c>
+      <c r="D128" t="n">
+        <v>69.16</v>
+      </c>
+      <c r="E128" t="n">
+        <v>69.16</v>
+      </c>
+      <c r="F128" t="n">
+        <v>658.3579999999999</v>
+      </c>
+      <c r="G128" t="n">
+        <v>70.20783333333344</v>
+      </c>
+      <c r="H128" t="n">
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="n">
+        <v>69.09999999999999</v>
+      </c>
+      <c r="K128" t="n">
+        <v>69.09999999999999</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>69.15000000000001</v>
+      </c>
+      <c r="C129" t="n">
+        <v>68.92</v>
+      </c>
+      <c r="D129" t="n">
+        <v>69.15000000000001</v>
+      </c>
+      <c r="E129" t="n">
+        <v>68.92</v>
+      </c>
+      <c r="F129" t="n">
+        <v>11400</v>
+      </c>
+      <c r="G129" t="n">
+        <v>70.17150000000011</v>
+      </c>
+      <c r="H129" t="n">
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="n">
+        <v>69.16</v>
+      </c>
+      <c r="K129" t="n">
+        <v>69.09999999999999</v>
+      </c>
+      <c r="L129" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>69.29000000000001</v>
-      </c>
-      <c r="C121" t="n">
-        <v>69.3</v>
-      </c>
-      <c r="D121" t="n">
-        <v>69.3</v>
-      </c>
-      <c r="E121" t="n">
-        <v>69.29000000000001</v>
-      </c>
-      <c r="F121" t="n">
-        <v>499.708</v>
-      </c>
-      <c r="G121" t="n">
-        <v>70.36483333333345</v>
-      </c>
-      <c r="H121" t="n">
-        <v>1</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="n">
-        <v>69.16</v>
-      </c>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>69.69</v>
-      </c>
-      <c r="C122" t="n">
-        <v>69.69</v>
-      </c>
-      <c r="D122" t="n">
-        <v>69.69</v>
-      </c>
-      <c r="E122" t="n">
-        <v>69.69</v>
-      </c>
-      <c r="F122" t="n">
-        <v>3477.5674</v>
-      </c>
-      <c r="G122" t="n">
-        <v>70.33883333333344</v>
-      </c>
-      <c r="H122" t="n">
-        <v>1</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="n">
-        <v>69.3</v>
-      </c>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>69.69</v>
-      </c>
-      <c r="C123" t="n">
-        <v>69.69</v>
-      </c>
-      <c r="D123" t="n">
-        <v>69.69</v>
-      </c>
-      <c r="E123" t="n">
-        <v>69.69</v>
-      </c>
-      <c r="F123" t="n">
-        <v>2197.7502</v>
-      </c>
-      <c r="G123" t="n">
-        <v>70.31866666666677</v>
-      </c>
-      <c r="H123" t="n">
-        <v>1</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="n">
-        <v>69.69</v>
-      </c>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>69.3</v>
-      </c>
-      <c r="C124" t="n">
-        <v>69.14</v>
-      </c>
-      <c r="D124" t="n">
-        <v>69.3</v>
-      </c>
-      <c r="E124" t="n">
-        <v>69.14</v>
-      </c>
-      <c r="F124" t="n">
-        <v>22864.3696</v>
-      </c>
-      <c r="G124" t="n">
-        <v>70.28283333333344</v>
-      </c>
-      <c r="H124" t="n">
-        <v>1</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="n">
-        <v>69.69</v>
-      </c>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>69.13</v>
-      </c>
-      <c r="C125" t="n">
-        <v>69.13</v>
-      </c>
-      <c r="D125" t="n">
-        <v>69.13</v>
-      </c>
-      <c r="E125" t="n">
-        <v>69.13</v>
-      </c>
-      <c r="F125" t="n">
-        <v>304.1946</v>
-      </c>
-      <c r="G125" t="n">
-        <v>70.25500000000011</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>69.09999999999999</v>
-      </c>
-      <c r="C126" t="n">
-        <v>69.09999999999999</v>
-      </c>
-      <c r="D126" t="n">
-        <v>69.09999999999999</v>
-      </c>
-      <c r="E126" t="n">
-        <v>69.09999999999999</v>
-      </c>
-      <c r="F126" t="n">
-        <v>6150.2815</v>
-      </c>
-      <c r="G126" t="n">
-        <v>70.23833333333344</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>69.16</v>
-      </c>
-      <c r="C127" t="n">
-        <v>69.16</v>
-      </c>
-      <c r="D127" t="n">
-        <v>69.16</v>
-      </c>
-      <c r="E127" t="n">
-        <v>69.16</v>
-      </c>
-      <c r="F127" t="n">
-        <v>658.3579999999999</v>
-      </c>
-      <c r="G127" t="n">
-        <v>70.20783333333344</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>69.15000000000001</v>
-      </c>
-      <c r="C128" t="n">
-        <v>68.92</v>
-      </c>
-      <c r="D128" t="n">
-        <v>69.15000000000001</v>
-      </c>
-      <c r="E128" t="n">
-        <v>68.92</v>
-      </c>
-      <c r="F128" t="n">
-        <v>11400</v>
-      </c>
-      <c r="G128" t="n">
-        <v>70.17150000000011</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>69.38</v>
-      </c>
-      <c r="C129" t="n">
-        <v>69.38</v>
-      </c>
-      <c r="D129" t="n">
-        <v>69.38</v>
-      </c>
-      <c r="E129" t="n">
-        <v>69.38</v>
-      </c>
-      <c r="F129" t="n">
-        <v>777.9106</v>
-      </c>
-      <c r="G129" t="n">
-        <v>70.14283333333343</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -4963,31 +4925,35 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
+        <v>69.38</v>
+      </c>
+      <c r="C130" t="n">
+        <v>69.38</v>
+      </c>
+      <c r="D130" t="n">
+        <v>69.38</v>
+      </c>
+      <c r="E130" t="n">
+        <v>69.38</v>
+      </c>
+      <c r="F130" t="n">
+        <v>777.9106</v>
+      </c>
+      <c r="G130" t="n">
+        <v>70.14283333333343</v>
+      </c>
+      <c r="H130" t="n">
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="n">
         <v>68.92</v>
       </c>
-      <c r="C130" t="n">
-        <v>68.92</v>
-      </c>
-      <c r="D130" t="n">
-        <v>68.92</v>
-      </c>
-      <c r="E130" t="n">
-        <v>68.92</v>
-      </c>
-      <c r="F130" t="n">
-        <v>1342.2778</v>
-      </c>
-      <c r="G130" t="n">
-        <v>70.10666666666677</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>69.09999999999999</v>
+      </c>
       <c r="L130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5005,28 +4971,32 @@
         <v>68.92</v>
       </c>
       <c r="C131" t="n">
-        <v>68.81999999999999</v>
+        <v>68.92</v>
       </c>
       <c r="D131" t="n">
         <v>68.92</v>
       </c>
       <c r="E131" t="n">
-        <v>68.81999999999999</v>
+        <v>68.92</v>
       </c>
       <c r="F131" t="n">
-        <v>47203.2184</v>
+        <v>1342.2778</v>
       </c>
       <c r="G131" t="n">
-        <v>70.08116666666676</v>
+        <v>70.10666666666677</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>69.38</v>
+      </c>
+      <c r="K131" t="n">
+        <v>69.09999999999999</v>
+      </c>
       <c r="L131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5041,31 +5011,35 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>68.81</v>
+        <v>68.92</v>
       </c>
       <c r="C132" t="n">
-        <v>68.81</v>
+        <v>68.81999999999999</v>
       </c>
       <c r="D132" t="n">
-        <v>68.81</v>
+        <v>68.92</v>
       </c>
       <c r="E132" t="n">
-        <v>68.81</v>
+        <v>68.81999999999999</v>
       </c>
       <c r="F132" t="n">
-        <v>8</v>
+        <v>47203.2184</v>
       </c>
       <c r="G132" t="n">
-        <v>70.04333333333344</v>
+        <v>70.08116666666676</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>68.92</v>
+      </c>
+      <c r="K132" t="n">
+        <v>69.09999999999999</v>
+      </c>
       <c r="L132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5080,22 +5054,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>70.59</v>
+        <v>68.81</v>
       </c>
       <c r="C133" t="n">
-        <v>70.59</v>
+        <v>68.81</v>
       </c>
       <c r="D133" t="n">
-        <v>70.59</v>
+        <v>68.81</v>
       </c>
       <c r="E133" t="n">
-        <v>70.59</v>
+        <v>68.81</v>
       </c>
       <c r="F133" t="n">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="G133" t="n">
-        <v>70.02833333333344</v>
+        <v>70.04333333333344</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5104,7 +5078,9 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>69.09999999999999</v>
+      </c>
       <c r="L133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5119,31 +5095,35 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>69.89</v>
+        <v>70.59</v>
       </c>
       <c r="C134" t="n">
-        <v>69.89</v>
+        <v>70.59</v>
       </c>
       <c r="D134" t="n">
-        <v>69.89</v>
+        <v>70.59</v>
       </c>
       <c r="E134" t="n">
-        <v>69.89</v>
+        <v>70.59</v>
       </c>
       <c r="F134" t="n">
-        <v>7760.7266</v>
+        <v>48</v>
       </c>
       <c r="G134" t="n">
-        <v>70.00150000000011</v>
+        <v>70.02833333333344</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>68.81</v>
+      </c>
+      <c r="K134" t="n">
+        <v>69.09999999999999</v>
+      </c>
       <c r="L134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5158,22 +5138,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>70.18000000000001</v>
+        <v>69.89</v>
       </c>
       <c r="C135" t="n">
-        <v>69.12</v>
+        <v>69.89</v>
       </c>
       <c r="D135" t="n">
-        <v>70.18000000000001</v>
+        <v>69.89</v>
       </c>
       <c r="E135" t="n">
-        <v>69.12</v>
+        <v>69.89</v>
       </c>
       <c r="F135" t="n">
-        <v>7897.6841</v>
+        <v>7760.7266</v>
       </c>
       <c r="G135" t="n">
-        <v>69.97016666666677</v>
+        <v>70.00150000000011</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5182,7 +5162,9 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>69.09999999999999</v>
+      </c>
       <c r="L135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5197,22 +5179,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>69.5</v>
+        <v>70.18000000000001</v>
       </c>
       <c r="C136" t="n">
-        <v>69.5</v>
+        <v>69.12</v>
       </c>
       <c r="D136" t="n">
-        <v>69.5</v>
+        <v>70.18000000000001</v>
       </c>
       <c r="E136" t="n">
-        <v>69.40000000000001</v>
+        <v>69.12</v>
       </c>
       <c r="F136" t="n">
-        <v>5716.0212</v>
+        <v>7897.6841</v>
       </c>
       <c r="G136" t="n">
-        <v>69.94516666666678</v>
+        <v>69.97016666666677</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5221,7 +5203,9 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>69.09999999999999</v>
+      </c>
       <c r="L136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5236,22 +5220,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>69.26000000000001</v>
+        <v>69.5</v>
       </c>
       <c r="C137" t="n">
-        <v>69.22</v>
+        <v>69.5</v>
       </c>
       <c r="D137" t="n">
-        <v>69.26000000000001</v>
+        <v>69.5</v>
       </c>
       <c r="E137" t="n">
-        <v>69.22</v>
+        <v>69.40000000000001</v>
       </c>
       <c r="F137" t="n">
-        <v>9304.804099999999</v>
+        <v>5716.0212</v>
       </c>
       <c r="G137" t="n">
-        <v>69.91366666666678</v>
+        <v>69.94516666666678</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5260,7 +5244,9 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>69.09999999999999</v>
+      </c>
       <c r="L137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5275,22 +5261,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>68.84</v>
+        <v>69.26000000000001</v>
       </c>
       <c r="C138" t="n">
-        <v>68.81</v>
+        <v>69.22</v>
       </c>
       <c r="D138" t="n">
-        <v>68.84</v>
+        <v>69.26000000000001</v>
       </c>
       <c r="E138" t="n">
-        <v>68.81</v>
+        <v>69.22</v>
       </c>
       <c r="F138" t="n">
-        <v>13539.0141</v>
+        <v>9304.804099999999</v>
       </c>
       <c r="G138" t="n">
-        <v>69.8771666666668</v>
+        <v>69.91366666666678</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5299,7 +5285,9 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>69.09999999999999</v>
+      </c>
       <c r="L138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5314,22 +5302,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>68.90000000000001</v>
+        <v>68.84</v>
       </c>
       <c r="C139" t="n">
         <v>68.81</v>
       </c>
       <c r="D139" t="n">
-        <v>68.90000000000001</v>
+        <v>68.84</v>
       </c>
       <c r="E139" t="n">
         <v>68.81</v>
       </c>
       <c r="F139" t="n">
-        <v>20505.9996</v>
+        <v>13539.0141</v>
       </c>
       <c r="G139" t="n">
-        <v>69.84066666666679</v>
+        <v>69.8771666666668</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5338,7 +5326,9 @@
         <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>69.09999999999999</v>
+      </c>
       <c r="L139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5353,22 +5343,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>69.05</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="C140" t="n">
-        <v>69.05</v>
+        <v>68.81</v>
       </c>
       <c r="D140" t="n">
-        <v>69.05</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="E140" t="n">
-        <v>69.05</v>
+        <v>68.81</v>
       </c>
       <c r="F140" t="n">
-        <v>4650</v>
+        <v>20505.9996</v>
       </c>
       <c r="G140" t="n">
-        <v>69.80816666666679</v>
+        <v>69.84066666666679</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5377,7 +5367,9 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>69.09999999999999</v>
+      </c>
       <c r="L140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5404,10 +5396,10 @@
         <v>69.05</v>
       </c>
       <c r="F141" t="n">
-        <v>200.584</v>
+        <v>4650</v>
       </c>
       <c r="G141" t="n">
-        <v>69.78466666666681</v>
+        <v>69.80816666666679</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5416,7 +5408,9 @@
         <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>69.09999999999999</v>
+      </c>
       <c r="L141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5431,31 +5425,35 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>69.09999999999999</v>
+        <v>69.05</v>
       </c>
       <c r="C142" t="n">
         <v>69.05</v>
       </c>
       <c r="D142" t="n">
-        <v>69.09999999999999</v>
+        <v>69.05</v>
       </c>
       <c r="E142" t="n">
         <v>69.05</v>
       </c>
       <c r="F142" t="n">
-        <v>5253.0168</v>
+        <v>200.584</v>
       </c>
       <c r="G142" t="n">
-        <v>69.76116666666681</v>
+        <v>69.78466666666681</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>69.05</v>
+      </c>
+      <c r="K142" t="n">
+        <v>69.09999999999999</v>
+      </c>
       <c r="L142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5470,31 +5468,35 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>68.81</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="C143" t="n">
-        <v>68.73</v>
+        <v>69.05</v>
       </c>
       <c r="D143" t="n">
-        <v>68.81</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="E143" t="n">
-        <v>68.70999999999999</v>
+        <v>69.05</v>
       </c>
       <c r="F143" t="n">
-        <v>25049.1252</v>
+        <v>5253.0168</v>
       </c>
       <c r="G143" t="n">
-        <v>69.71683333333345</v>
+        <v>69.76116666666681</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>69.05</v>
+      </c>
+      <c r="K143" t="n">
+        <v>69.09999999999999</v>
+      </c>
       <c r="L143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5509,31 +5511,35 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>68.75</v>
+        <v>68.81</v>
       </c>
       <c r="C144" t="n">
-        <v>68.52</v>
+        <v>68.73</v>
       </c>
       <c r="D144" t="n">
-        <v>68.75</v>
+        <v>68.81</v>
       </c>
       <c r="E144" t="n">
-        <v>68.52</v>
+        <v>68.70999999999999</v>
       </c>
       <c r="F144" t="n">
-        <v>69350.0015</v>
+        <v>25049.1252</v>
       </c>
       <c r="G144" t="n">
-        <v>69.66900000000012</v>
+        <v>69.71683333333345</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>69.05</v>
+      </c>
+      <c r="K144" t="n">
+        <v>69.09999999999999</v>
+      </c>
       <c r="L144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5548,22 +5554,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>69.09</v>
+        <v>68.75</v>
       </c>
       <c r="C145" t="n">
-        <v>69.09</v>
+        <v>68.52</v>
       </c>
       <c r="D145" t="n">
-        <v>69.09</v>
+        <v>68.75</v>
       </c>
       <c r="E145" t="n">
-        <v>69.09</v>
+        <v>68.52</v>
       </c>
       <c r="F145" t="n">
-        <v>4832.146</v>
+        <v>69350.0015</v>
       </c>
       <c r="G145" t="n">
-        <v>69.6311666666668</v>
+        <v>69.66900000000012</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5572,7 +5578,9 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>69.09999999999999</v>
+      </c>
       <c r="L145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5587,22 +5595,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>68.68000000000001</v>
+        <v>69.09</v>
       </c>
       <c r="C146" t="n">
-        <v>68.59999999999999</v>
+        <v>69.09</v>
       </c>
       <c r="D146" t="n">
-        <v>68.68000000000001</v>
+        <v>69.09</v>
       </c>
       <c r="E146" t="n">
-        <v>68.59999999999999</v>
+        <v>69.09</v>
       </c>
       <c r="F146" t="n">
-        <v>13823.3924</v>
+        <v>4832.146</v>
       </c>
       <c r="G146" t="n">
-        <v>69.60016666666681</v>
+        <v>69.6311666666668</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5611,7 +5619,9 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>69.09999999999999</v>
+      </c>
       <c r="L146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5626,22 +5636,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>69.11</v>
+        <v>68.68000000000001</v>
       </c>
       <c r="C147" t="n">
-        <v>69.3</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="D147" t="n">
-        <v>69.3</v>
+        <v>68.68000000000001</v>
       </c>
       <c r="E147" t="n">
-        <v>69.11</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="F147" t="n">
-        <v>7600</v>
+        <v>13823.3924</v>
       </c>
       <c r="G147" t="n">
-        <v>69.58116666666682</v>
+        <v>69.60016666666681</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5650,7 +5660,9 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>69.09999999999999</v>
+      </c>
       <c r="L147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5665,22 +5677,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>69.48999999999999</v>
+        <v>69.11</v>
       </c>
       <c r="C148" t="n">
-        <v>68.84999999999999</v>
+        <v>69.3</v>
       </c>
       <c r="D148" t="n">
-        <v>69.48999999999999</v>
+        <v>69.3</v>
       </c>
       <c r="E148" t="n">
-        <v>68.84999999999999</v>
+        <v>69.11</v>
       </c>
       <c r="F148" t="n">
-        <v>35844.3848</v>
+        <v>7600</v>
       </c>
       <c r="G148" t="n">
-        <v>69.54116666666683</v>
+        <v>69.58116666666682</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5689,7 +5701,9 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>69.09999999999999</v>
+      </c>
       <c r="L148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5704,22 +5718,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>68.90000000000001</v>
+        <v>69.48999999999999</v>
       </c>
       <c r="C149" t="n">
-        <v>68.90000000000001</v>
+        <v>68.84999999999999</v>
       </c>
       <c r="D149" t="n">
-        <v>68.90000000000001</v>
+        <v>69.48999999999999</v>
       </c>
       <c r="E149" t="n">
-        <v>68.90000000000001</v>
+        <v>68.84999999999999</v>
       </c>
       <c r="F149" t="n">
-        <v>3628.0386</v>
+        <v>35844.3848</v>
       </c>
       <c r="G149" t="n">
-        <v>69.50200000000015</v>
+        <v>69.54116666666683</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5728,7 +5742,9 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>69.09999999999999</v>
+      </c>
       <c r="L149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5743,22 +5759,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>69.45</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="C150" t="n">
-        <v>69</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="D150" t="n">
-        <v>69.45</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="E150" t="n">
-        <v>69</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="F150" t="n">
-        <v>16714.0329</v>
+        <v>3628.0386</v>
       </c>
       <c r="G150" t="n">
-        <v>69.47800000000015</v>
+        <v>69.50200000000015</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5767,7 +5783,9 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>69.09999999999999</v>
+      </c>
       <c r="L150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5782,22 +5800,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>69.5</v>
+        <v>69.45</v>
       </c>
       <c r="C151" t="n">
-        <v>69.59999999999999</v>
+        <v>69</v>
       </c>
       <c r="D151" t="n">
-        <v>69.59999999999999</v>
+        <v>69.45</v>
       </c>
       <c r="E151" t="n">
-        <v>69.5</v>
+        <v>69</v>
       </c>
       <c r="F151" t="n">
-        <v>11489.7783</v>
+        <v>16714.0329</v>
       </c>
       <c r="G151" t="n">
-        <v>69.46400000000017</v>
+        <v>69.47800000000015</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5806,7 +5824,9 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>69.09999999999999</v>
+      </c>
       <c r="L151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5824,19 +5844,19 @@
         <v>69.5</v>
       </c>
       <c r="C152" t="n">
-        <v>69.5</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="D152" t="n">
-        <v>69.5</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="E152" t="n">
         <v>69.5</v>
       </c>
       <c r="F152" t="n">
-        <v>850.6976</v>
+        <v>11489.7783</v>
       </c>
       <c r="G152" t="n">
-        <v>69.45066666666683</v>
+        <v>69.46400000000017</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5845,7 +5865,9 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>69.09999999999999</v>
+      </c>
       <c r="L152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5860,22 +5882,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>69.59999999999999</v>
+        <v>69.5</v>
       </c>
       <c r="C153" t="n">
-        <v>69.59999999999999</v>
+        <v>69.5</v>
       </c>
       <c r="D153" t="n">
-        <v>69.59999999999999</v>
+        <v>69.5</v>
       </c>
       <c r="E153" t="n">
-        <v>69.59999999999999</v>
+        <v>69.5</v>
       </c>
       <c r="F153" t="n">
-        <v>54.3449</v>
+        <v>850.6976</v>
       </c>
       <c r="G153" t="n">
-        <v>69.44166666666683</v>
+        <v>69.45066666666683</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5884,7 +5906,9 @@
         <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>69.09999999999999</v>
+      </c>
       <c r="L153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5899,22 +5923,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>69.90000000000001</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="C154" t="n">
-        <v>70</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="D154" t="n">
-        <v>70</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="E154" t="n">
-        <v>69.90000000000001</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="F154" t="n">
-        <v>19100.9629</v>
+        <v>54.3449</v>
       </c>
       <c r="G154" t="n">
-        <v>69.4383333333335</v>
+        <v>69.44166666666683</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5923,7 +5947,9 @@
         <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>69.09999999999999</v>
+      </c>
       <c r="L154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5938,7 +5964,7 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>70</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="C155" t="n">
         <v>70</v>
@@ -5947,13 +5973,13 @@
         <v>70</v>
       </c>
       <c r="E155" t="n">
-        <v>70</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="F155" t="n">
-        <v>50.8155</v>
+        <v>19100.9629</v>
       </c>
       <c r="G155" t="n">
-        <v>69.43500000000017</v>
+        <v>69.4383333333335</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5962,7 +5988,9 @@
         <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>69.09999999999999</v>
+      </c>
       <c r="L155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5977,22 +6005,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>69.91</v>
+        <v>70</v>
       </c>
       <c r="C156" t="n">
-        <v>69.91</v>
+        <v>70</v>
       </c>
       <c r="D156" t="n">
-        <v>69.91</v>
+        <v>70</v>
       </c>
       <c r="E156" t="n">
-        <v>69.91</v>
+        <v>70</v>
       </c>
       <c r="F156" t="n">
-        <v>3188.1852</v>
+        <v>50.8155</v>
       </c>
       <c r="G156" t="n">
-        <v>69.43150000000017</v>
+        <v>69.43500000000017</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6001,7 +6029,9 @@
         <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>69.09999999999999</v>
+      </c>
       <c r="L156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6016,22 +6046,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>70.19</v>
+        <v>69.91</v>
       </c>
       <c r="C157" t="n">
-        <v>70</v>
+        <v>69.91</v>
       </c>
       <c r="D157" t="n">
-        <v>70.2</v>
+        <v>69.91</v>
       </c>
       <c r="E157" t="n">
-        <v>70</v>
+        <v>69.91</v>
       </c>
       <c r="F157" t="n">
-        <v>11606.0544</v>
+        <v>3188.1852</v>
       </c>
       <c r="G157" t="n">
-        <v>69.42983333333351</v>
+        <v>69.43150000000017</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6040,7 +6070,9 @@
         <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>69.09999999999999</v>
+      </c>
       <c r="L157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6055,22 +6087,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>70.39</v>
+        <v>70.19</v>
       </c>
       <c r="C158" t="n">
-        <v>70.38</v>
+        <v>70</v>
       </c>
       <c r="D158" t="n">
-        <v>70.39</v>
+        <v>70.2</v>
       </c>
       <c r="E158" t="n">
-        <v>70.38</v>
+        <v>70</v>
       </c>
       <c r="F158" t="n">
-        <v>2181.6364</v>
+        <v>11606.0544</v>
       </c>
       <c r="G158" t="n">
-        <v>69.43850000000018</v>
+        <v>69.42983333333351</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6079,7 +6111,9 @@
         <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>69.09999999999999</v>
+      </c>
       <c r="L158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6097,19 +6131,19 @@
         <v>70.39</v>
       </c>
       <c r="C159" t="n">
-        <v>70.39</v>
+        <v>70.38</v>
       </c>
       <c r="D159" t="n">
         <v>70.39</v>
       </c>
       <c r="E159" t="n">
-        <v>70.39</v>
+        <v>70.38</v>
       </c>
       <c r="F159" t="n">
-        <v>2922.2062</v>
+        <v>2181.6364</v>
       </c>
       <c r="G159" t="n">
-        <v>69.44416666666685</v>
+        <v>69.43850000000018</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6118,7 +6152,9 @@
         <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>69.09999999999999</v>
+      </c>
       <c r="L159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6133,22 +6169,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>70</v>
+        <v>70.39</v>
       </c>
       <c r="C160" t="n">
-        <v>69.92</v>
+        <v>70.39</v>
       </c>
       <c r="D160" t="n">
-        <v>70</v>
+        <v>70.39</v>
       </c>
       <c r="E160" t="n">
-        <v>69.92</v>
+        <v>70.39</v>
       </c>
       <c r="F160" t="n">
-        <v>11375.0565</v>
+        <v>2922.2062</v>
       </c>
       <c r="G160" t="n">
-        <v>69.44200000000018</v>
+        <v>69.44416666666685</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6157,7 +6193,9 @@
         <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>69.09999999999999</v>
+      </c>
       <c r="L160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6172,22 +6210,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>70.09999999999999</v>
+        <v>70</v>
       </c>
       <c r="C161" t="n">
-        <v>70.09999999999999</v>
+        <v>69.92</v>
       </c>
       <c r="D161" t="n">
-        <v>70.09999999999999</v>
+        <v>70</v>
       </c>
       <c r="E161" t="n">
-        <v>70.09999999999999</v>
+        <v>69.92</v>
       </c>
       <c r="F161" t="n">
-        <v>648.4673</v>
+        <v>11375.0565</v>
       </c>
       <c r="G161" t="n">
-        <v>69.44616666666684</v>
+        <v>69.44200000000018</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6196,7 +6234,9 @@
         <v>0</v>
       </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>69.09999999999999</v>
+      </c>
       <c r="L161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6211,7 +6251,7 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>69.95999999999999</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="C162" t="n">
         <v>70.09999999999999</v>
@@ -6220,13 +6260,13 @@
         <v>70.09999999999999</v>
       </c>
       <c r="E162" t="n">
-        <v>69.95999999999999</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="F162" t="n">
-        <v>2031.4393</v>
+        <v>648.4673</v>
       </c>
       <c r="G162" t="n">
-        <v>69.4503333333335</v>
+        <v>69.44616666666684</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6235,7 +6275,9 @@
         <v>0</v>
       </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>69.09999999999999</v>
+      </c>
       <c r="L162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6250,22 +6292,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>69.97</v>
+        <v>69.95999999999999</v>
       </c>
       <c r="C163" t="n">
-        <v>69.97</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="D163" t="n">
-        <v>69.97</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="E163" t="n">
-        <v>69.97</v>
+        <v>69.95999999999999</v>
       </c>
       <c r="F163" t="n">
-        <v>5950</v>
+        <v>2031.4393</v>
       </c>
       <c r="G163" t="n">
-        <v>69.4523333333335</v>
+        <v>69.4503333333335</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6274,7 +6316,9 @@
         <v>0</v>
       </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>69.09999999999999</v>
+      </c>
       <c r="L163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6301,10 +6345,10 @@
         <v>69.97</v>
       </c>
       <c r="F164" t="n">
-        <v>15275.1985</v>
+        <v>5950</v>
       </c>
       <c r="G164" t="n">
-        <v>69.45433333333351</v>
+        <v>69.4523333333335</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6313,7 +6357,9 @@
         <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>69.09999999999999</v>
+      </c>
       <c r="L164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6331,19 +6377,19 @@
         <v>69.97</v>
       </c>
       <c r="C165" t="n">
-        <v>69.92</v>
+        <v>69.97</v>
       </c>
       <c r="D165" t="n">
         <v>69.97</v>
       </c>
       <c r="E165" t="n">
-        <v>69.92</v>
+        <v>69.97</v>
       </c>
       <c r="F165" t="n">
-        <v>20000</v>
+        <v>15275.1985</v>
       </c>
       <c r="G165" t="n">
-        <v>69.45550000000017</v>
+        <v>69.45433333333351</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6352,7 +6398,9 @@
         <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>69.09999999999999</v>
+      </c>
       <c r="L165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6367,22 +6415,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
+        <v>69.97</v>
+      </c>
+      <c r="C166" t="n">
         <v>69.92</v>
       </c>
-      <c r="C166" t="n">
-        <v>69.90000000000001</v>
-      </c>
       <c r="D166" t="n">
+        <v>69.97</v>
+      </c>
+      <c r="E166" t="n">
         <v>69.92</v>
       </c>
-      <c r="E166" t="n">
-        <v>69.90000000000001</v>
-      </c>
       <c r="F166" t="n">
-        <v>10850</v>
+        <v>20000</v>
       </c>
       <c r="G166" t="n">
-        <v>69.45350000000015</v>
+        <v>69.45550000000017</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6391,7 +6439,9 @@
         <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>69.09999999999999</v>
+      </c>
       <c r="L166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6406,22 +6456,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>69.90000000000001</v>
+        <v>69.92</v>
       </c>
       <c r="C167" t="n">
         <v>69.90000000000001</v>
       </c>
       <c r="D167" t="n">
-        <v>69.90000000000001</v>
+        <v>69.92</v>
       </c>
       <c r="E167" t="n">
         <v>69.90000000000001</v>
       </c>
       <c r="F167" t="n">
-        <v>2800</v>
+        <v>10850</v>
       </c>
       <c r="G167" t="n">
-        <v>69.45416666666682</v>
+        <v>69.45350000000015</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6430,7 +6480,9 @@
         <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>69.09999999999999</v>
+      </c>
       <c r="L167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6457,10 +6509,10 @@
         <v>69.90000000000001</v>
       </c>
       <c r="F168" t="n">
-        <v>7300</v>
+        <v>2800</v>
       </c>
       <c r="G168" t="n">
-        <v>69.45483333333348</v>
+        <v>69.45416666666682</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6469,7 +6521,9 @@
         <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>69.09999999999999</v>
+      </c>
       <c r="L168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6496,10 +6550,10 @@
         <v>69.90000000000001</v>
       </c>
       <c r="F169" t="n">
-        <v>8516.4758</v>
+        <v>7300</v>
       </c>
       <c r="G169" t="n">
-        <v>69.45583333333347</v>
+        <v>69.45483333333348</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6508,7 +6562,9 @@
         <v>0</v>
       </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>69.09999999999999</v>
+      </c>
       <c r="L169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6523,22 +6579,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>70.2</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="C170" t="n">
-        <v>70.5</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="D170" t="n">
-        <v>70.5</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="E170" t="n">
-        <v>70.2</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="F170" t="n">
-        <v>74933.6894</v>
+        <v>8516.4758</v>
       </c>
       <c r="G170" t="n">
-        <v>69.46683333333347</v>
+        <v>69.45583333333347</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6547,7 +6603,9 @@
         <v>0</v>
       </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>69.09999999999999</v>
+      </c>
       <c r="L170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6562,22 +6620,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>71</v>
+        <v>70.2</v>
       </c>
       <c r="C171" t="n">
-        <v>71.45999999999999</v>
+        <v>70.5</v>
       </c>
       <c r="D171" t="n">
-        <v>71.45999999999999</v>
+        <v>70.5</v>
       </c>
       <c r="E171" t="n">
-        <v>71</v>
+        <v>70.2</v>
       </c>
       <c r="F171" t="n">
-        <v>1374.8569</v>
+        <v>74933.6894</v>
       </c>
       <c r="G171" t="n">
-        <v>69.49383333333347</v>
+        <v>69.46683333333347</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6586,7 +6644,9 @@
         <v>0</v>
       </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>69.09999999999999</v>
+      </c>
       <c r="L171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6601,22 +6661,22 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
+        <v>71</v>
+      </c>
+      <c r="C172" t="n">
         <v>71.45999999999999</v>
       </c>
-      <c r="C172" t="n">
-        <v>71.55</v>
-      </c>
       <c r="D172" t="n">
-        <v>71.55</v>
+        <v>71.45999999999999</v>
       </c>
       <c r="E172" t="n">
-        <v>71.45999999999999</v>
+        <v>71</v>
       </c>
       <c r="F172" t="n">
-        <v>4308.4597</v>
+        <v>1374.8569</v>
       </c>
       <c r="G172" t="n">
-        <v>69.52233333333348</v>
+        <v>69.49383333333347</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6625,7 +6685,9 @@
         <v>0</v>
       </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>69.09999999999999</v>
+      </c>
       <c r="L172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6640,22 +6702,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>71.63</v>
+        <v>71.45999999999999</v>
       </c>
       <c r="C173" t="n">
-        <v>71.77</v>
+        <v>71.55</v>
       </c>
       <c r="D173" t="n">
-        <v>71.77</v>
+        <v>71.55</v>
       </c>
       <c r="E173" t="n">
-        <v>71.63</v>
+        <v>71.45999999999999</v>
       </c>
       <c r="F173" t="n">
-        <v>18348.5553</v>
+        <v>4308.4597</v>
       </c>
       <c r="G173" t="n">
-        <v>69.55183333333348</v>
+        <v>69.52233333333348</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6664,7 +6726,9 @@
         <v>0</v>
       </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>69.09999999999999</v>
+      </c>
       <c r="L173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6679,22 +6743,22 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>71.93000000000001</v>
+        <v>71.63</v>
       </c>
       <c r="C174" t="n">
-        <v>71.98999999999999</v>
+        <v>71.77</v>
       </c>
       <c r="D174" t="n">
-        <v>71.98999999999999</v>
+        <v>71.77</v>
       </c>
       <c r="E174" t="n">
-        <v>71.93000000000001</v>
+        <v>71.63</v>
       </c>
       <c r="F174" t="n">
-        <v>32604.5914</v>
+        <v>18348.5553</v>
       </c>
       <c r="G174" t="n">
-        <v>69.59666666666681</v>
+        <v>69.55183333333348</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6703,7 +6767,9 @@
         <v>0</v>
       </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>69.09999999999999</v>
+      </c>
       <c r="L174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6718,22 +6784,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
+        <v>71.93000000000001</v>
+      </c>
+      <c r="C175" t="n">
         <v>71.98999999999999</v>
       </c>
-      <c r="C175" t="n">
-        <v>71.81999999999999</v>
-      </c>
       <c r="D175" t="n">
-        <v>72.67</v>
+        <v>71.98999999999999</v>
       </c>
       <c r="E175" t="n">
-        <v>71.81999999999999</v>
+        <v>71.93000000000001</v>
       </c>
       <c r="F175" t="n">
-        <v>17754.1144</v>
+        <v>32604.5914</v>
       </c>
       <c r="G175" t="n">
-        <v>69.63866666666679</v>
+        <v>69.59666666666681</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6742,7 +6808,9 @@
         <v>0</v>
       </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>69.09999999999999</v>
+      </c>
       <c r="L175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6757,22 +6825,22 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>72.76000000000001</v>
+        <v>71.98999999999999</v>
       </c>
       <c r="C176" t="n">
-        <v>72.98999999999999</v>
+        <v>71.81999999999999</v>
       </c>
       <c r="D176" t="n">
-        <v>72.98999999999999</v>
+        <v>72.67</v>
       </c>
       <c r="E176" t="n">
-        <v>72.11</v>
+        <v>71.81999999999999</v>
       </c>
       <c r="F176" t="n">
-        <v>5118.9433</v>
+        <v>17754.1144</v>
       </c>
       <c r="G176" t="n">
-        <v>69.70016666666679</v>
+        <v>69.63866666666679</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6781,7 +6849,9 @@
         <v>0</v>
       </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>69.09999999999999</v>
+      </c>
       <c r="L176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6796,22 +6866,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>72.98999999999999</v>
+        <v>72.76000000000001</v>
       </c>
       <c r="C177" t="n">
         <v>72.98999999999999</v>
       </c>
       <c r="D177" t="n">
-        <v>73.8</v>
+        <v>72.98999999999999</v>
       </c>
       <c r="E177" t="n">
-        <v>72.98999999999999</v>
+        <v>72.11</v>
       </c>
       <c r="F177" t="n">
-        <v>153319.6482</v>
+        <v>5118.9433</v>
       </c>
       <c r="G177" t="n">
-        <v>69.76283333333346</v>
+        <v>69.70016666666679</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6820,7 +6890,9 @@
         <v>0</v>
       </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>69.09999999999999</v>
+      </c>
       <c r="L177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6835,38 +6907,40 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>73.79000000000001</v>
+        <v>72.98999999999999</v>
       </c>
       <c r="C178" t="n">
-        <v>72.59999999999999</v>
+        <v>72.98999999999999</v>
       </c>
       <c r="D178" t="n">
         <v>73.8</v>
       </c>
       <c r="E178" t="n">
-        <v>72.5</v>
+        <v>72.98999999999999</v>
       </c>
       <c r="F178" t="n">
-        <v>23666.9723</v>
+        <v>153319.6482</v>
       </c>
       <c r="G178" t="n">
-        <v>69.82050000000012</v>
+        <v>69.76283333333346</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
       </c>
       <c r="I178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>69.09999999999999</v>
+      </c>
       <c r="L178" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M178" t="n">
-        <v>1</v>
+        <v>1.051295224312591</v>
       </c>
     </row>
     <row r="179">
@@ -6874,22 +6948,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>73.16</v>
+        <v>73.79000000000001</v>
       </c>
       <c r="C179" t="n">
-        <v>72.79000000000001</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="D179" t="n">
-        <v>73.17</v>
+        <v>73.8</v>
       </c>
       <c r="E179" t="n">
-        <v>72.79000000000001</v>
+        <v>72.5</v>
       </c>
       <c r="F179" t="n">
-        <v>31671.0234</v>
+        <v>23666.9723</v>
       </c>
       <c r="G179" t="n">
-        <v>69.87866666666679</v>
+        <v>69.82050000000012</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6899,34 +6973,32 @@
       </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>72.8</v>
+        <v>73.16</v>
       </c>
       <c r="C180" t="n">
-        <v>72.90000000000001</v>
+        <v>72.79000000000001</v>
       </c>
       <c r="D180" t="n">
-        <v>73.28</v>
+        <v>73.17</v>
       </c>
       <c r="E180" t="n">
-        <v>72.8</v>
+        <v>72.79000000000001</v>
       </c>
       <c r="F180" t="n">
-        <v>20862.9904</v>
+        <v>31671.0234</v>
       </c>
       <c r="G180" t="n">
-        <v>69.94100000000012</v>
+        <v>69.87866666666679</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6946,22 +7018,22 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
+        <v>72.8</v>
+      </c>
+      <c r="C181" t="n">
         <v>72.90000000000001</v>
       </c>
-      <c r="C181" t="n">
-        <v>72.79000000000001</v>
-      </c>
       <c r="D181" t="n">
-        <v>72.90000000000001</v>
+        <v>73.28</v>
       </c>
       <c r="E181" t="n">
-        <v>72.79000000000001</v>
+        <v>72.8</v>
       </c>
       <c r="F181" t="n">
-        <v>9421.483099999999</v>
+        <v>20862.9904</v>
       </c>
       <c r="G181" t="n">
-        <v>69.99916666666678</v>
+        <v>69.94100000000012</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -6981,22 +7053,22 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
+        <v>72.90000000000001</v>
+      </c>
+      <c r="C182" t="n">
         <v>72.79000000000001</v>
       </c>
-      <c r="C182" t="n">
-        <v>73.88</v>
-      </c>
       <c r="D182" t="n">
-        <v>73.88</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="E182" t="n">
         <v>72.79000000000001</v>
       </c>
       <c r="F182" t="n">
-        <v>4273.2368</v>
+        <v>9421.483099999999</v>
       </c>
       <c r="G182" t="n">
-        <v>70.06900000000013</v>
+        <v>69.99916666666678</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -7016,22 +7088,22 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>73.09999999999999</v>
+        <v>72.79000000000001</v>
       </c>
       <c r="C183" t="n">
-        <v>72.8</v>
+        <v>73.88</v>
       </c>
       <c r="D183" t="n">
-        <v>73.09999999999999</v>
+        <v>73.88</v>
       </c>
       <c r="E183" t="n">
-        <v>72.8</v>
+        <v>72.79000000000001</v>
       </c>
       <c r="F183" t="n">
-        <v>16279.6602</v>
+        <v>4273.2368</v>
       </c>
       <c r="G183" t="n">
-        <v>70.12083333333347</v>
+        <v>70.06900000000013</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -7051,22 +7123,22 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
+        <v>73.09999999999999</v>
+      </c>
+      <c r="C184" t="n">
         <v>72.8</v>
       </c>
-      <c r="C184" t="n">
-        <v>73.5</v>
-      </c>
       <c r="D184" t="n">
-        <v>74.38</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="E184" t="n">
         <v>72.8</v>
       </c>
       <c r="F184" t="n">
-        <v>25741.1764</v>
+        <v>16279.6602</v>
       </c>
       <c r="G184" t="n">
-        <v>70.19350000000013</v>
+        <v>70.12083333333347</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -7086,22 +7158,22 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>73.7</v>
+        <v>72.8</v>
       </c>
       <c r="C185" t="n">
-        <v>73.59999999999999</v>
+        <v>73.5</v>
       </c>
       <c r="D185" t="n">
-        <v>74.3</v>
+        <v>74.38</v>
       </c>
       <c r="E185" t="n">
-        <v>73.48999999999999</v>
+        <v>72.8</v>
       </c>
       <c r="F185" t="n">
-        <v>16288.3603</v>
+        <v>25741.1764</v>
       </c>
       <c r="G185" t="n">
-        <v>70.26800000000013</v>
+        <v>70.19350000000013</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -7121,22 +7193,22 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
+        <v>73.7</v>
+      </c>
+      <c r="C186" t="n">
         <v>73.59999999999999</v>
       </c>
-      <c r="C186" t="n">
-        <v>73.90000000000001</v>
-      </c>
       <c r="D186" t="n">
-        <v>73.90000000000001</v>
+        <v>74.3</v>
       </c>
       <c r="E186" t="n">
-        <v>73.59</v>
+        <v>73.48999999999999</v>
       </c>
       <c r="F186" t="n">
-        <v>9594.177100000001</v>
+        <v>16288.3603</v>
       </c>
       <c r="G186" t="n">
-        <v>70.34800000000013</v>
+        <v>70.26800000000013</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -7156,22 +7228,22 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>73.79000000000001</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="C187" t="n">
-        <v>73.3</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="D187" t="n">
         <v>73.90000000000001</v>
       </c>
       <c r="E187" t="n">
-        <v>73.3</v>
+        <v>73.59</v>
       </c>
       <c r="F187" t="n">
-        <v>16361.6401</v>
+        <v>9594.177100000001</v>
       </c>
       <c r="G187" t="n">
-        <v>70.41700000000013</v>
+        <v>70.34800000000013</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -7191,22 +7263,22 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>73.8</v>
+        <v>73.79000000000001</v>
       </c>
       <c r="C188" t="n">
-        <v>73.16</v>
+        <v>73.3</v>
       </c>
       <c r="D188" t="n">
-        <v>74.09999999999999</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="E188" t="n">
-        <v>73.16</v>
+        <v>73.3</v>
       </c>
       <c r="F188" t="n">
-        <v>22857.8669</v>
+        <v>16361.6401</v>
       </c>
       <c r="G188" t="n">
-        <v>70.4876666666668</v>
+        <v>70.41700000000013</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -7226,22 +7298,22 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
+        <v>73.8</v>
+      </c>
+      <c r="C189" t="n">
         <v>73.16</v>
       </c>
-      <c r="C189" t="n">
-        <v>73.11</v>
-      </c>
       <c r="D189" t="n">
-        <v>73.67</v>
+        <v>74.09999999999999</v>
       </c>
       <c r="E189" t="n">
-        <v>72.8</v>
+        <v>73.16</v>
       </c>
       <c r="F189" t="n">
-        <v>17392.39</v>
+        <v>22857.8669</v>
       </c>
       <c r="G189" t="n">
-        <v>70.54983333333345</v>
+        <v>70.4876666666668</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7261,22 +7333,22 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>73.11</v>
+        <v>73.16</v>
       </c>
       <c r="C190" t="n">
         <v>73.11</v>
       </c>
       <c r="D190" t="n">
-        <v>73.11</v>
+        <v>73.67</v>
       </c>
       <c r="E190" t="n">
         <v>72.8</v>
       </c>
       <c r="F190" t="n">
-        <v>26453.9226</v>
+        <v>17392.39</v>
       </c>
       <c r="G190" t="n">
-        <v>70.61966666666677</v>
+        <v>70.54983333333345</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7305,13 +7377,13 @@
         <v>73.11</v>
       </c>
       <c r="E191" t="n">
-        <v>73.11</v>
+        <v>72.8</v>
       </c>
       <c r="F191" t="n">
-        <v>7</v>
+        <v>26453.9226</v>
       </c>
       <c r="G191" t="n">
-        <v>70.69116666666677</v>
+        <v>70.61966666666677</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7334,19 +7406,19 @@
         <v>73.11</v>
       </c>
       <c r="C192" t="n">
-        <v>73.68000000000001</v>
+        <v>73.11</v>
       </c>
       <c r="D192" t="n">
-        <v>73.68000000000001</v>
+        <v>73.11</v>
       </c>
       <c r="E192" t="n">
         <v>73.11</v>
       </c>
       <c r="F192" t="n">
-        <v>80</v>
+        <v>7</v>
       </c>
       <c r="G192" t="n">
-        <v>70.77233333333344</v>
+        <v>70.69116666666677</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7366,22 +7438,22 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>73.5</v>
+        <v>73.11</v>
       </c>
       <c r="C193" t="n">
-        <v>73.48999999999999</v>
+        <v>73.68000000000001</v>
       </c>
       <c r="D193" t="n">
-        <v>73.5</v>
+        <v>73.68000000000001</v>
       </c>
       <c r="E193" t="n">
-        <v>72.34999999999999</v>
+        <v>73.11</v>
       </c>
       <c r="F193" t="n">
-        <v>19752.0248</v>
+        <v>80</v>
       </c>
       <c r="G193" t="n">
-        <v>70.82066666666677</v>
+        <v>70.77233333333344</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7401,22 +7473,22 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>72.23</v>
+        <v>73.5</v>
       </c>
       <c r="C194" t="n">
-        <v>73.04000000000001</v>
+        <v>73.48999999999999</v>
       </c>
       <c r="D194" t="n">
-        <v>73.04000000000001</v>
+        <v>73.5</v>
       </c>
       <c r="E194" t="n">
-        <v>72.20999999999999</v>
+        <v>72.34999999999999</v>
       </c>
       <c r="F194" t="n">
-        <v>5114.3798</v>
+        <v>19752.0248</v>
       </c>
       <c r="G194" t="n">
-        <v>70.87316666666676</v>
+        <v>70.82066666666677</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7436,22 +7508,22 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>72.18000000000001</v>
+        <v>72.23</v>
       </c>
       <c r="C195" t="n">
-        <v>73.14</v>
+        <v>73.04000000000001</v>
       </c>
       <c r="D195" t="n">
-        <v>73.15000000000001</v>
+        <v>73.04000000000001</v>
       </c>
       <c r="E195" t="n">
-        <v>72.18000000000001</v>
+        <v>72.20999999999999</v>
       </c>
       <c r="F195" t="n">
-        <v>40523.2733</v>
+        <v>5114.3798</v>
       </c>
       <c r="G195" t="n">
-        <v>70.94016666666677</v>
+        <v>70.87316666666676</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7471,22 +7543,22 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>73.14</v>
+        <v>72.18000000000001</v>
       </c>
       <c r="C196" t="n">
         <v>73.14</v>
       </c>
       <c r="D196" t="n">
-        <v>73.14</v>
+        <v>73.15000000000001</v>
       </c>
       <c r="E196" t="n">
-        <v>73.14</v>
+        <v>72.18000000000001</v>
       </c>
       <c r="F196" t="n">
-        <v>2623.6518</v>
+        <v>40523.2733</v>
       </c>
       <c r="G196" t="n">
-        <v>71.00083333333345</v>
+        <v>70.94016666666677</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7506,22 +7578,22 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>73.11</v>
+        <v>73.14</v>
       </c>
       <c r="C197" t="n">
-        <v>73.11</v>
+        <v>73.14</v>
       </c>
       <c r="D197" t="n">
-        <v>73.11</v>
+        <v>73.14</v>
       </c>
       <c r="E197" t="n">
-        <v>73.11</v>
+        <v>73.14</v>
       </c>
       <c r="F197" t="n">
-        <v>18441.9854</v>
+        <v>2623.6518</v>
       </c>
       <c r="G197" t="n">
-        <v>71.06566666666677</v>
+        <v>71.00083333333345</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7541,7 +7613,7 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>73</v>
+        <v>73.11</v>
       </c>
       <c r="C198" t="n">
         <v>73.11</v>
@@ -7550,13 +7622,13 @@
         <v>73.11</v>
       </c>
       <c r="E198" t="n">
-        <v>73</v>
+        <v>73.11</v>
       </c>
       <c r="F198" t="n">
-        <v>15000</v>
+        <v>18441.9854</v>
       </c>
       <c r="G198" t="n">
-        <v>71.13733333333342</v>
+        <v>71.06566666666677</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7576,22 +7648,22 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
+        <v>73</v>
+      </c>
+      <c r="C199" t="n">
         <v>73.11</v>
       </c>
-      <c r="C199" t="n">
-        <v>72</v>
-      </c>
       <c r="D199" t="n">
-        <v>73.14</v>
+        <v>73.11</v>
       </c>
       <c r="E199" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F199" t="n">
-        <v>28765.9146</v>
+        <v>15000</v>
       </c>
       <c r="G199" t="n">
-        <v>71.19050000000009</v>
+        <v>71.13733333333342</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7611,22 +7683,22 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>72.98999999999999</v>
+        <v>73.11</v>
       </c>
       <c r="C200" t="n">
-        <v>72.98999999999999</v>
+        <v>72</v>
       </c>
       <c r="D200" t="n">
-        <v>72.98999999999999</v>
+        <v>73.14</v>
       </c>
       <c r="E200" t="n">
-        <v>72.98999999999999</v>
+        <v>72</v>
       </c>
       <c r="F200" t="n">
-        <v>446.2696</v>
+        <v>28765.9146</v>
       </c>
       <c r="G200" t="n">
-        <v>71.25616666666674</v>
+        <v>71.19050000000009</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7646,22 +7718,22 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>73.14</v>
+        <v>72.98999999999999</v>
       </c>
       <c r="C201" t="n">
-        <v>73.79000000000001</v>
+        <v>72.98999999999999</v>
       </c>
       <c r="D201" t="n">
-        <v>73.79000000000001</v>
+        <v>72.98999999999999</v>
       </c>
       <c r="E201" t="n">
-        <v>73.14</v>
+        <v>72.98999999999999</v>
       </c>
       <c r="F201" t="n">
-        <v>287.857</v>
+        <v>446.2696</v>
       </c>
       <c r="G201" t="n">
-        <v>71.33516666666674</v>
+        <v>71.25616666666674</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7681,22 +7753,22 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
+        <v>73.14</v>
+      </c>
+      <c r="C202" t="n">
         <v>73.79000000000001</v>
       </c>
-      <c r="C202" t="n">
-        <v>73.90000000000001</v>
-      </c>
       <c r="D202" t="n">
-        <v>73.90000000000001</v>
+        <v>73.79000000000001</v>
       </c>
       <c r="E202" t="n">
-        <v>73.79000000000001</v>
+        <v>73.14</v>
       </c>
       <c r="F202" t="n">
-        <v>1950</v>
+        <v>287.857</v>
       </c>
       <c r="G202" t="n">
-        <v>71.41600000000007</v>
+        <v>71.33516666666674</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -7716,22 +7788,22 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>74</v>
+        <v>73.79000000000001</v>
       </c>
       <c r="C203" t="n">
-        <v>73.7</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="D203" t="n">
-        <v>74</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="E203" t="n">
-        <v>73.7</v>
+        <v>73.79000000000001</v>
       </c>
       <c r="F203" t="n">
-        <v>497.4226</v>
+        <v>1950</v>
       </c>
       <c r="G203" t="n">
-        <v>71.49883333333339</v>
+        <v>71.41600000000007</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -7751,22 +7823,22 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
+        <v>74</v>
+      </c>
+      <c r="C204" t="n">
         <v>73.7</v>
       </c>
-      <c r="C204" t="n">
-        <v>74.3</v>
-      </c>
       <c r="D204" t="n">
-        <v>74.3</v>
+        <v>74</v>
       </c>
       <c r="E204" t="n">
         <v>73.7</v>
       </c>
       <c r="F204" t="n">
-        <v>18119.0083</v>
+        <v>497.4226</v>
       </c>
       <c r="G204" t="n">
-        <v>71.59516666666673</v>
+        <v>71.49883333333339</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -7786,22 +7858,22 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
+        <v>73.7</v>
+      </c>
+      <c r="C205" t="n">
         <v>74.3</v>
       </c>
-      <c r="C205" t="n">
-        <v>74.34</v>
-      </c>
       <c r="D205" t="n">
-        <v>74.36</v>
+        <v>74.3</v>
       </c>
       <c r="E205" t="n">
-        <v>74.3</v>
+        <v>73.7</v>
       </c>
       <c r="F205" t="n">
-        <v>4549.5351</v>
+        <v>18119.0083</v>
       </c>
       <c r="G205" t="n">
-        <v>71.68266666666673</v>
+        <v>71.59516666666673</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -7821,22 +7893,22 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>73.70999999999999</v>
+        <v>74.3</v>
       </c>
       <c r="C206" t="n">
-        <v>74.33</v>
+        <v>74.34</v>
       </c>
       <c r="D206" t="n">
-        <v>74.34999999999999</v>
+        <v>74.36</v>
       </c>
       <c r="E206" t="n">
-        <v>73.62</v>
+        <v>74.3</v>
       </c>
       <c r="F206" t="n">
-        <v>39315.6454</v>
+        <v>4549.5351</v>
       </c>
       <c r="G206" t="n">
-        <v>71.77816666666672</v>
+        <v>71.68266666666673</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -7856,22 +7928,22 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>74.34</v>
+        <v>73.70999999999999</v>
       </c>
       <c r="C207" t="n">
-        <v>74.34999999999999</v>
+        <v>74.33</v>
       </c>
       <c r="D207" t="n">
         <v>74.34999999999999</v>
       </c>
       <c r="E207" t="n">
-        <v>74.34</v>
+        <v>73.62</v>
       </c>
       <c r="F207" t="n">
-        <v>10562.1202</v>
+        <v>39315.6454</v>
       </c>
       <c r="G207" t="n">
-        <v>71.8623333333334</v>
+        <v>71.77816666666672</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -7891,22 +7963,22 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>73.8</v>
+        <v>74.34</v>
       </c>
       <c r="C208" t="n">
-        <v>74.3</v>
+        <v>74.34999999999999</v>
       </c>
       <c r="D208" t="n">
-        <v>74.3</v>
+        <v>74.34999999999999</v>
       </c>
       <c r="E208" t="n">
-        <v>73.8</v>
+        <v>74.34</v>
       </c>
       <c r="F208" t="n">
-        <v>463.6627</v>
+        <v>10562.1202</v>
       </c>
       <c r="G208" t="n">
-        <v>71.95316666666672</v>
+        <v>71.8623333333334</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -7926,22 +7998,22 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>74.34</v>
+        <v>73.8</v>
       </c>
       <c r="C209" t="n">
-        <v>73.23</v>
+        <v>74.3</v>
       </c>
       <c r="D209" t="n">
-        <v>74.34</v>
+        <v>74.3</v>
       </c>
       <c r="E209" t="n">
-        <v>73.23</v>
+        <v>73.8</v>
       </c>
       <c r="F209" t="n">
-        <v>14035.3425</v>
+        <v>463.6627</v>
       </c>
       <c r="G209" t="n">
-        <v>72.02533333333339</v>
+        <v>71.95316666666672</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -7961,22 +8033,22 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>73.90000000000001</v>
+        <v>74.34</v>
       </c>
       <c r="C210" t="n">
-        <v>73.90000000000001</v>
+        <v>73.23</v>
       </c>
       <c r="D210" t="n">
-        <v>73.90000000000001</v>
+        <v>74.34</v>
       </c>
       <c r="E210" t="n">
-        <v>73.90000000000001</v>
+        <v>73.23</v>
       </c>
       <c r="F210" t="n">
-        <v>2675.4078</v>
+        <v>14035.3425</v>
       </c>
       <c r="G210" t="n">
-        <v>72.10700000000004</v>
+        <v>72.02533333333339</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -7996,22 +8068,22 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>73.3</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="C211" t="n">
-        <v>73.01000000000001</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="D211" t="n">
-        <v>73.3</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="E211" t="n">
-        <v>73.01000000000001</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="F211" t="n">
-        <v>5111.956</v>
+        <v>2675.4078</v>
       </c>
       <c r="G211" t="n">
-        <v>72.16383333333337</v>
+        <v>72.10700000000004</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -8031,22 +8103,22 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>73.2</v>
+        <v>73.3</v>
       </c>
       <c r="C212" t="n">
-        <v>73.16</v>
+        <v>73.01000000000001</v>
       </c>
       <c r="D212" t="n">
-        <v>73.2</v>
+        <v>73.3</v>
       </c>
       <c r="E212" t="n">
-        <v>73</v>
+        <v>73.01000000000001</v>
       </c>
       <c r="F212" t="n">
-        <v>226.652</v>
+        <v>5111.956</v>
       </c>
       <c r="G212" t="n">
-        <v>72.22483333333338</v>
+        <v>72.16383333333337</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -8066,22 +8138,22 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
+        <v>73.2</v>
+      </c>
+      <c r="C213" t="n">
+        <v>73.16</v>
+      </c>
+      <c r="D213" t="n">
+        <v>73.2</v>
+      </c>
+      <c r="E213" t="n">
         <v>73</v>
       </c>
-      <c r="C213" t="n">
-        <v>72.31</v>
-      </c>
-      <c r="D213" t="n">
-        <v>73</v>
-      </c>
-      <c r="E213" t="n">
-        <v>72.31</v>
-      </c>
       <c r="F213" t="n">
-        <v>10551.9971</v>
+        <v>226.652</v>
       </c>
       <c r="G213" t="n">
-        <v>72.27000000000004</v>
+        <v>72.22483333333338</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -8101,22 +8173,22 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
+        <v>73</v>
+      </c>
+      <c r="C214" t="n">
         <v>72.31</v>
       </c>
-      <c r="C214" t="n">
-        <v>71.51000000000001</v>
-      </c>
       <c r="D214" t="n">
-        <v>72.31999999999999</v>
+        <v>73</v>
       </c>
       <c r="E214" t="n">
-        <v>71.51000000000001</v>
+        <v>72.31</v>
       </c>
       <c r="F214" t="n">
-        <v>63772.7507</v>
+        <v>10551.9971</v>
       </c>
       <c r="G214" t="n">
-        <v>72.29516666666672</v>
+        <v>72.27000000000004</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -8136,22 +8208,22 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>71.61</v>
+        <v>72.31</v>
       </c>
       <c r="C215" t="n">
-        <v>71.61</v>
+        <v>71.51000000000001</v>
       </c>
       <c r="D215" t="n">
-        <v>71.61</v>
+        <v>72.31999999999999</v>
       </c>
       <c r="E215" t="n">
-        <v>71.61</v>
+        <v>71.51000000000001</v>
       </c>
       <c r="F215" t="n">
-        <v>27719.5427</v>
+        <v>63772.7507</v>
       </c>
       <c r="G215" t="n">
-        <v>72.32200000000005</v>
+        <v>72.29516666666672</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -8171,22 +8243,22 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>71.90000000000001</v>
+        <v>71.61</v>
       </c>
       <c r="C216" t="n">
-        <v>71.8</v>
+        <v>71.61</v>
       </c>
       <c r="D216" t="n">
-        <v>71.90000000000001</v>
+        <v>71.61</v>
       </c>
       <c r="E216" t="n">
-        <v>71.8</v>
+        <v>71.61</v>
       </c>
       <c r="F216" t="n">
-        <v>1317.5175</v>
+        <v>27719.5427</v>
       </c>
       <c r="G216" t="n">
-        <v>72.35350000000004</v>
+        <v>72.32200000000005</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -8206,22 +8278,22 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>72.28</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="C217" t="n">
-        <v>72.22</v>
+        <v>71.8</v>
       </c>
       <c r="D217" t="n">
-        <v>72.28</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="E217" t="n">
-        <v>72.22</v>
+        <v>71.8</v>
       </c>
       <c r="F217" t="n">
-        <v>3007</v>
+        <v>1317.5175</v>
       </c>
       <c r="G217" t="n">
-        <v>72.39050000000005</v>
+        <v>72.35350000000004</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -8241,22 +8313,22 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>72</v>
+        <v>72.28</v>
       </c>
       <c r="C218" t="n">
-        <v>72</v>
+        <v>72.22</v>
       </c>
       <c r="D218" t="n">
-        <v>72</v>
+        <v>72.28</v>
       </c>
       <c r="E218" t="n">
-        <v>72</v>
+        <v>72.22</v>
       </c>
       <c r="F218" t="n">
-        <v>8000</v>
+        <v>3007</v>
       </c>
       <c r="G218" t="n">
-        <v>72.41750000000005</v>
+        <v>72.39050000000005</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -8276,7 +8348,7 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>71.98999999999999</v>
+        <v>72</v>
       </c>
       <c r="C219" t="n">
         <v>72</v>
@@ -8285,13 +8357,13 @@
         <v>72</v>
       </c>
       <c r="E219" t="n">
-        <v>71.98999999999999</v>
+        <v>72</v>
       </c>
       <c r="F219" t="n">
-        <v>8825.4416</v>
+        <v>8000</v>
       </c>
       <c r="G219" t="n">
-        <v>72.44433333333338</v>
+        <v>72.41750000000005</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -8311,22 +8383,22 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>71.61</v>
+        <v>71.98999999999999</v>
       </c>
       <c r="C220" t="n">
-        <v>71.61</v>
+        <v>72</v>
       </c>
       <c r="D220" t="n">
-        <v>71.61</v>
+        <v>72</v>
       </c>
       <c r="E220" t="n">
-        <v>71.61</v>
+        <v>71.98999999999999</v>
       </c>
       <c r="F220" t="n">
-        <v>6345</v>
+        <v>8825.4416</v>
       </c>
       <c r="G220" t="n">
-        <v>72.47250000000004</v>
+        <v>72.44433333333338</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -8349,19 +8421,19 @@
         <v>71.61</v>
       </c>
       <c r="C221" t="n">
-        <v>72.34</v>
+        <v>71.61</v>
       </c>
       <c r="D221" t="n">
-        <v>72.34</v>
+        <v>71.61</v>
       </c>
       <c r="E221" t="n">
-        <v>71.41</v>
+        <v>71.61</v>
       </c>
       <c r="F221" t="n">
-        <v>9657.0483</v>
+        <v>6345</v>
       </c>
       <c r="G221" t="n">
-        <v>72.50983333333336</v>
+        <v>72.47250000000004</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -8381,22 +8453,22 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>72.22</v>
+        <v>71.61</v>
       </c>
       <c r="C222" t="n">
-        <v>72.22</v>
+        <v>72.34</v>
       </c>
       <c r="D222" t="n">
-        <v>72.22</v>
+        <v>72.34</v>
       </c>
       <c r="E222" t="n">
-        <v>72.22</v>
+        <v>71.41</v>
       </c>
       <c r="F222" t="n">
-        <v>1700.3731</v>
+        <v>9657.0483</v>
       </c>
       <c r="G222" t="n">
-        <v>72.5451666666667</v>
+        <v>72.50983333333336</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -8416,22 +8488,22 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>72.2</v>
+        <v>72.22</v>
       </c>
       <c r="C223" t="n">
-        <v>72.2</v>
+        <v>72.22</v>
       </c>
       <c r="D223" t="n">
-        <v>72.2</v>
+        <v>72.22</v>
       </c>
       <c r="E223" t="n">
-        <v>72.2</v>
+        <v>72.22</v>
       </c>
       <c r="F223" t="n">
-        <v>436.6638</v>
+        <v>1700.3731</v>
       </c>
       <c r="G223" t="n">
-        <v>72.58233333333335</v>
+        <v>72.5451666666667</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -8451,22 +8523,22 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>72.11</v>
+        <v>72.2</v>
       </c>
       <c r="C224" t="n">
-        <v>72.11</v>
+        <v>72.2</v>
       </c>
       <c r="D224" t="n">
-        <v>72.11</v>
+        <v>72.2</v>
       </c>
       <c r="E224" t="n">
-        <v>72.11</v>
+        <v>72.2</v>
       </c>
       <c r="F224" t="n">
-        <v>2549.7089</v>
+        <v>436.6638</v>
       </c>
       <c r="G224" t="n">
-        <v>72.61800000000001</v>
+        <v>72.58233333333335</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -8486,22 +8558,22 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>72.39</v>
+        <v>72.11</v>
       </c>
       <c r="C225" t="n">
-        <v>72.39</v>
+        <v>72.11</v>
       </c>
       <c r="D225" t="n">
-        <v>72.39</v>
+        <v>72.11</v>
       </c>
       <c r="E225" t="n">
-        <v>72.39</v>
+        <v>72.11</v>
       </c>
       <c r="F225" t="n">
-        <v>1858.9459</v>
+        <v>2549.7089</v>
       </c>
       <c r="G225" t="n">
-        <v>72.65916666666668</v>
+        <v>72.61800000000001</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -8521,7 +8593,7 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>72.2</v>
+        <v>72.39</v>
       </c>
       <c r="C226" t="n">
         <v>72.39</v>
@@ -8530,13 +8602,13 @@
         <v>72.39</v>
       </c>
       <c r="E226" t="n">
-        <v>72.2</v>
+        <v>72.39</v>
       </c>
       <c r="F226" t="n">
-        <v>12139.6273</v>
+        <v>1858.9459</v>
       </c>
       <c r="G226" t="n">
-        <v>72.70066666666669</v>
+        <v>72.65916666666668</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -8556,22 +8628,22 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>72.20999999999999</v>
+        <v>72.2</v>
       </c>
       <c r="C227" t="n">
-        <v>71.61</v>
+        <v>72.39</v>
       </c>
       <c r="D227" t="n">
-        <v>72.20999999999999</v>
+        <v>72.39</v>
       </c>
       <c r="E227" t="n">
-        <v>70.70999999999999</v>
+        <v>72.2</v>
       </c>
       <c r="F227" t="n">
-        <v>108221.6294</v>
+        <v>12139.6273</v>
       </c>
       <c r="G227" t="n">
-        <v>72.7291666666667</v>
+        <v>72.70066666666669</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -8591,22 +8663,22 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
+        <v>72.20999999999999</v>
+      </c>
+      <c r="C228" t="n">
         <v>71.61</v>
       </c>
-      <c r="C228" t="n">
-        <v>71.87</v>
-      </c>
       <c r="D228" t="n">
-        <v>71.87</v>
+        <v>72.20999999999999</v>
       </c>
       <c r="E228" t="n">
-        <v>71.61</v>
+        <v>70.70999999999999</v>
       </c>
       <c r="F228" t="n">
-        <v>25107.0784</v>
+        <v>108221.6294</v>
       </c>
       <c r="G228" t="n">
-        <v>72.76200000000003</v>
+        <v>72.7291666666667</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -8626,22 +8698,22 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>71.69</v>
+        <v>71.61</v>
       </c>
       <c r="C229" t="n">
-        <v>71.69</v>
+        <v>71.87</v>
       </c>
       <c r="D229" t="n">
-        <v>71.69</v>
+        <v>71.87</v>
       </c>
       <c r="E229" t="n">
-        <v>71.69</v>
+        <v>71.61</v>
       </c>
       <c r="F229" t="n">
-        <v>22.6566</v>
+        <v>25107.0784</v>
       </c>
       <c r="G229" t="n">
-        <v>72.79183333333337</v>
+        <v>72.76200000000003</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -8661,22 +8733,22 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>71.40000000000001</v>
+        <v>71.69</v>
       </c>
       <c r="C230" t="n">
-        <v>71.3</v>
+        <v>71.69</v>
       </c>
       <c r="D230" t="n">
-        <v>71.40000000000001</v>
+        <v>71.69</v>
       </c>
       <c r="E230" t="n">
-        <v>71.3</v>
+        <v>71.69</v>
       </c>
       <c r="F230" t="n">
-        <v>8859.9303</v>
+        <v>22.6566</v>
       </c>
       <c r="G230" t="n">
-        <v>72.80516666666671</v>
+        <v>72.79183333333337</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -8696,22 +8768,22 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>71.69</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="C231" t="n">
-        <v>71.79000000000001</v>
+        <v>71.3</v>
       </c>
       <c r="D231" t="n">
-        <v>71.79000000000001</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="E231" t="n">
-        <v>71.69</v>
+        <v>71.3</v>
       </c>
       <c r="F231" t="n">
-        <v>44740.7654</v>
+        <v>8859.9303</v>
       </c>
       <c r="G231" t="n">
-        <v>72.81066666666671</v>
+        <v>72.80516666666671</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -8731,22 +8803,22 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>71.3</v>
+        <v>71.69</v>
       </c>
       <c r="C232" t="n">
-        <v>70.7</v>
+        <v>71.79000000000001</v>
       </c>
       <c r="D232" t="n">
-        <v>71.3</v>
+        <v>71.79000000000001</v>
       </c>
       <c r="E232" t="n">
-        <v>70.7</v>
+        <v>71.69</v>
       </c>
       <c r="F232" t="n">
-        <v>2623.6518</v>
+        <v>44740.7654</v>
       </c>
       <c r="G232" t="n">
-        <v>72.79650000000002</v>
+        <v>72.81066666666671</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -8766,22 +8838,22 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>70.7</v>
+        <v>71.3</v>
       </c>
       <c r="C233" t="n">
         <v>70.7</v>
       </c>
       <c r="D233" t="n">
-        <v>71.2</v>
+        <v>71.3</v>
       </c>
       <c r="E233" t="n">
         <v>70.7</v>
       </c>
       <c r="F233" t="n">
-        <v>9392.734399999999</v>
+        <v>2623.6518</v>
       </c>
       <c r="G233" t="n">
-        <v>72.77866666666668</v>
+        <v>72.79650000000002</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -8801,22 +8873,22 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>70.62</v>
+        <v>70.7</v>
       </c>
       <c r="C234" t="n">
-        <v>70.03</v>
+        <v>70.7</v>
       </c>
       <c r="D234" t="n">
-        <v>70.62</v>
+        <v>71.2</v>
       </c>
       <c r="E234" t="n">
-        <v>70.03</v>
+        <v>70.7</v>
       </c>
       <c r="F234" t="n">
-        <v>30163.5536</v>
+        <v>9392.734399999999</v>
       </c>
       <c r="G234" t="n">
-        <v>72.74600000000002</v>
+        <v>72.77866666666668</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -8836,10 +8908,10 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
+        <v>70.62</v>
+      </c>
+      <c r="C235" t="n">
         <v>70.03</v>
-      </c>
-      <c r="C235" t="n">
-        <v>70.62</v>
       </c>
       <c r="D235" t="n">
         <v>70.62</v>
@@ -8848,10 +8920,10 @@
         <v>70.03</v>
       </c>
       <c r="F235" t="n">
-        <v>6910.4944</v>
+        <v>30163.5536</v>
       </c>
       <c r="G235" t="n">
-        <v>72.72600000000003</v>
+        <v>72.74600000000002</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -8871,22 +8943,22 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>70.3</v>
+        <v>70.03</v>
       </c>
       <c r="C236" t="n">
-        <v>70.09999999999999</v>
+        <v>70.62</v>
       </c>
       <c r="D236" t="n">
-        <v>70.3</v>
+        <v>70.62</v>
       </c>
       <c r="E236" t="n">
-        <v>69.90000000000001</v>
+        <v>70.03</v>
       </c>
       <c r="F236" t="n">
-        <v>7323.2737</v>
+        <v>6910.4944</v>
       </c>
       <c r="G236" t="n">
-        <v>72.67783333333337</v>
+        <v>72.72600000000003</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -8906,22 +8978,22 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>70.62</v>
+        <v>70.3</v>
       </c>
       <c r="C237" t="n">
-        <v>71.68000000000001</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="D237" t="n">
-        <v>72.40000000000001</v>
+        <v>70.3</v>
       </c>
       <c r="E237" t="n">
-        <v>70.62</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="F237" t="n">
-        <v>8527.875899999999</v>
+        <v>7323.2737</v>
       </c>
       <c r="G237" t="n">
-        <v>72.65600000000003</v>
+        <v>72.67783333333337</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -8941,22 +9013,22 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>70.90000000000001</v>
+        <v>70.62</v>
       </c>
       <c r="C238" t="n">
-        <v>70.90000000000001</v>
+        <v>71.68000000000001</v>
       </c>
       <c r="D238" t="n">
-        <v>70.90000000000001</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="E238" t="n">
-        <v>70.90000000000001</v>
+        <v>70.62</v>
       </c>
       <c r="F238" t="n">
-        <v>495.2849</v>
+        <v>8527.875899999999</v>
       </c>
       <c r="G238" t="n">
-        <v>72.6276666666667</v>
+        <v>72.65600000000003</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -8976,22 +9048,22 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>70.79000000000001</v>
+        <v>70.90000000000001</v>
       </c>
       <c r="C239" t="n">
-        <v>70.89</v>
+        <v>70.90000000000001</v>
       </c>
       <c r="D239" t="n">
-        <v>70.89</v>
+        <v>70.90000000000001</v>
       </c>
       <c r="E239" t="n">
-        <v>70.79000000000001</v>
+        <v>70.90000000000001</v>
       </c>
       <c r="F239" t="n">
-        <v>8964.938</v>
+        <v>495.2849</v>
       </c>
       <c r="G239" t="n">
-        <v>72.59600000000003</v>
+        <v>72.6276666666667</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -9011,22 +9083,22 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>71.29000000000001</v>
+        <v>70.79000000000001</v>
       </c>
       <c r="C240" t="n">
-        <v>71.29000000000001</v>
+        <v>70.89</v>
       </c>
       <c r="D240" t="n">
-        <v>71.29000000000001</v>
+        <v>70.89</v>
       </c>
       <c r="E240" t="n">
-        <v>71.28</v>
+        <v>70.79000000000001</v>
       </c>
       <c r="F240" t="n">
-        <v>15034.0962</v>
+        <v>8964.938</v>
       </c>
       <c r="G240" t="n">
-        <v>72.5691666666667</v>
+        <v>72.59600000000003</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -9046,22 +9118,22 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>70.90000000000001</v>
+        <v>71.29000000000001</v>
       </c>
       <c r="C241" t="n">
-        <v>70.90000000000001</v>
+        <v>71.29000000000001</v>
       </c>
       <c r="D241" t="n">
-        <v>70.90000000000001</v>
+        <v>71.29000000000001</v>
       </c>
       <c r="E241" t="n">
-        <v>70.90000000000001</v>
+        <v>71.28</v>
       </c>
       <c r="F241" t="n">
-        <v>1406.9072</v>
+        <v>15034.0962</v>
       </c>
       <c r="G241" t="n">
-        <v>72.53766666666669</v>
+        <v>72.5691666666667</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -9081,22 +9153,22 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>70.47</v>
+        <v>70.90000000000001</v>
       </c>
       <c r="C242" t="n">
-        <v>70.47</v>
+        <v>70.90000000000001</v>
       </c>
       <c r="D242" t="n">
-        <v>70.47</v>
+        <v>70.90000000000001</v>
       </c>
       <c r="E242" t="n">
-        <v>70.47</v>
+        <v>70.90000000000001</v>
       </c>
       <c r="F242" t="n">
-        <v>2885.8442</v>
+        <v>1406.9072</v>
       </c>
       <c r="G242" t="n">
-        <v>72.48083333333336</v>
+        <v>72.53766666666669</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -9116,22 +9188,22 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>70.41</v>
+        <v>70.47</v>
       </c>
       <c r="C243" t="n">
-        <v>70.31999999999999</v>
+        <v>70.47</v>
       </c>
       <c r="D243" t="n">
-        <v>70.41</v>
+        <v>70.47</v>
       </c>
       <c r="E243" t="n">
-        <v>70.31999999999999</v>
+        <v>70.47</v>
       </c>
       <c r="F243" t="n">
-        <v>21816.9944</v>
+        <v>2885.8442</v>
       </c>
       <c r="G243" t="n">
-        <v>72.43950000000002</v>
+        <v>72.48083333333336</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -9151,22 +9223,22 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
+        <v>70.41</v>
+      </c>
+      <c r="C244" t="n">
         <v>70.31999999999999</v>
       </c>
-      <c r="C244" t="n">
-        <v>70.67</v>
-      </c>
       <c r="D244" t="n">
-        <v>70.67</v>
+        <v>70.41</v>
       </c>
       <c r="E244" t="n">
-        <v>69.98999999999999</v>
+        <v>70.31999999999999</v>
       </c>
       <c r="F244" t="n">
-        <v>117741.1527</v>
+        <v>21816.9944</v>
       </c>
       <c r="G244" t="n">
-        <v>72.39233333333337</v>
+        <v>72.43950000000002</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -9186,22 +9258,22 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>69.91</v>
+        <v>70.31999999999999</v>
       </c>
       <c r="C245" t="n">
-        <v>69.91</v>
+        <v>70.67</v>
       </c>
       <c r="D245" t="n">
-        <v>69.91</v>
+        <v>70.67</v>
       </c>
       <c r="E245" t="n">
-        <v>69.91</v>
+        <v>69.98999999999999</v>
       </c>
       <c r="F245" t="n">
-        <v>13884.0438</v>
+        <v>117741.1527</v>
       </c>
       <c r="G245" t="n">
-        <v>72.33083333333336</v>
+        <v>72.39233333333337</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -9221,22 +9293,22 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>70.01000000000001</v>
+        <v>69.91</v>
       </c>
       <c r="C246" t="n">
-        <v>70.01000000000001</v>
+        <v>69.91</v>
       </c>
       <c r="D246" t="n">
-        <v>70.01000000000001</v>
+        <v>69.91</v>
       </c>
       <c r="E246" t="n">
-        <v>70.01000000000001</v>
+        <v>69.91</v>
       </c>
       <c r="F246" t="n">
-        <v>3604.0062</v>
+        <v>13884.0438</v>
       </c>
       <c r="G246" t="n">
-        <v>72.26600000000003</v>
+        <v>72.33083333333336</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -9256,22 +9328,22 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>70.64</v>
+        <v>70.01000000000001</v>
       </c>
       <c r="C247" t="n">
-        <v>71.08</v>
+        <v>70.01000000000001</v>
       </c>
       <c r="D247" t="n">
-        <v>71.08</v>
+        <v>70.01000000000001</v>
       </c>
       <c r="E247" t="n">
-        <v>70.64</v>
+        <v>70.01000000000001</v>
       </c>
       <c r="F247" t="n">
-        <v>7600</v>
+        <v>3604.0062</v>
       </c>
       <c r="G247" t="n">
-        <v>72.22900000000003</v>
+        <v>72.26600000000003</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -9291,22 +9363,22 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>71.14</v>
+        <v>70.64</v>
       </c>
       <c r="C248" t="n">
-        <v>71.14</v>
+        <v>71.08</v>
       </c>
       <c r="D248" t="n">
-        <v>71.14</v>
+        <v>71.08</v>
       </c>
       <c r="E248" t="n">
-        <v>71.14</v>
+        <v>70.64</v>
       </c>
       <c r="F248" t="n">
-        <v>5731.8313</v>
+        <v>7600</v>
       </c>
       <c r="G248" t="n">
-        <v>72.19533333333337</v>
+        <v>72.22900000000003</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -9326,22 +9398,22 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>71.02</v>
+        <v>71.14</v>
       </c>
       <c r="C249" t="n">
-        <v>71.70999999999999</v>
+        <v>71.14</v>
       </c>
       <c r="D249" t="n">
-        <v>71.70999999999999</v>
+        <v>71.14</v>
       </c>
       <c r="E249" t="n">
-        <v>71.02</v>
+        <v>71.14</v>
       </c>
       <c r="F249" t="n">
-        <v>5045.2346</v>
+        <v>5731.8313</v>
       </c>
       <c r="G249" t="n">
-        <v>72.17200000000004</v>
+        <v>72.19533333333337</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -9361,22 +9433,22 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>71.56999999999999</v>
+        <v>71.02</v>
       </c>
       <c r="C250" t="n">
-        <v>71.09999999999999</v>
+        <v>71.70999999999999</v>
       </c>
       <c r="D250" t="n">
-        <v>71.64</v>
+        <v>71.70999999999999</v>
       </c>
       <c r="E250" t="n">
-        <v>71.09999999999999</v>
+        <v>71.02</v>
       </c>
       <c r="F250" t="n">
-        <v>25745.4904</v>
+        <v>5045.2346</v>
       </c>
       <c r="G250" t="n">
-        <v>72.13850000000005</v>
+        <v>72.17200000000004</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -9396,22 +9468,22 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>71.59999999999999</v>
+        <v>71.56999999999999</v>
       </c>
       <c r="C251" t="n">
-        <v>71.59999999999999</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="D251" t="n">
-        <v>71.59999999999999</v>
+        <v>71.64</v>
       </c>
       <c r="E251" t="n">
-        <v>71.59999999999999</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="F251" t="n">
-        <v>700.2971</v>
+        <v>25745.4904</v>
       </c>
       <c r="G251" t="n">
-        <v>72.1133333333334</v>
+        <v>72.13850000000005</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -9426,6 +9498,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="n">
+        <v>71.59999999999999</v>
+      </c>
+      <c r="C252" t="n">
+        <v>71.59999999999999</v>
+      </c>
+      <c r="D252" t="n">
+        <v>71.59999999999999</v>
+      </c>
+      <c r="E252" t="n">
+        <v>71.59999999999999</v>
+      </c>
+      <c r="F252" t="n">
+        <v>700.2971</v>
+      </c>
+      <c r="G252" t="n">
+        <v>72.1133333333334</v>
+      </c>
+      <c r="H252" t="n">
+        <v>0</v>
+      </c>
+      <c r="I252" t="n">
+        <v>0</v>
+      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
+      <c r="L252" t="inlineStr"/>
+      <c r="M252" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2020-01-24 BackTest ELF.xlsx
+++ b/BackTest/2020-01-24 BackTest ELF.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N320"/>
+  <dimension ref="A1:M320"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1248,18 +1177,15 @@
         <v>340049.1282171559</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1284,18 +1210,15 @@
         <v>340049.1282171559</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1320,18 +1243,15 @@
         <v>272591.6793171559</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1356,18 +1276,15 @@
         <v>413688.0573171559</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1392,18 +1309,15 @@
         <v>598295.6687171559</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1428,18 +1342,15 @@
         <v>671396.0621171559</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1464,18 +1375,15 @@
         <v>669742.5863171559</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1500,18 +1408,15 @@
         <v>666469.2388171558</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1536,18 +1441,15 @@
         <v>667822.1339171558</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>1</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1608,18 +1507,15 @@
         <v>664611.6657171558</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1644,18 +1540,15 @@
         <v>664409.6457171558</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>1</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>1</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>1</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>1</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>1</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>1</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>1</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>1</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>1</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>1</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>1</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>1</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>1</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>1</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>1</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2328,18 +2167,15 @@
         <v>585486.5970171556</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>1</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2235,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>1</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2268,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>1</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2301,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>1</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2334,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>1</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2367,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2400,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2433,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2466,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,16 +2499,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2532,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2565,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,16 +2598,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2834,16 +2631,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2870,16 +2664,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2906,16 +2697,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2942,16 +2730,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2978,16 +2763,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +2796,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3050,16 +2829,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3086,16 +2862,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3122,16 +2895,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3158,16 +2928,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3194,16 +2961,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3230,16 +2994,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3266,16 +3027,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3302,16 +3060,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3338,16 +3093,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3374,16 +3126,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3410,16 +3159,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3446,16 +3192,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3482,16 +3225,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3518,16 +3258,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3554,16 +3291,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3590,16 +3324,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3626,16 +3357,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3662,16 +3390,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3698,16 +3423,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3734,16 +3456,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3770,16 +3489,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3806,16 +3522,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3842,16 +3555,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3878,16 +3588,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3914,16 +3621,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3950,16 +3654,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3986,16 +3687,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4022,16 +3720,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4058,16 +3753,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4094,16 +3786,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4130,16 +3819,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4166,16 +3852,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4202,16 +3885,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4238,16 +3918,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4274,16 +3951,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4310,16 +3984,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4346,16 +4017,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4382,16 +4050,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4418,16 +4083,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4454,16 +4116,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4490,16 +4149,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4526,16 +4182,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4562,16 +4215,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4598,16 +4248,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4634,16 +4281,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4670,16 +4314,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4706,16 +4347,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4742,16 +4380,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4778,16 +4413,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4814,16 +4446,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4850,16 +4479,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4886,16 +4512,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4922,16 +4545,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4958,16 +4578,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4994,16 +4611,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5030,16 +4644,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5066,16 +4677,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5102,16 +4710,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5138,16 +4743,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5174,16 +4776,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5210,16 +4809,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5246,16 +4842,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5282,16 +4875,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5318,16 +4908,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5354,16 +4941,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5390,16 +4974,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5426,16 +5007,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5460,18 +5038,21 @@
         <v>28385.25581715539</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="n">
-        <v>0</v>
+        <v>70.45999999999999</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5498,16 +5079,17 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5534,16 +5116,17 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5570,16 +5153,17 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5606,16 +5190,17 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5642,16 +5227,17 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5676,18 +5262,21 @@
         <v>8279.180217155397</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="n">
-        <v>0</v>
+        <v>70.44</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5714,16 +5303,17 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5750,16 +5340,17 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5786,16 +5377,17 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5822,16 +5414,17 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5858,16 +5451,17 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5894,16 +5488,17 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5930,16 +5525,17 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5966,16 +5562,17 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6002,16 +5599,17 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6038,16 +5636,17 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6074,16 +5673,17 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6110,16 +5710,17 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6146,16 +5747,17 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6182,16 +5784,17 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6218,16 +5821,17 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6254,16 +5858,17 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6290,16 +5895,17 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6326,16 +5932,17 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6362,16 +5969,17 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6398,16 +6006,17 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6434,16 +6043,17 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6470,16 +6080,17 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6506,16 +6117,17 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6542,16 +6154,17 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6578,16 +6191,17 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6614,16 +6228,17 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6650,16 +6265,17 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6686,16 +6302,17 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6722,16 +6339,17 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6758,16 +6376,17 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6794,16 +6413,17 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6830,16 +6450,17 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6866,16 +6487,17 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6900,18 +6522,21 @@
         <v>-96907.13128284461</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="n">
-        <v>0</v>
+        <v>69.3</v>
       </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6938,16 +6563,17 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6972,18 +6598,21 @@
         <v>-119771.5008828446</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="n">
-        <v>0</v>
+        <v>69.69</v>
       </c>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7008,18 +6637,21 @@
         <v>-120075.6954828446</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="n">
-        <v>0</v>
+        <v>69.14</v>
       </c>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7046,16 +6678,17 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7082,16 +6715,17 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7118,16 +6752,17 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7152,22 +6787,21 @@
         <v>-136189.7083828446</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I188" t="n">
-        <v>0</v>
-      </c>
-      <c r="J188" t="n">
         <v>68.92</v>
       </c>
-      <c r="K188" t="n">
-        <v>68.92</v>
-      </c>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7194,22 +6828,17 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="n">
-        <v>68.92</v>
-      </c>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7234,24 +6863,21 @@
         <v>-184735.2045828446</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="n">
-        <v>0</v>
+        <v>68.92</v>
       </c>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="n">
-        <v>68.92</v>
-      </c>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7278,22 +6904,17 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="n">
-        <v>68.92</v>
-      </c>
-      <c r="L191" t="inlineStr">
+      <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7318,26 +6939,19 @@
         <v>-184695.2045828446</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
-      </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
-      <c r="J192" t="n">
-        <v>68.81</v>
-      </c>
-      <c r="K192" t="n">
-        <v>68.92</v>
-      </c>
-      <c r="L192" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7364,22 +6978,17 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="n">
-        <v>68.92</v>
-      </c>
-      <c r="L193" t="inlineStr">
+      <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7406,22 +7015,17 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="n">
-        <v>68.92</v>
-      </c>
-      <c r="L194" t="inlineStr">
+      <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7448,22 +7052,17 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="n">
-        <v>68.92</v>
-      </c>
-      <c r="L195" t="inlineStr">
+      <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7490,22 +7089,17 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="n">
-        <v>68.92</v>
-      </c>
-      <c r="L196" t="inlineStr">
+      <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7532,22 +7126,17 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="n">
-        <v>68.92</v>
-      </c>
-      <c r="L197" t="inlineStr">
+      <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7574,22 +7163,17 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="n">
-        <v>68.92</v>
-      </c>
-      <c r="L198" t="inlineStr">
+      <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7614,26 +7198,19 @@
         <v>-212831.4122828447</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
-      </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
-      <c r="J199" t="n">
-        <v>68.81</v>
-      </c>
-      <c r="K199" t="n">
-        <v>68.92</v>
-      </c>
-      <c r="L199" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7658,26 +7235,21 @@
         <v>-212831.4122828447</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I200" t="n">
-        <v>0</v>
-      </c>
-      <c r="J200" t="n">
         <v>69.05</v>
       </c>
-      <c r="K200" t="n">
-        <v>68.92</v>
-      </c>
-      <c r="L200" t="inlineStr">
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7702,26 +7274,21 @@
         <v>-212831.4122828447</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I201" t="n">
-        <v>0</v>
-      </c>
-      <c r="J201" t="n">
         <v>69.05</v>
       </c>
-      <c r="K201" t="n">
-        <v>68.92</v>
-      </c>
-      <c r="L201" t="inlineStr">
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7746,26 +7313,21 @@
         <v>-237880.5374828447</v>
       </c>
       <c r="H202" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I202" t="n">
-        <v>0</v>
-      </c>
-      <c r="J202" t="n">
         <v>69.05</v>
       </c>
-      <c r="K202" t="n">
-        <v>68.92</v>
-      </c>
-      <c r="L202" t="inlineStr">
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7790,26 +7352,21 @@
         <v>-307230.5389828447</v>
       </c>
       <c r="H203" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I203" t="n">
-        <v>0</v>
-      </c>
-      <c r="J203" t="n">
         <v>68.73</v>
       </c>
-      <c r="K203" t="n">
-        <v>68.92</v>
-      </c>
-      <c r="L203" t="inlineStr">
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7834,26 +7391,21 @@
         <v>-302398.3929828447</v>
       </c>
       <c r="H204" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I204" t="n">
-        <v>0</v>
-      </c>
-      <c r="J204" t="n">
         <v>68.52</v>
       </c>
-      <c r="K204" t="n">
-        <v>68.92</v>
-      </c>
-      <c r="L204" t="inlineStr">
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7878,26 +7430,21 @@
         <v>-316221.7853828447</v>
       </c>
       <c r="H205" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I205" t="n">
-        <v>0</v>
-      </c>
-      <c r="J205" t="n">
         <v>69.09</v>
       </c>
-      <c r="K205" t="n">
-        <v>68.92</v>
-      </c>
-      <c r="L205" t="inlineStr">
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7922,26 +7469,21 @@
         <v>-308621.7853828447</v>
       </c>
       <c r="H206" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I206" t="n">
-        <v>0</v>
-      </c>
-      <c r="J206" t="n">
         <v>68.59999999999999</v>
       </c>
-      <c r="K206" t="n">
-        <v>68.92</v>
-      </c>
-      <c r="L206" t="inlineStr">
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7966,26 +7508,21 @@
         <v>-344466.1701828447</v>
       </c>
       <c r="H207" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I207" t="n">
-        <v>0</v>
-      </c>
-      <c r="J207" t="n">
         <v>69.3</v>
       </c>
-      <c r="K207" t="n">
-        <v>68.92</v>
-      </c>
-      <c r="L207" t="inlineStr">
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8010,26 +7547,21 @@
         <v>-340838.1315828447</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I208" t="n">
-        <v>0</v>
-      </c>
-      <c r="J208" t="n">
         <v>68.84999999999999</v>
       </c>
-      <c r="K208" t="n">
-        <v>68.92</v>
-      </c>
-      <c r="L208" t="inlineStr">
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8054,26 +7586,21 @@
         <v>-324124.0986828447</v>
       </c>
       <c r="H209" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I209" t="n">
-        <v>0</v>
-      </c>
-      <c r="J209" t="n">
         <v>68.90000000000001</v>
       </c>
-      <c r="K209" t="n">
-        <v>68.92</v>
-      </c>
-      <c r="L209" t="inlineStr">
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8098,26 +7625,19 @@
         <v>-312634.3203828447</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
-      </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
-      <c r="J210" t="n">
-        <v>69</v>
-      </c>
-      <c r="K210" t="n">
-        <v>68.92</v>
-      </c>
-      <c r="L210" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8142,26 +7662,21 @@
         <v>-313485.0179828447</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I211" t="n">
-        <v>0</v>
-      </c>
-      <c r="J211" t="n">
         <v>69.59999999999999</v>
       </c>
-      <c r="K211" t="n">
-        <v>68.92</v>
-      </c>
-      <c r="L211" t="inlineStr">
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8186,26 +7701,19 @@
         <v>-313430.6730828446</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
-      </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
-      <c r="J212" t="n">
-        <v>69.5</v>
-      </c>
-      <c r="K212" t="n">
-        <v>68.92</v>
-      </c>
-      <c r="L212" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8230,26 +7738,21 @@
         <v>-294329.7101828447</v>
       </c>
       <c r="H213" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I213" t="n">
-        <v>0</v>
-      </c>
-      <c r="J213" t="n">
         <v>69.59999999999999</v>
       </c>
-      <c r="K213" t="n">
-        <v>68.92</v>
-      </c>
-      <c r="L213" t="inlineStr">
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8274,26 +7777,19 @@
         <v>-294329.7101828447</v>
       </c>
       <c r="H214" t="n">
-        <v>1</v>
-      </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
-      <c r="J214" t="n">
-        <v>70</v>
-      </c>
-      <c r="K214" t="n">
-        <v>68.92</v>
-      </c>
-      <c r="L214" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I214" t="inlineStr"/>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8318,26 +7814,21 @@
         <v>-297517.8953828447</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I215" t="n">
-        <v>0</v>
-      </c>
-      <c r="J215" t="n">
         <v>70</v>
       </c>
-      <c r="K215" t="n">
-        <v>68.92</v>
-      </c>
-      <c r="L215" t="inlineStr">
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8362,26 +7853,19 @@
         <v>-285911.8409828446</v>
       </c>
       <c r="H216" t="n">
-        <v>1</v>
-      </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
-      <c r="J216" t="n">
-        <v>69.91</v>
-      </c>
-      <c r="K216" t="n">
-        <v>68.92</v>
-      </c>
-      <c r="L216" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8406,26 +7890,19 @@
         <v>-283730.2045828446</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
-      </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
-      <c r="J217" t="n">
-        <v>70</v>
-      </c>
-      <c r="K217" t="n">
-        <v>68.92</v>
-      </c>
-      <c r="L217" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I217" t="inlineStr"/>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8452,22 +7929,17 @@
       <c r="H218" t="n">
         <v>0</v>
       </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="n">
-        <v>68.92</v>
-      </c>
-      <c r="L218" t="inlineStr">
+      <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8494,22 +7966,17 @@
       <c r="H219" t="n">
         <v>0</v>
       </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="n">
-        <v>68.92</v>
-      </c>
-      <c r="L219" t="inlineStr">
+      <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8536,22 +8003,17 @@
       <c r="H220" t="n">
         <v>0</v>
       </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="n">
-        <v>68.92</v>
-      </c>
-      <c r="L220" t="inlineStr">
+      <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8578,22 +8040,17 @@
       <c r="H221" t="n">
         <v>0</v>
       </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="n">
-        <v>68.92</v>
-      </c>
-      <c r="L221" t="inlineStr">
+      <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8618,26 +8075,19 @@
         <v>-297484.5875828446</v>
       </c>
       <c r="H222" t="n">
-        <v>1</v>
-      </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
-      <c r="J222" t="n">
-        <v>70.09999999999999</v>
-      </c>
-      <c r="K222" t="n">
-        <v>68.92</v>
-      </c>
-      <c r="L222" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8664,22 +8114,17 @@
       <c r="H223" t="n">
         <v>0</v>
       </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="n">
-        <v>68.92</v>
-      </c>
-      <c r="L223" t="inlineStr">
+      <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8704,26 +8149,21 @@
         <v>-317484.5875828446</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I224" t="n">
-        <v>0</v>
-      </c>
-      <c r="J224" t="n">
         <v>69.97</v>
       </c>
-      <c r="K224" t="n">
-        <v>68.92</v>
-      </c>
-      <c r="L224" t="inlineStr">
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8748,26 +8188,21 @@
         <v>-328334.5875828446</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I225" t="n">
-        <v>0</v>
-      </c>
-      <c r="J225" t="n">
         <v>69.92</v>
       </c>
-      <c r="K225" t="n">
-        <v>68.92</v>
-      </c>
-      <c r="L225" t="inlineStr">
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8792,26 +8227,21 @@
         <v>-328334.5875828446</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I226" t="n">
-        <v>0</v>
-      </c>
-      <c r="J226" t="n">
         <v>69.90000000000001</v>
       </c>
-      <c r="K226" t="n">
-        <v>68.92</v>
-      </c>
-      <c r="L226" t="inlineStr">
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8836,26 +8266,21 @@
         <v>-328334.5875828446</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I227" t="n">
-        <v>0</v>
-      </c>
-      <c r="J227" t="n">
         <v>69.90000000000001</v>
       </c>
-      <c r="K227" t="n">
-        <v>68.92</v>
-      </c>
-      <c r="L227" t="inlineStr">
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8880,26 +8305,21 @@
         <v>-328334.5875828446</v>
       </c>
       <c r="H228" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I228" t="n">
-        <v>0</v>
-      </c>
-      <c r="J228" t="n">
         <v>69.90000000000001</v>
       </c>
-      <c r="K228" t="n">
-        <v>68.92</v>
-      </c>
-      <c r="L228" t="inlineStr">
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8924,26 +8344,21 @@
         <v>-253400.8981828446</v>
       </c>
       <c r="H229" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I229" t="n">
-        <v>0</v>
-      </c>
-      <c r="J229" t="n">
         <v>69.90000000000001</v>
       </c>
-      <c r="K229" t="n">
-        <v>68.92</v>
-      </c>
-      <c r="L229" t="inlineStr">
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8968,26 +8383,21 @@
         <v>-252026.0412828446</v>
       </c>
       <c r="H230" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I230" t="n">
-        <v>0</v>
-      </c>
-      <c r="J230" t="n">
         <v>70.5</v>
       </c>
-      <c r="K230" t="n">
-        <v>68.92</v>
-      </c>
-      <c r="L230" t="inlineStr">
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -9014,22 +8424,17 @@
       <c r="H231" t="n">
         <v>0</v>
       </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="n">
-        <v>68.92</v>
-      </c>
-      <c r="L231" t="inlineStr">
+      <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -9056,22 +8461,17 @@
       <c r="H232" t="n">
         <v>0</v>
       </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="n">
-        <v>68.92</v>
-      </c>
-      <c r="L232" t="inlineStr">
+      <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -9098,22 +8498,17 @@
       <c r="H233" t="n">
         <v>0</v>
       </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="n">
-        <v>68.92</v>
-      </c>
-      <c r="L233" t="inlineStr">
+      <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -9140,22 +8535,17 @@
       <c r="H234" t="n">
         <v>0</v>
       </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="n">
-        <v>68.92</v>
-      </c>
-      <c r="L234" t="inlineStr">
+      <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -9182,22 +8572,17 @@
       <c r="H235" t="n">
         <v>0</v>
       </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="n">
-        <v>68.92</v>
-      </c>
-      <c r="L235" t="inlineStr">
+      <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -9224,22 +8609,17 @@
       <c r="H236" t="n">
         <v>0</v>
       </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="n">
-        <v>68.92</v>
-      </c>
-      <c r="L236" t="inlineStr">
+      <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -9264,24 +8644,19 @@
         <v>-233066.5782828445</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="n">
-        <v>68.92</v>
-      </c>
-      <c r="L237" t="inlineStr">
+      <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -9306,24 +8681,19 @@
         <v>-201395.5548828445</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="n">
-        <v>68.92</v>
-      </c>
-      <c r="L238" t="inlineStr">
+      <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -9350,22 +8720,17 @@
       <c r="H239" t="n">
         <v>0</v>
       </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="n">
-        <v>68.92</v>
-      </c>
-      <c r="L239" t="inlineStr">
+      <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9392,22 +8757,17 @@
       <c r="H240" t="n">
         <v>0</v>
       </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="n">
-        <v>68.92</v>
-      </c>
-      <c r="L240" t="inlineStr">
+      <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9434,22 +8794,17 @@
       <c r="H241" t="n">
         <v>0</v>
       </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="n">
-        <v>68.92</v>
-      </c>
-      <c r="L241" t="inlineStr">
+      <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9476,22 +8831,17 @@
       <c r="H242" t="n">
         <v>0</v>
       </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="n">
-        <v>68.92</v>
-      </c>
-      <c r="L242" t="inlineStr">
+      <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9518,22 +8868,17 @@
       <c r="H243" t="n">
         <v>0</v>
       </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="n">
-        <v>68.92</v>
-      </c>
-      <c r="L243" t="inlineStr">
+      <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9560,22 +8905,17 @@
       <c r="H244" t="n">
         <v>0</v>
       </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="n">
-        <v>68.92</v>
-      </c>
-      <c r="L244" t="inlineStr">
+      <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9600,24 +8940,17 @@
         <v>-150336.7571828445</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="n">
-        <v>68.92</v>
-      </c>
-      <c r="L245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L245" t="inlineStr"/>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9644,22 +8977,13 @@
       <c r="H246" t="n">
         <v>0</v>
       </c>
-      <c r="I246" t="n">
-        <v>0</v>
-      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="n">
-        <v>68.92</v>
-      </c>
-      <c r="L246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9684,24 +9008,15 @@
         <v>-189556.2641828445</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="n">
-        <v>68.92</v>
-      </c>
-      <c r="L247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9728,22 +9043,13 @@
       <c r="H248" t="n">
         <v>0</v>
       </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="n">
-        <v>68.92</v>
-      </c>
-      <c r="L248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -9770,22 +9076,13 @@
       <c r="H249" t="n">
         <v>0</v>
       </c>
-      <c r="I249" t="n">
-        <v>0</v>
-      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="n">
-        <v>68.92</v>
-      </c>
-      <c r="L249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -9812,22 +9109,13 @@
       <c r="H250" t="n">
         <v>0</v>
       </c>
-      <c r="I250" t="n">
-        <v>0</v>
-      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="n">
-        <v>68.92</v>
-      </c>
-      <c r="L250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -9854,22 +9142,13 @@
       <c r="H251" t="n">
         <v>0</v>
       </c>
-      <c r="I251" t="n">
-        <v>0</v>
-      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="n">
-        <v>68.92</v>
-      </c>
-      <c r="L251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -9896,22 +9175,13 @@
       <c r="H252" t="n">
         <v>0</v>
       </c>
-      <c r="I252" t="n">
-        <v>0</v>
-      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="n">
-        <v>68.92</v>
-      </c>
-      <c r="L252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-      <c r="N252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -9938,22 +9208,13 @@
       <c r="H253" t="n">
         <v>0</v>
       </c>
-      <c r="I253" t="n">
-        <v>0</v>
-      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="n">
-        <v>68.92</v>
-      </c>
-      <c r="L253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-      <c r="N253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -9980,22 +9241,13 @@
       <c r="H254" t="n">
         <v>0</v>
       </c>
-      <c r="I254" t="n">
-        <v>0</v>
-      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="n">
-        <v>68.92</v>
-      </c>
-      <c r="L254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-      <c r="N254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -10022,22 +9274,13 @@
       <c r="H255" t="n">
         <v>0</v>
       </c>
-      <c r="I255" t="n">
-        <v>0</v>
-      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="n">
-        <v>68.92</v>
-      </c>
-      <c r="L255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M255" t="n">
-        <v>1</v>
-      </c>
-      <c r="N255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -10064,22 +9307,13 @@
       <c r="H256" t="n">
         <v>0</v>
       </c>
-      <c r="I256" t="n">
-        <v>0</v>
-      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="n">
-        <v>68.92</v>
-      </c>
-      <c r="L256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M256" t="n">
-        <v>1</v>
-      </c>
-      <c r="N256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -10106,22 +9340,13 @@
       <c r="H257" t="n">
         <v>0</v>
       </c>
-      <c r="I257" t="n">
-        <v>0</v>
-      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="n">
-        <v>68.92</v>
-      </c>
-      <c r="L257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M257" t="n">
-        <v>1</v>
-      </c>
-      <c r="N257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -10148,22 +9373,13 @@
       <c r="H258" t="n">
         <v>0</v>
       </c>
-      <c r="I258" t="n">
-        <v>0</v>
-      </c>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="n">
-        <v>68.92</v>
-      </c>
-      <c r="L258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M258" t="n">
-        <v>1</v>
-      </c>
-      <c r="N258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -10190,22 +9406,13 @@
       <c r="H259" t="n">
         <v>0</v>
       </c>
-      <c r="I259" t="n">
-        <v>0</v>
-      </c>
+      <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="n">
-        <v>68.92</v>
-      </c>
-      <c r="L259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M259" t="n">
-        <v>1</v>
-      </c>
-      <c r="N259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -10232,22 +9439,13 @@
       <c r="H260" t="n">
         <v>0</v>
       </c>
-      <c r="I260" t="n">
-        <v>0</v>
-      </c>
+      <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="n">
-        <v>68.92</v>
-      </c>
-      <c r="L260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M260" t="n">
-        <v>1</v>
-      </c>
-      <c r="N260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -10274,22 +9472,13 @@
       <c r="H261" t="n">
         <v>0</v>
       </c>
-      <c r="I261" t="n">
-        <v>0</v>
-      </c>
+      <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="n">
-        <v>68.92</v>
-      </c>
-      <c r="L261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M261" t="n">
-        <v>1</v>
-      </c>
-      <c r="N261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -10316,22 +9505,13 @@
       <c r="H262" t="n">
         <v>0</v>
       </c>
-      <c r="I262" t="n">
-        <v>0</v>
-      </c>
+      <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="n">
-        <v>68.92</v>
-      </c>
-      <c r="L262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M262" t="n">
-        <v>1</v>
-      </c>
-      <c r="N262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -10358,22 +9538,13 @@
       <c r="H263" t="n">
         <v>0</v>
       </c>
-      <c r="I263" t="n">
-        <v>0</v>
-      </c>
+      <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="n">
-        <v>68.92</v>
-      </c>
-      <c r="L263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M263" t="n">
-        <v>1</v>
-      </c>
-      <c r="N263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -10400,22 +9571,13 @@
       <c r="H264" t="n">
         <v>0</v>
       </c>
-      <c r="I264" t="n">
-        <v>0</v>
-      </c>
+      <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="n">
-        <v>68.92</v>
-      </c>
-      <c r="L264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M264" t="n">
-        <v>1</v>
-      </c>
-      <c r="N264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -10442,22 +9604,13 @@
       <c r="H265" t="n">
         <v>0</v>
       </c>
-      <c r="I265" t="n">
-        <v>0</v>
-      </c>
+      <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="n">
-        <v>68.92</v>
-      </c>
-      <c r="L265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M265" t="n">
-        <v>1</v>
-      </c>
-      <c r="N265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -10484,22 +9637,13 @@
       <c r="H266" t="n">
         <v>0</v>
       </c>
-      <c r="I266" t="n">
-        <v>0</v>
-      </c>
+      <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="n">
-        <v>68.92</v>
-      </c>
-      <c r="L266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M266" t="n">
-        <v>1</v>
-      </c>
-      <c r="N266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -10526,22 +9670,13 @@
       <c r="H267" t="n">
         <v>0</v>
       </c>
-      <c r="I267" t="n">
-        <v>0</v>
-      </c>
+      <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="n">
-        <v>68.92</v>
-      </c>
-      <c r="L267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M267" t="n">
-        <v>1</v>
-      </c>
-      <c r="N267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -10568,22 +9703,13 @@
       <c r="H268" t="n">
         <v>0</v>
       </c>
-      <c r="I268" t="n">
-        <v>0</v>
-      </c>
+      <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="n">
-        <v>68.92</v>
-      </c>
-      <c r="L268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M268" t="n">
-        <v>1</v>
-      </c>
-      <c r="N268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -10610,22 +9736,13 @@
       <c r="H269" t="n">
         <v>0</v>
       </c>
-      <c r="I269" t="n">
-        <v>0</v>
-      </c>
+      <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="n">
-        <v>68.92</v>
-      </c>
-      <c r="L269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M269" t="n">
-        <v>1</v>
-      </c>
-      <c r="N269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -10652,22 +9769,13 @@
       <c r="H270" t="n">
         <v>0</v>
       </c>
-      <c r="I270" t="n">
-        <v>0</v>
-      </c>
+      <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="n">
-        <v>68.92</v>
-      </c>
-      <c r="L270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M270" t="n">
-        <v>1</v>
-      </c>
-      <c r="N270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -10694,22 +9802,13 @@
       <c r="H271" t="n">
         <v>0</v>
       </c>
-      <c r="I271" t="n">
-        <v>0</v>
-      </c>
+      <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="n">
-        <v>68.92</v>
-      </c>
-      <c r="L271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M271" t="n">
-        <v>1</v>
-      </c>
-      <c r="N271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -10736,22 +9835,13 @@
       <c r="H272" t="n">
         <v>0</v>
       </c>
-      <c r="I272" t="n">
-        <v>0</v>
-      </c>
+      <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="n">
-        <v>68.92</v>
-      </c>
-      <c r="L272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M272" t="n">
-        <v>1</v>
-      </c>
-      <c r="N272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -10778,22 +9868,13 @@
       <c r="H273" t="n">
         <v>0</v>
       </c>
-      <c r="I273" t="n">
-        <v>0</v>
-      </c>
+      <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="n">
-        <v>68.92</v>
-      </c>
-      <c r="L273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M273" t="n">
-        <v>1</v>
-      </c>
-      <c r="N273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -10820,22 +9901,13 @@
       <c r="H274" t="n">
         <v>0</v>
       </c>
-      <c r="I274" t="n">
-        <v>0</v>
-      </c>
+      <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="n">
-        <v>68.92</v>
-      </c>
-      <c r="L274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M274" t="n">
-        <v>1</v>
-      </c>
-      <c r="N274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -10862,22 +9934,13 @@
       <c r="H275" t="n">
         <v>0</v>
       </c>
-      <c r="I275" t="n">
-        <v>0</v>
-      </c>
+      <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="n">
-        <v>68.92</v>
-      </c>
-      <c r="L275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M275" t="n">
-        <v>1</v>
-      </c>
-      <c r="N275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -10904,22 +9967,13 @@
       <c r="H276" t="n">
         <v>0</v>
       </c>
-      <c r="I276" t="n">
-        <v>0</v>
-      </c>
+      <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="n">
-        <v>68.92</v>
-      </c>
-      <c r="L276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M276" t="n">
-        <v>1</v>
-      </c>
-      <c r="N276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -10946,22 +10000,13 @@
       <c r="H277" t="n">
         <v>0</v>
       </c>
-      <c r="I277" t="n">
-        <v>0</v>
-      </c>
+      <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="n">
-        <v>68.92</v>
-      </c>
-      <c r="L277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M277" t="n">
-        <v>1</v>
-      </c>
-      <c r="N277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -10988,22 +10033,13 @@
       <c r="H278" t="n">
         <v>0</v>
       </c>
-      <c r="I278" t="n">
-        <v>0</v>
-      </c>
+      <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="n">
-        <v>68.92</v>
-      </c>
-      <c r="L278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M278" t="n">
-        <v>1</v>
-      </c>
-      <c r="N278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -11030,22 +10066,13 @@
       <c r="H279" t="n">
         <v>0</v>
       </c>
-      <c r="I279" t="n">
-        <v>0</v>
-      </c>
+      <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="n">
-        <v>68.92</v>
-      </c>
-      <c r="L279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M279" t="n">
-        <v>1</v>
-      </c>
-      <c r="N279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
+      <c r="L279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -11072,22 +10099,13 @@
       <c r="H280" t="n">
         <v>0</v>
       </c>
-      <c r="I280" t="n">
-        <v>0</v>
-      </c>
+      <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="n">
-        <v>68.92</v>
-      </c>
-      <c r="L280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M280" t="n">
-        <v>1</v>
-      </c>
-      <c r="N280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
+      <c r="L280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -11114,22 +10132,13 @@
       <c r="H281" t="n">
         <v>0</v>
       </c>
-      <c r="I281" t="n">
-        <v>0</v>
-      </c>
+      <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="n">
-        <v>68.92</v>
-      </c>
-      <c r="L281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M281" t="n">
-        <v>1</v>
-      </c>
-      <c r="N281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
+      <c r="L281" t="n">
+        <v>1</v>
+      </c>
+      <c r="M281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -11156,22 +10165,13 @@
       <c r="H282" t="n">
         <v>0</v>
       </c>
-      <c r="I282" t="n">
-        <v>0</v>
-      </c>
+      <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="n">
-        <v>68.92</v>
-      </c>
-      <c r="L282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M282" t="n">
-        <v>1</v>
-      </c>
-      <c r="N282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
+      <c r="L282" t="n">
+        <v>1</v>
+      </c>
+      <c r="M282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -11198,22 +10198,13 @@
       <c r="H283" t="n">
         <v>0</v>
       </c>
-      <c r="I283" t="n">
-        <v>0</v>
-      </c>
+      <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="n">
-        <v>68.92</v>
-      </c>
-      <c r="L283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M283" t="n">
-        <v>1</v>
-      </c>
-      <c r="N283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
+      <c r="L283" t="n">
+        <v>1</v>
+      </c>
+      <c r="M283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -11240,22 +10231,13 @@
       <c r="H284" t="n">
         <v>0</v>
       </c>
-      <c r="I284" t="n">
-        <v>0</v>
-      </c>
+      <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="n">
-        <v>68.92</v>
-      </c>
-      <c r="L284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M284" t="n">
-        <v>1</v>
-      </c>
-      <c r="N284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
+      <c r="L284" t="n">
+        <v>1</v>
+      </c>
+      <c r="M284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -11282,22 +10264,13 @@
       <c r="H285" t="n">
         <v>0</v>
       </c>
-      <c r="I285" t="n">
-        <v>0</v>
-      </c>
+      <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="n">
-        <v>68.92</v>
-      </c>
-      <c r="L285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M285" t="n">
-        <v>1</v>
-      </c>
-      <c r="N285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
+      <c r="L285" t="n">
+        <v>1</v>
+      </c>
+      <c r="M285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -11324,22 +10297,13 @@
       <c r="H286" t="n">
         <v>0</v>
       </c>
-      <c r="I286" t="n">
-        <v>0</v>
-      </c>
+      <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="n">
-        <v>68.92</v>
-      </c>
-      <c r="L286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M286" t="n">
-        <v>1</v>
-      </c>
-      <c r="N286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
+      <c r="L286" t="n">
+        <v>1</v>
+      </c>
+      <c r="M286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -11366,22 +10330,13 @@
       <c r="H287" t="n">
         <v>0</v>
       </c>
-      <c r="I287" t="n">
-        <v>0</v>
-      </c>
+      <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="n">
-        <v>68.92</v>
-      </c>
-      <c r="L287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M287" t="n">
-        <v>1</v>
-      </c>
-      <c r="N287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
+      <c r="L287" t="n">
+        <v>1</v>
+      </c>
+      <c r="M287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -11408,22 +10363,13 @@
       <c r="H288" t="n">
         <v>0</v>
       </c>
-      <c r="I288" t="n">
-        <v>0</v>
-      </c>
+      <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="n">
-        <v>68.92</v>
-      </c>
-      <c r="L288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M288" t="n">
-        <v>1</v>
-      </c>
-      <c r="N288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
+      <c r="L288" t="n">
+        <v>1</v>
+      </c>
+      <c r="M288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -11450,22 +10396,13 @@
       <c r="H289" t="n">
         <v>0</v>
       </c>
-      <c r="I289" t="n">
-        <v>0</v>
-      </c>
+      <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="n">
-        <v>68.92</v>
-      </c>
-      <c r="L289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M289" t="n">
-        <v>1</v>
-      </c>
-      <c r="N289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
+      <c r="L289" t="n">
+        <v>1</v>
+      </c>
+      <c r="M289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -11492,22 +10429,13 @@
       <c r="H290" t="n">
         <v>0</v>
       </c>
-      <c r="I290" t="n">
-        <v>0</v>
-      </c>
+      <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="n">
-        <v>68.92</v>
-      </c>
-      <c r="L290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M290" t="n">
-        <v>1</v>
-      </c>
-      <c r="N290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
+      <c r="L290" t="n">
+        <v>1</v>
+      </c>
+      <c r="M290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -11534,22 +10462,13 @@
       <c r="H291" t="n">
         <v>0</v>
       </c>
-      <c r="I291" t="n">
-        <v>0</v>
-      </c>
+      <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="n">
-        <v>68.92</v>
-      </c>
-      <c r="L291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M291" t="n">
-        <v>1</v>
-      </c>
-      <c r="N291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
+      <c r="L291" t="n">
+        <v>1</v>
+      </c>
+      <c r="M291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -11576,22 +10495,13 @@
       <c r="H292" t="n">
         <v>0</v>
       </c>
-      <c r="I292" t="n">
-        <v>0</v>
-      </c>
+      <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="n">
-        <v>68.92</v>
-      </c>
-      <c r="L292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M292" t="n">
-        <v>1</v>
-      </c>
-      <c r="N292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
+      <c r="L292" t="n">
+        <v>1</v>
+      </c>
+      <c r="M292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -11618,22 +10528,13 @@
       <c r="H293" t="n">
         <v>0</v>
       </c>
-      <c r="I293" t="n">
-        <v>0</v>
-      </c>
+      <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="n">
-        <v>68.92</v>
-      </c>
-      <c r="L293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M293" t="n">
-        <v>1</v>
-      </c>
-      <c r="N293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
+      <c r="L293" t="n">
+        <v>1</v>
+      </c>
+      <c r="M293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -11660,22 +10561,13 @@
       <c r="H294" t="n">
         <v>0</v>
       </c>
-      <c r="I294" t="n">
-        <v>0</v>
-      </c>
+      <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="n">
-        <v>68.92</v>
-      </c>
-      <c r="L294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M294" t="n">
-        <v>1</v>
-      </c>
-      <c r="N294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
+      <c r="L294" t="n">
+        <v>1</v>
+      </c>
+      <c r="M294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -11702,22 +10594,13 @@
       <c r="H295" t="n">
         <v>0</v>
       </c>
-      <c r="I295" t="n">
-        <v>0</v>
-      </c>
+      <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="n">
-        <v>68.92</v>
-      </c>
-      <c r="L295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M295" t="n">
-        <v>1</v>
-      </c>
-      <c r="N295" t="inlineStr"/>
+      <c r="K295" t="inlineStr"/>
+      <c r="L295" t="n">
+        <v>1</v>
+      </c>
+      <c r="M295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -11742,26 +10625,15 @@
         <v>-380751.7851828445</v>
       </c>
       <c r="H296" t="n">
-        <v>1</v>
-      </c>
-      <c r="I296" t="n">
-        <v>0</v>
-      </c>
-      <c r="J296" t="n">
-        <v>70.09999999999999</v>
-      </c>
-      <c r="K296" t="n">
-        <v>68.92</v>
-      </c>
-      <c r="L296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M296" t="n">
-        <v>1</v>
-      </c>
-      <c r="N296" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I296" t="inlineStr"/>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr"/>
+      <c r="L296" t="n">
+        <v>1</v>
+      </c>
+      <c r="M296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -11788,22 +10660,13 @@
       <c r="H297" t="n">
         <v>0</v>
       </c>
-      <c r="I297" t="n">
-        <v>0</v>
-      </c>
+      <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="n">
-        <v>68.92</v>
-      </c>
-      <c r="L297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M297" t="n">
-        <v>1</v>
-      </c>
-      <c r="N297" t="inlineStr"/>
+      <c r="K297" t="inlineStr"/>
+      <c r="L297" t="n">
+        <v>1</v>
+      </c>
+      <c r="M297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -11830,22 +10693,13 @@
       <c r="H298" t="n">
         <v>0</v>
       </c>
-      <c r="I298" t="n">
-        <v>0</v>
-      </c>
+      <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="n">
-        <v>68.92</v>
-      </c>
-      <c r="L298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M298" t="n">
-        <v>1</v>
-      </c>
-      <c r="N298" t="inlineStr"/>
+      <c r="K298" t="inlineStr"/>
+      <c r="L298" t="n">
+        <v>1</v>
+      </c>
+      <c r="M298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -11872,22 +10726,13 @@
       <c r="H299" t="n">
         <v>0</v>
       </c>
-      <c r="I299" t="n">
-        <v>0</v>
-      </c>
+      <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="n">
-        <v>68.92</v>
-      </c>
-      <c r="L299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M299" t="n">
-        <v>1</v>
-      </c>
-      <c r="N299" t="inlineStr"/>
+      <c r="K299" t="inlineStr"/>
+      <c r="L299" t="n">
+        <v>1</v>
+      </c>
+      <c r="M299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -11914,22 +10759,13 @@
       <c r="H300" t="n">
         <v>0</v>
       </c>
-      <c r="I300" t="n">
-        <v>0</v>
-      </c>
+      <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="n">
-        <v>68.92</v>
-      </c>
-      <c r="L300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M300" t="n">
-        <v>1</v>
-      </c>
-      <c r="N300" t="inlineStr"/>
+      <c r="K300" t="inlineStr"/>
+      <c r="L300" t="n">
+        <v>1</v>
+      </c>
+      <c r="M300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -11956,22 +10792,13 @@
       <c r="H301" t="n">
         <v>0</v>
       </c>
-      <c r="I301" t="n">
-        <v>0</v>
-      </c>
+      <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="n">
-        <v>68.92</v>
-      </c>
-      <c r="L301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M301" t="n">
-        <v>1</v>
-      </c>
-      <c r="N301" t="inlineStr"/>
+      <c r="K301" t="inlineStr"/>
+      <c r="L301" t="n">
+        <v>1</v>
+      </c>
+      <c r="M301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -11998,22 +10825,13 @@
       <c r="H302" t="n">
         <v>0</v>
       </c>
-      <c r="I302" t="n">
-        <v>0</v>
-      </c>
+      <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="n">
-        <v>68.92</v>
-      </c>
-      <c r="L302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M302" t="n">
-        <v>1</v>
-      </c>
-      <c r="N302" t="inlineStr"/>
+      <c r="K302" t="inlineStr"/>
+      <c r="L302" t="n">
+        <v>1</v>
+      </c>
+      <c r="M302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -12040,22 +10858,13 @@
       <c r="H303" t="n">
         <v>0</v>
       </c>
-      <c r="I303" t="n">
-        <v>0</v>
-      </c>
+      <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="n">
-        <v>68.92</v>
-      </c>
-      <c r="L303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M303" t="n">
-        <v>1</v>
-      </c>
-      <c r="N303" t="inlineStr"/>
+      <c r="K303" t="inlineStr"/>
+      <c r="L303" t="n">
+        <v>1</v>
+      </c>
+      <c r="M303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -12082,22 +10891,13 @@
       <c r="H304" t="n">
         <v>0</v>
       </c>
-      <c r="I304" t="n">
-        <v>0</v>
-      </c>
+      <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="n">
-        <v>68.92</v>
-      </c>
-      <c r="L304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M304" t="n">
-        <v>1</v>
-      </c>
-      <c r="N304" t="inlineStr"/>
+      <c r="K304" t="inlineStr"/>
+      <c r="L304" t="n">
+        <v>1</v>
+      </c>
+      <c r="M304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -12124,22 +10924,13 @@
       <c r="H305" t="n">
         <v>0</v>
       </c>
-      <c r="I305" t="n">
-        <v>0</v>
-      </c>
+      <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="n">
-        <v>68.92</v>
-      </c>
-      <c r="L305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M305" t="n">
-        <v>1</v>
-      </c>
-      <c r="N305" t="inlineStr"/>
+      <c r="K305" t="inlineStr"/>
+      <c r="L305" t="n">
+        <v>1</v>
+      </c>
+      <c r="M305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -12166,22 +10957,13 @@
       <c r="H306" t="n">
         <v>0</v>
       </c>
-      <c r="I306" t="n">
-        <v>0</v>
-      </c>
+      <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="n">
-        <v>68.92</v>
-      </c>
-      <c r="L306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M306" t="n">
-        <v>1</v>
-      </c>
-      <c r="N306" t="inlineStr"/>
+      <c r="K306" t="inlineStr"/>
+      <c r="L306" t="n">
+        <v>1</v>
+      </c>
+      <c r="M306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -12208,22 +10990,13 @@
       <c r="H307" t="n">
         <v>0</v>
       </c>
-      <c r="I307" t="n">
-        <v>0</v>
-      </c>
+      <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="n">
-        <v>68.92</v>
-      </c>
-      <c r="L307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M307" t="n">
-        <v>1</v>
-      </c>
-      <c r="N307" t="inlineStr"/>
+      <c r="K307" t="inlineStr"/>
+      <c r="L307" t="n">
+        <v>1</v>
+      </c>
+      <c r="M307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -12250,22 +11023,13 @@
       <c r="H308" t="n">
         <v>0</v>
       </c>
-      <c r="I308" t="n">
-        <v>0</v>
-      </c>
+      <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="n">
-        <v>68.92</v>
-      </c>
-      <c r="L308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M308" t="n">
-        <v>1</v>
-      </c>
-      <c r="N308" t="inlineStr"/>
+      <c r="K308" t="inlineStr"/>
+      <c r="L308" t="n">
+        <v>1</v>
+      </c>
+      <c r="M308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -12292,22 +11056,13 @@
       <c r="H309" t="n">
         <v>0</v>
       </c>
-      <c r="I309" t="n">
-        <v>0</v>
-      </c>
+      <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="n">
-        <v>68.92</v>
-      </c>
-      <c r="L309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M309" t="n">
-        <v>1</v>
-      </c>
-      <c r="N309" t="inlineStr"/>
+      <c r="K309" t="inlineStr"/>
+      <c r="L309" t="n">
+        <v>1</v>
+      </c>
+      <c r="M309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -12334,22 +11089,13 @@
       <c r="H310" t="n">
         <v>0</v>
       </c>
-      <c r="I310" t="n">
-        <v>0</v>
-      </c>
+      <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="n">
-        <v>68.92</v>
-      </c>
-      <c r="L310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M310" t="n">
-        <v>1</v>
-      </c>
-      <c r="N310" t="inlineStr"/>
+      <c r="K310" t="inlineStr"/>
+      <c r="L310" t="n">
+        <v>1</v>
+      </c>
+      <c r="M310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -12376,22 +11122,13 @@
       <c r="H311" t="n">
         <v>0</v>
       </c>
-      <c r="I311" t="n">
-        <v>0</v>
-      </c>
+      <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="n">
-        <v>68.92</v>
-      </c>
-      <c r="L311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M311" t="n">
-        <v>1</v>
-      </c>
-      <c r="N311" t="inlineStr"/>
+      <c r="K311" t="inlineStr"/>
+      <c r="L311" t="n">
+        <v>1</v>
+      </c>
+      <c r="M311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -12418,22 +11155,13 @@
       <c r="H312" t="n">
         <v>0</v>
       </c>
-      <c r="I312" t="n">
-        <v>0</v>
-      </c>
+      <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="n">
-        <v>68.92</v>
-      </c>
-      <c r="L312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M312" t="n">
-        <v>1</v>
-      </c>
-      <c r="N312" t="inlineStr"/>
+      <c r="K312" t="inlineStr"/>
+      <c r="L312" t="n">
+        <v>1</v>
+      </c>
+      <c r="M312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -12460,22 +11188,13 @@
       <c r="H313" t="n">
         <v>0</v>
       </c>
-      <c r="I313" t="n">
-        <v>0</v>
-      </c>
+      <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="n">
-        <v>68.92</v>
-      </c>
-      <c r="L313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M313" t="n">
-        <v>1</v>
-      </c>
-      <c r="N313" t="inlineStr"/>
+      <c r="K313" t="inlineStr"/>
+      <c r="L313" t="n">
+        <v>1</v>
+      </c>
+      <c r="M313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -12502,22 +11221,13 @@
       <c r="H314" t="n">
         <v>0</v>
       </c>
-      <c r="I314" t="n">
-        <v>0</v>
-      </c>
+      <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="n">
-        <v>68.92</v>
-      </c>
-      <c r="L314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M314" t="n">
-        <v>1</v>
-      </c>
-      <c r="N314" t="inlineStr"/>
+      <c r="K314" t="inlineStr"/>
+      <c r="L314" t="n">
+        <v>1</v>
+      </c>
+      <c r="M314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -12544,22 +11254,13 @@
       <c r="H315" t="n">
         <v>0</v>
       </c>
-      <c r="I315" t="n">
-        <v>0</v>
-      </c>
+      <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="n">
-        <v>68.92</v>
-      </c>
-      <c r="L315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M315" t="n">
-        <v>1</v>
-      </c>
-      <c r="N315" t="inlineStr"/>
+      <c r="K315" t="inlineStr"/>
+      <c r="L315" t="n">
+        <v>1</v>
+      </c>
+      <c r="M315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -12586,22 +11287,13 @@
       <c r="H316" t="n">
         <v>0</v>
       </c>
-      <c r="I316" t="n">
-        <v>0</v>
-      </c>
+      <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="n">
-        <v>68.92</v>
-      </c>
-      <c r="L316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M316" t="n">
-        <v>1</v>
-      </c>
-      <c r="N316" t="inlineStr"/>
+      <c r="K316" t="inlineStr"/>
+      <c r="L316" t="n">
+        <v>1</v>
+      </c>
+      <c r="M316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -12628,22 +11320,13 @@
       <c r="H317" t="n">
         <v>0</v>
       </c>
-      <c r="I317" t="n">
-        <v>0</v>
-      </c>
+      <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="n">
-        <v>68.92</v>
-      </c>
-      <c r="L317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M317" t="n">
-        <v>1</v>
-      </c>
-      <c r="N317" t="inlineStr"/>
+      <c r="K317" t="inlineStr"/>
+      <c r="L317" t="n">
+        <v>1</v>
+      </c>
+      <c r="M317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -12670,22 +11353,13 @@
       <c r="H318" t="n">
         <v>0</v>
       </c>
-      <c r="I318" t="n">
-        <v>0</v>
-      </c>
+      <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="n">
-        <v>68.92</v>
-      </c>
-      <c r="L318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M318" t="n">
-        <v>1</v>
-      </c>
-      <c r="N318" t="inlineStr"/>
+      <c r="K318" t="inlineStr"/>
+      <c r="L318" t="n">
+        <v>1</v>
+      </c>
+      <c r="M318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -12712,22 +11386,13 @@
       <c r="H319" t="n">
         <v>0</v>
       </c>
-      <c r="I319" t="n">
-        <v>0</v>
-      </c>
+      <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="n">
-        <v>68.92</v>
-      </c>
-      <c r="L319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M319" t="n">
-        <v>1</v>
-      </c>
-      <c r="N319" t="inlineStr"/>
+      <c r="K319" t="inlineStr"/>
+      <c r="L319" t="n">
+        <v>1</v>
+      </c>
+      <c r="M319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -12754,24 +11419,15 @@
       <c r="H320" t="n">
         <v>0</v>
       </c>
-      <c r="I320" t="n">
-        <v>0</v>
-      </c>
+      <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="n">
-        <v>68.92</v>
-      </c>
-      <c r="L320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M320" t="n">
-        <v>1</v>
-      </c>
-      <c r="N320" t="inlineStr"/>
+      <c r="K320" t="inlineStr"/>
+      <c r="L320" t="n">
+        <v>1</v>
+      </c>
+      <c r="M320" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-24 BackTest ELF.xlsx
+++ b/BackTest/2020-01-24 BackTest ELF.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1177,7 +1177,7 @@
         <v>340049.1282171559</v>
       </c>
       <c r="H24" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>340049.1282171559</v>
       </c>
       <c r="H25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>272591.6793171559</v>
       </c>
       <c r="H26" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>413688.0573171559</v>
       </c>
       <c r="H27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>598295.6687171559</v>
       </c>
       <c r="H28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>671396.0621171559</v>
       </c>
       <c r="H29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>669742.5863171559</v>
       </c>
       <c r="H30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>666469.2388171558</v>
       </c>
       <c r="H31" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>667822.1339171558</v>
       </c>
       <c r="H32" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>664611.6657171558</v>
       </c>
       <c r="H34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>664409.6457171558</v>
       </c>
       <c r="H35" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>669706.7495171558</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>655952.8920171558</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>655977.8920171558</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>655381.8920171558</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>630870.4511171557</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>633548.4511171557</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>586637.0048171558</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>586664.9007171558</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>581369.8494171557</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>592568.1034171557</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>592606.7885171557</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>602124.5070171556</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>609767.0968171556</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>609767.0968171556</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>609767.0968171556</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>585486.5970171556</v>
       </c>
       <c r="H54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>590545.6816171556</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>589946.5690171556</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>564529.0518171556</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>569531.6801171555</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>623460.8486171556</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>620983.1818171556</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>621609.0913171555</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>606920.8893171555</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>581871.5052171554</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>484371.1314171554</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>484371.1314171554</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>484371.1314171554</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>484371.1314171554</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>483713.4177171554</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>438962.4250171554</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>510111.1504171554</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>510861.1504171554</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>477687.1544171554</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>477698.9766171554</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>415983.9681171554</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>417478.7443171554</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>398327.0126171554</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>357764.7947171555</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>345212.9208171554</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -5038,17 +5038,11 @@
         <v>28385.25581715539</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
-      </c>
-      <c r="I141" t="n">
-        <v>70.45999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5081,11 +5075,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5118,11 +5108,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5155,11 +5141,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5192,11 +5174,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5229,11 +5207,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5262,17 +5236,11 @@
         <v>8279.180217155397</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
-      </c>
-      <c r="I147" t="n">
-        <v>70.44</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5305,11 +5273,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5342,11 +5306,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5379,11 +5339,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5416,11 +5372,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5453,11 +5405,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5490,11 +5438,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5527,11 +5471,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5564,11 +5504,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5601,11 +5537,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5638,11 +5570,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5675,11 +5603,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5712,11 +5636,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5749,11 +5669,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5786,11 +5702,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5823,11 +5735,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5860,11 +5768,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5897,11 +5801,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5934,11 +5834,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5971,11 +5867,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6008,11 +5900,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6045,11 +5933,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6082,11 +5966,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6119,11 +5999,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6156,11 +6032,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6193,11 +6065,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6230,11 +6098,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6267,11 +6131,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6304,11 +6164,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6341,11 +6197,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6378,11 +6230,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6415,11 +6263,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6452,11 +6296,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6489,11 +6329,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6522,17 +6358,11 @@
         <v>-96907.13128284461</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
-      </c>
-      <c r="I181" t="n">
-        <v>69.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6565,11 +6395,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6598,17 +6424,11 @@
         <v>-119771.5008828446</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
-      </c>
-      <c r="I183" t="n">
-        <v>69.69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6637,17 +6457,11 @@
         <v>-120075.6954828446</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
-      </c>
-      <c r="I184" t="n">
-        <v>69.14</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6676,15 +6490,15 @@
         <v>-126225.9769828446</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I185" t="n">
+        <v>69.13</v>
+      </c>
+      <c r="J185" t="n">
+        <v>69.13</v>
+      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6716,10 +6530,12 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>69.13</v>
+      </c>
       <c r="K186" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L186" t="n">
@@ -6750,13 +6566,17 @@
         <v>-136967.6189828446</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I187" t="n">
+        <v>69.16</v>
+      </c>
+      <c r="J187" t="n">
+        <v>69.13</v>
+      </c>
       <c r="K187" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L187" t="n">
@@ -6787,12 +6607,14 @@
         <v>-136189.7083828446</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I188" t="n">
         <v>68.92</v>
       </c>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>69.13</v>
+      </c>
       <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6826,10 +6648,14 @@
         <v>-137531.9861828446</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I189" t="n">
+        <v>69.38</v>
+      </c>
+      <c r="J189" t="n">
+        <v>69.13</v>
+      </c>
       <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6863,12 +6689,14 @@
         <v>-184735.2045828446</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I190" t="n">
         <v>68.92</v>
       </c>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>69.13</v>
+      </c>
       <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6902,10 +6730,14 @@
         <v>-184743.2045828446</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I191" t="n">
+        <v>68.81999999999999</v>
+      </c>
+      <c r="J191" t="n">
+        <v>69.13</v>
+      </c>
       <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6939,10 +6771,14 @@
         <v>-184695.2045828446</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I192" t="n">
+        <v>68.81</v>
+      </c>
+      <c r="J192" t="n">
+        <v>69.13</v>
+      </c>
       <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6979,7 +6815,9 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>69.13</v>
+      </c>
       <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7016,7 +6854,9 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>69.13</v>
+      </c>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7053,7 +6893,9 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>69.13</v>
+      </c>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7090,7 +6932,9 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>69.13</v>
+      </c>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7124,10 +6968,14 @@
         <v>-217481.4122828447</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I197" t="n">
+        <v>69.22</v>
+      </c>
+      <c r="J197" t="n">
+        <v>69.13</v>
+      </c>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7161,10 +7009,14 @@
         <v>-217481.4122828447</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I198" t="n">
+        <v>68.81</v>
+      </c>
+      <c r="J198" t="n">
+        <v>69.13</v>
+      </c>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7198,10 +7050,14 @@
         <v>-212831.4122828447</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I199" t="n">
+        <v>68.81</v>
+      </c>
+      <c r="J199" t="n">
+        <v>69.13</v>
+      </c>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7235,12 +7091,14 @@
         <v>-212831.4122828447</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I200" t="n">
         <v>69.05</v>
       </c>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>69.13</v>
+      </c>
       <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7274,12 +7132,14 @@
         <v>-212831.4122828447</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I201" t="n">
         <v>69.05</v>
       </c>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>69.13</v>
+      </c>
       <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7313,12 +7173,14 @@
         <v>-237880.5374828447</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I202" t="n">
         <v>69.05</v>
       </c>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>69.13</v>
+      </c>
       <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7352,12 +7214,14 @@
         <v>-307230.5389828447</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I203" t="n">
         <v>68.73</v>
       </c>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>69.13</v>
+      </c>
       <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7391,12 +7255,14 @@
         <v>-302398.3929828447</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I204" t="n">
         <v>68.52</v>
       </c>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>69.13</v>
+      </c>
       <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7430,12 +7296,14 @@
         <v>-316221.7853828447</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I205" t="n">
         <v>69.09</v>
       </c>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>69.13</v>
+      </c>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7469,12 +7337,14 @@
         <v>-308621.7853828447</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I206" t="n">
         <v>68.59999999999999</v>
       </c>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>69.13</v>
+      </c>
       <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7508,12 +7378,14 @@
         <v>-344466.1701828447</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I207" t="n">
         <v>69.3</v>
       </c>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>69.13</v>
+      </c>
       <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7547,12 +7419,14 @@
         <v>-340838.1315828447</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I208" t="n">
         <v>68.84999999999999</v>
       </c>
-      <c r="J208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>69.13</v>
+      </c>
       <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7586,12 +7460,14 @@
         <v>-324124.0986828447</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I209" t="n">
         <v>68.90000000000001</v>
       </c>
-      <c r="J209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>69.13</v>
+      </c>
       <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7625,10 +7501,14 @@
         <v>-312634.3203828447</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I210" t="n">
+        <v>69</v>
+      </c>
+      <c r="J210" t="n">
+        <v>69.13</v>
+      </c>
       <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7662,12 +7542,14 @@
         <v>-313485.0179828447</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I211" t="n">
         <v>69.59999999999999</v>
       </c>
-      <c r="J211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>69.13</v>
+      </c>
       <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7701,10 +7583,14 @@
         <v>-313430.6730828446</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I212" t="n">
+        <v>69.5</v>
+      </c>
+      <c r="J212" t="n">
+        <v>69.13</v>
+      </c>
       <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7738,12 +7624,14 @@
         <v>-294329.7101828447</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I213" t="n">
         <v>69.59999999999999</v>
       </c>
-      <c r="J213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>69.13</v>
+      </c>
       <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7777,10 +7665,14 @@
         <v>-294329.7101828447</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I214" t="n">
+        <v>70</v>
+      </c>
+      <c r="J214" t="n">
+        <v>69.13</v>
+      </c>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7814,12 +7706,14 @@
         <v>-297517.8953828447</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I215" t="n">
         <v>70</v>
       </c>
-      <c r="J215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>69.13</v>
+      </c>
       <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7853,10 +7747,14 @@
         <v>-285911.8409828446</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I216" t="n">
+        <v>69.91</v>
+      </c>
+      <c r="J216" t="n">
+        <v>69.13</v>
+      </c>
       <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7890,10 +7788,14 @@
         <v>-283730.2045828446</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I217" t="n">
+        <v>70</v>
+      </c>
+      <c r="J217" t="n">
+        <v>69.13</v>
+      </c>
       <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7927,10 +7829,14 @@
         <v>-280807.9983828446</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I218" t="n">
+        <v>70.38</v>
+      </c>
+      <c r="J218" t="n">
+        <v>69.13</v>
+      </c>
       <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7967,7 +7873,9 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>69.13</v>
+      </c>
       <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8001,10 +7909,14 @@
         <v>-291534.5875828446</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I220" t="n">
+        <v>69.92</v>
+      </c>
+      <c r="J220" t="n">
+        <v>69.13</v>
+      </c>
       <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8038,10 +7950,14 @@
         <v>-291534.5875828446</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I221" t="n">
+        <v>70.09999999999999</v>
+      </c>
+      <c r="J221" t="n">
+        <v>69.13</v>
+      </c>
       <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8075,10 +7991,14 @@
         <v>-297484.5875828446</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I222" t="n">
+        <v>70.09999999999999</v>
+      </c>
+      <c r="J222" t="n">
+        <v>69.13</v>
+      </c>
       <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8112,10 +8032,14 @@
         <v>-297484.5875828446</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I223" t="n">
+        <v>69.97</v>
+      </c>
+      <c r="J223" t="n">
+        <v>69.13</v>
+      </c>
       <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8149,12 +8073,14 @@
         <v>-317484.5875828446</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I224" t="n">
         <v>69.97</v>
       </c>
-      <c r="J224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>69.13</v>
+      </c>
       <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8188,12 +8114,14 @@
         <v>-328334.5875828446</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I225" t="n">
         <v>69.92</v>
       </c>
-      <c r="J225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>69.13</v>
+      </c>
       <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8227,12 +8155,14 @@
         <v>-328334.5875828446</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I226" t="n">
         <v>69.90000000000001</v>
       </c>
-      <c r="J226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>69.13</v>
+      </c>
       <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8266,12 +8196,14 @@
         <v>-328334.5875828446</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I227" t="n">
         <v>69.90000000000001</v>
       </c>
-      <c r="J227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>69.13</v>
+      </c>
       <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8305,12 +8237,14 @@
         <v>-328334.5875828446</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I228" t="n">
         <v>69.90000000000001</v>
       </c>
-      <c r="J228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>69.13</v>
+      </c>
       <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8344,12 +8278,14 @@
         <v>-253400.8981828446</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I229" t="n">
         <v>69.90000000000001</v>
       </c>
-      <c r="J229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>69.13</v>
+      </c>
       <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8383,12 +8319,14 @@
         <v>-252026.0412828446</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I230" t="n">
         <v>70.5</v>
       </c>
-      <c r="J230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>69.13</v>
+      </c>
       <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8425,7 +8363,9 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>69.13</v>
+      </c>
       <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8462,7 +8402,9 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>69.13</v>
+      </c>
       <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8499,7 +8441,9 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>69.13</v>
+      </c>
       <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8536,7 +8480,9 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>69.13</v>
+      </c>
       <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8573,7 +8519,9 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>69.13</v>
+      </c>
       <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8610,7 +8558,9 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>69.13</v>
+      </c>
       <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8644,10 +8594,12 @@
         <v>-233066.5782828445</v>
       </c>
       <c r="H237" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>69.13</v>
+      </c>
       <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8681,10 +8633,12 @@
         <v>-201395.5548828445</v>
       </c>
       <c r="H238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>69.13</v>
+      </c>
       <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8721,7 +8675,9 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>69.13</v>
+      </c>
       <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8758,7 +8714,9 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>69.13</v>
+      </c>
       <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8795,7 +8753,9 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>69.13</v>
+      </c>
       <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8832,7 +8792,9 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>69.13</v>
+      </c>
       <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8869,7 +8831,9 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>69.13</v>
+      </c>
       <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8906,7 +8870,9 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>69.13</v>
+      </c>
       <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8940,16 +8906,20 @@
         <v>-150336.7571828445</v>
       </c>
       <c r="H245" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>69.13</v>
+      </c>
       <c r="K245" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L245" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
       <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
@@ -8978,8 +8948,14 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>69.13</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9008,11 +8984,17 @@
         <v>-189556.2641828445</v>
       </c>
       <c r="H247" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>69.13</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9044,8 +9026,14 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>69.13</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9077,8 +9065,14 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>69.13</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9110,8 +9104,14 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>69.13</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9143,8 +9143,14 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>69.13</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9176,8 +9182,14 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>69.13</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9209,8 +9221,14 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>69.13</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9242,8 +9260,14 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>69.13</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9275,8 +9299,14 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>69.13</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9308,8 +9338,14 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>69.13</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9341,8 +9377,14 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>69.13</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9374,8 +9416,14 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>69.13</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9407,8 +9455,14 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>69.13</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9440,8 +9494,14 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>69.13</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9473,8 +9533,14 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>69.13</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9506,8 +9572,14 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>69.13</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9539,8 +9611,14 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>69.13</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9572,8 +9650,14 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>69.13</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9605,8 +9689,14 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>69.13</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9638,8 +9728,14 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>69.13</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9671,8 +9767,14 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>69.13</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9704,8 +9806,14 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>69.13</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9737,8 +9845,14 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>69.13</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9770,8 +9884,14 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>69.13</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9803,8 +9923,14 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>69.13</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9836,8 +9962,14 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>69.13</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9869,8 +10001,14 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>69.13</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9902,8 +10040,14 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>69.13</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9935,8 +10079,14 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>69.13</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9968,8 +10118,14 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>69.13</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10001,8 +10157,14 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>69.13</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10034,8 +10196,14 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>69.13</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10067,8 +10235,14 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>69.13</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10100,8 +10274,14 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>69.13</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10133,8 +10313,14 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>69.13</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10166,8 +10352,14 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>69.13</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10199,8 +10391,14 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>69.13</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10232,8 +10430,14 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>69.13</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10265,8 +10469,14 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>69.13</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10298,8 +10508,14 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>69.13</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10331,8 +10547,14 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>69.13</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10364,8 +10586,14 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>69.13</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10397,8 +10625,14 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>69.13</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10430,8 +10664,14 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>69.13</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10463,8 +10703,14 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>69.13</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10496,8 +10742,14 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>69.13</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10529,8 +10781,14 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>69.13</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10562,8 +10820,14 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>69.13</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10595,8 +10859,14 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>69.13</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10628,8 +10898,14 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>69.13</v>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10661,8 +10937,14 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>69.13</v>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10694,8 +10976,14 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>69.13</v>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10727,8 +11015,14 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>69.13</v>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10760,8 +11054,14 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>69.13</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10793,8 +11093,14 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>69.13</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10826,8 +11132,14 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>69.13</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10859,8 +11171,14 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>69.13</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10892,8 +11210,14 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>69.13</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10925,8 +11249,14 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>69.13</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10958,8 +11288,14 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>69.13</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10991,8 +11327,14 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>69.13</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11024,8 +11366,14 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>69.13</v>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11057,8 +11405,14 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>69.13</v>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11090,8 +11444,14 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>69.13</v>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11123,8 +11483,14 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>69.13</v>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11156,8 +11522,14 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>69.13</v>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11189,8 +11561,14 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>69.13</v>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11222,8 +11600,14 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>69.13</v>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11255,8 +11639,14 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>69.13</v>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11288,8 +11678,14 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>69.13</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11321,8 +11717,14 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>69.13</v>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11354,8 +11756,14 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>69.13</v>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11387,8 +11795,14 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>69.13</v>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11420,14 +11834,20 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>69.13</v>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
       <c r="M320" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-24 BackTest ELF.xlsx
+++ b/BackTest/2020-01-24 BackTest ELF.xlsx
@@ -451,7 +451,7 @@
         <v>345449.5338171559</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>346337.5338171559</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>346260.5338171559</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>346260.5338171559</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>346260.5338171559</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>381949.3034171559</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>378566.4963171559</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>378088.2457171559</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>379096.1257171559</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>378937.7287171559</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>379014.7287171559</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>348739.5260171558</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>348761.5260171558</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>338216.3861171558</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>346544.1791171558</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>671396.0621171559</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>669742.5863171559</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>666469.2388171558</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>667822.1339171558</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>664655.6657171558</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>664611.6657171558</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>633548.4511171557</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>586637.0048171558</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>586664.9007171558</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>602124.5070171556</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>609767.0968171556</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>609767.0968171556</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>610424.4215171556</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>606932.1493171556</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>585474.2451171556</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>585486.5970171556</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>590545.6816171556</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>589946.5690171556</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>587820.1392171555</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>575929.0518171556</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -6721,14 +6721,10 @@
         <v>-184695.2045828446</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
-      </c>
-      <c r="I192" t="n">
-        <v>68.81</v>
-      </c>
-      <c r="J192" t="n">
-        <v>68.81</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
@@ -6761,14 +6757,8 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>68.81</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6800,14 +6790,8 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>68.81</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7100,11 +7084,17 @@
         <v>-307230.5389828447</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I203" t="n">
+        <v>68.73</v>
+      </c>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7133,11 +7123,17 @@
         <v>-302398.3929828447</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I204" t="n">
+        <v>68.52</v>
+      </c>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7170,7 +7166,11 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7199,11 +7199,17 @@
         <v>-308621.7853828447</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I206" t="n">
+        <v>68.59999999999999</v>
+      </c>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7232,11 +7238,17 @@
         <v>-344466.1701828447</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I207" t="n">
+        <v>69.3</v>
+      </c>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7269,7 +7281,11 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7298,11 +7314,17 @@
         <v>-324124.0986828447</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I209" t="n">
+        <v>68.90000000000001</v>
+      </c>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7331,11 +7353,17 @@
         <v>-312634.3203828447</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I210" t="n">
+        <v>69</v>
+      </c>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7368,7 +7396,11 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7397,11 +7429,17 @@
         <v>-313430.6730828446</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I212" t="n">
+        <v>69.5</v>
+      </c>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7430,11 +7468,17 @@
         <v>-294329.7101828447</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I213" t="n">
+        <v>69.59999999999999</v>
+      </c>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7463,11 +7507,17 @@
         <v>-294329.7101828447</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I214" t="n">
+        <v>70</v>
+      </c>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7500,7 +7550,11 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7529,11 +7583,17 @@
         <v>-285911.8409828446</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I216" t="n">
+        <v>69.91</v>
+      </c>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7566,7 +7626,11 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7599,7 +7663,11 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7632,7 +7700,11 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7661,11 +7733,17 @@
         <v>-291534.5875828446</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I220" t="n">
+        <v>69.92</v>
+      </c>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7694,11 +7772,17 @@
         <v>-291534.5875828446</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I221" t="n">
+        <v>70.09999999999999</v>
+      </c>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7727,11 +7811,17 @@
         <v>-297484.5875828446</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I222" t="n">
+        <v>70.09999999999999</v>
+      </c>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7760,11 +7850,17 @@
         <v>-297484.5875828446</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I223" t="n">
+        <v>69.97</v>
+      </c>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7793,11 +7889,17 @@
         <v>-317484.5875828446</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I224" t="n">
+        <v>69.97</v>
+      </c>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7826,11 +7928,17 @@
         <v>-328334.5875828446</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I225" t="n">
+        <v>69.92</v>
+      </c>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -7859,11 +7967,17 @@
         <v>-328334.5875828446</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I226" t="n">
+        <v>69.90000000000001</v>
+      </c>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -7892,11 +8006,17 @@
         <v>-328334.5875828446</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I227" t="n">
+        <v>69.90000000000001</v>
+      </c>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -7925,11 +8045,17 @@
         <v>-328334.5875828446</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I228" t="n">
+        <v>69.90000000000001</v>
+      </c>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -7958,11 +8084,17 @@
         <v>-253400.8981828446</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I229" t="n">
+        <v>69.90000000000001</v>
+      </c>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -7991,11 +8123,17 @@
         <v>-252026.0412828446</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I230" t="n">
+        <v>70.5</v>
+      </c>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8024,11 +8162,17 @@
         <v>-247717.5815828446</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I231" t="n">
+        <v>71.45999999999999</v>
+      </c>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8061,7 +8205,11 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8094,7 +8242,11 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8127,7 +8279,11 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8160,7 +8316,11 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8193,7 +8353,11 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8226,7 +8390,11 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8259,7 +8427,11 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8292,7 +8464,11 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8325,7 +8501,11 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8358,7 +8538,11 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8391,7 +8575,11 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8424,7 +8612,11 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8457,7 +8649,11 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8490,7 +8686,11 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8523,7 +8723,11 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8556,7 +8760,11 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8589,7 +8797,11 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8622,7 +8834,11 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8655,7 +8871,11 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8688,7 +8908,11 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8721,7 +8945,11 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8754,7 +8982,11 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -8787,7 +9019,11 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -8820,7 +9056,11 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -8853,7 +9093,11 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -8886,7 +9130,11 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -8919,7 +9167,11 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -8952,7 +9204,11 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -8985,7 +9241,11 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9018,7 +9278,11 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9051,7 +9315,11 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9084,7 +9352,11 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9117,7 +9389,11 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9150,7 +9426,11 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9183,7 +9463,11 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9216,7 +9500,11 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9249,7 +9537,11 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9282,7 +9574,11 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9315,7 +9611,11 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9348,7 +9648,11 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9381,7 +9685,11 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9414,7 +9722,11 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9447,7 +9759,11 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9480,7 +9796,11 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9513,7 +9833,11 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9546,7 +9870,11 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9579,7 +9907,11 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9612,7 +9944,11 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9645,7 +9981,11 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9678,7 +10018,11 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -9711,7 +10055,11 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -9744,7 +10092,11 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -9777,7 +10129,11 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -9810,7 +10166,11 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -9843,7 +10203,11 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -9876,7 +10240,11 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -9909,7 +10277,11 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -9942,7 +10314,11 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -9975,7 +10351,11 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10008,7 +10388,11 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10041,7 +10425,11 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10074,7 +10462,11 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10107,7 +10499,11 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10140,7 +10536,11 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10173,7 +10573,11 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10206,7 +10610,11 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10239,7 +10647,11 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10272,7 +10684,11 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10305,7 +10721,11 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10338,7 +10758,11 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10371,7 +10795,11 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10404,7 +10832,11 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10437,7 +10869,11 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10470,7 +10906,11 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10503,7 +10943,11 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10536,7 +10980,11 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10569,7 +11017,11 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10602,7 +11054,11 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -10635,7 +11091,11 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -10668,7 +11128,11 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -10701,7 +11165,11 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -10734,7 +11202,11 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -10767,7 +11239,11 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -10800,7 +11276,11 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -10833,7 +11313,11 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -10866,7 +11350,11 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -10895,15 +11383,13 @@
         <v>-300953.3777602594</v>
       </c>
       <c r="H318" t="n">
-        <v>1</v>
-      </c>
-      <c r="I318" t="n">
-        <v>71.11</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L318" t="n">
@@ -10934,11 +11420,9 @@
         <v>-294331.6051602594</v>
       </c>
       <c r="H319" t="n">
-        <v>1</v>
-      </c>
-      <c r="I319" t="n">
-        <v>70.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr">
         <is>
@@ -10973,11 +11457,9 @@
         <v>-294331.6051602594</v>
       </c>
       <c r="H320" t="n">
-        <v>1</v>
-      </c>
-      <c r="I320" t="n">
-        <v>70.68000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr">
         <is>
